--- a/언리얼 요약본.xlsx
+++ b/언리얼 요약본.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yelim\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yelim\Documents\GitHub\Study_Unreal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41DD4DB-0676-4021-B50F-091476C1BAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CA681C-9F38-4562-A63E-5054E9C2D70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14565" yWindow="600" windowWidth="26265" windowHeight="20400" xr2:uid="{CEA47E12-18E0-4701-A6C4-D2FB2DC55C50}"/>
+    <workbookView xWindow="18555" yWindow="750" windowWidth="26265" windowHeight="20400" xr2:uid="{CEA47E12-18E0-4701-A6C4-D2FB2DC55C50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="287">
   <si>
     <t>Config</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2036,7 +2036,90 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>컨트롤 회전의 활용</t>
+    <t>플레이어 컨트롤러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주로 게임 세계의 물리적인 요소를 고려하지 않은 플레이어의 의지에 관련된 데이터를 관리함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 컨트롤러가 관리하는 속성. 플레이어 의지를 나타냄.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 세계에서 물리적인 제약을 가지기 때문에 현재 캐릭터가 처한 물리적인 상황을 관리 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">컨트롤 회전 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Control Rotation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">속도 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Velocity</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폰이 관리하는 속성 중 대표적인 것. 속도는 현재 폰의 이동 상태를 알려주는 중요한 데이터 중 하나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨트롤 회전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마우스의 상하, 좌우에 대한 움직임은 삼인칭 템플릿에서 제공하는 Turn과 LookUp의 축 Axis 입력 설정을 사용해 받아올 수 있음.
+언리얼 엔진은 입력값에 따라 캐릭터가 회전하도록 AddControllerInputYaw, Roll, Pitch 세가지 명령을 제공함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터의 Z축 회전, Yaw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LookUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터의 Y축 회전, Pitch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트의 스케일 값을 위의 명령에 연동하면 플레이어 컨트롤러의 컨트롤 회전 값이 입력에 따라 변함.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2044,7 +2127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2148,6 +2231,22 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2157,7 +2256,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -2519,13 +2618,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2622,6 +2734,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2631,6 +2818,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2640,85 +2833,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3035,13 +3162,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77C2A88-FEC8-45F4-8595-5DB014046BF1}">
-  <dimension ref="A1:D126"/>
+  <dimension ref="A1:D133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A123" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D125" sqref="D125"/>
+      <selection activeCell="C130" sqref="C130:D130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="20" style="2" bestFit="1" customWidth="1"/>
@@ -3049,7 +3176,7 @@
     <col min="4" max="4" width="110.375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" thickBot="1">
+    <row r="1" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>14</v>
       </c>
@@ -3063,11 +3190,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="52" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="14" t="s">
@@ -3077,9 +3204,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A3" s="49"/>
-      <c r="B3" s="46"/>
+    <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="50"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
@@ -3087,9 +3214,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A4" s="49"/>
-      <c r="B4" s="46"/>
+    <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="50"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
@@ -3097,9 +3224,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="33">
-      <c r="A5" s="49"/>
-      <c r="B5" s="46"/>
+    <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A5" s="50"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
@@ -3107,9 +3234,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="49"/>
-      <c r="B6" s="46"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="50"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
@@ -3117,9 +3244,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="33">
-      <c r="A7" s="49"/>
-      <c r="B7" s="46"/>
+    <row r="7" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A7" s="50"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
@@ -3127,9 +3254,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="66">
-      <c r="A8" s="49"/>
-      <c r="B8" s="46"/>
+    <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A8" s="50"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="2" t="s">
         <v>62</v>
       </c>
@@ -3137,9 +3264,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A9" s="49"/>
-      <c r="B9" s="45" t="s">
+    <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="50"/>
+      <c r="B9" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -3149,9 +3276,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="49"/>
-      <c r="B10" s="45"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="50"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
@@ -3159,9 +3286,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="49"/>
-      <c r="B11" s="45"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="50"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
@@ -3169,9 +3296,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="49"/>
-      <c r="B12" s="45"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="50"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="4" t="s">
         <v>22</v>
       </c>
@@ -3179,9 +3306,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A13" s="50"/>
-      <c r="B13" s="61"/>
+    <row r="13" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="51"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="18" t="s">
         <v>21</v>
       </c>
@@ -3189,21 +3316,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="49.5" customHeight="1">
-      <c r="A14" s="42" t="s">
+    <row r="14" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="52"/>
-    </row>
-    <row r="15" spans="1:4" ht="33">
-      <c r="A15" s="43"/>
-      <c r="B15" s="46"/>
+      <c r="D14" s="44"/>
+    </row>
+    <row r="15" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A15" s="53"/>
+      <c r="B15" s="34"/>
       <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
@@ -3211,9 +3338,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="33">
-      <c r="A16" s="43"/>
-      <c r="B16" s="46"/>
+    <row r="16" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A16" s="53"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
@@ -3221,9 +3348,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="33">
-      <c r="A17" s="43"/>
-      <c r="B17" s="46"/>
+    <row r="17" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A17" s="53"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="2" t="s">
         <v>31</v>
       </c>
@@ -3231,9 +3358,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="33">
-      <c r="A18" s="43"/>
-      <c r="B18" s="46"/>
+    <row r="18" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A18" s="53"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="2" t="s">
         <v>32</v>
       </c>
@@ -3241,19 +3368,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="43"/>
-      <c r="B19" s="46" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="53"/>
+      <c r="B19" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="57" t="s">
+      <c r="C19" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="48"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="43"/>
-      <c r="B20" s="46"/>
+      <c r="D19" s="33"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="53"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="2" t="s">
         <v>40</v>
       </c>
@@ -3261,9 +3388,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="43"/>
-      <c r="B21" s="46"/>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="53"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="2" t="s">
         <v>41</v>
       </c>
@@ -3271,9 +3398,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="43"/>
-      <c r="B22" s="46"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="53"/>
+      <c r="B22" s="34"/>
       <c r="C22" s="2" t="s">
         <v>42</v>
       </c>
@@ -3281,9 +3408,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="33">
-      <c r="A23" s="43"/>
-      <c r="B23" s="46"/>
+    <row r="23" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A23" s="53"/>
+      <c r="B23" s="34"/>
       <c r="C23" s="2" t="s">
         <v>43</v>
       </c>
@@ -3291,9 +3418,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="33">
-      <c r="A24" s="43"/>
-      <c r="B24" s="46"/>
+    <row r="24" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A24" s="53"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="2" t="s">
         <v>44</v>
       </c>
@@ -3301,29 +3428,29 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="50.25" customHeight="1">
-      <c r="A25" s="43"/>
+    <row r="25" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="53"/>
       <c r="B25" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="47" t="s">
+      <c r="C25" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="48"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="43"/>
-      <c r="B26" s="46" t="s">
+      <c r="D25" s="33"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="53"/>
+      <c r="B26" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="62" t="s">
+      <c r="C26" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="48"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="43"/>
-      <c r="B27" s="46"/>
+      <c r="D26" s="33"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="53"/>
+      <c r="B27" s="34"/>
       <c r="C27" s="2" t="s">
         <v>52</v>
       </c>
@@ -3331,9 +3458,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="43"/>
-      <c r="B28" s="46"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="53"/>
+      <c r="B28" s="34"/>
       <c r="C28" s="2" t="s">
         <v>53</v>
       </c>
@@ -3341,9 +3468,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="43"/>
-      <c r="B29" s="46"/>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="53"/>
+      <c r="B29" s="34"/>
       <c r="C29" s="2" t="s">
         <v>54</v>
       </c>
@@ -3351,9 +3478,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="33">
-      <c r="A30" s="43"/>
-      <c r="B30" s="46"/>
+    <row r="30" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A30" s="53"/>
+      <c r="B30" s="34"/>
       <c r="C30" s="5" t="s">
         <v>78</v>
       </c>
@@ -3361,9 +3488,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="33">
-      <c r="A31" s="43"/>
-      <c r="B31" s="45" t="s">
+    <row r="31" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A31" s="53"/>
+      <c r="B31" s="40" t="s">
         <v>59</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -3373,9 +3500,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="49.5">
-      <c r="A32" s="43"/>
-      <c r="B32" s="46"/>
+    <row r="32" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="53"/>
+      <c r="B32" s="34"/>
       <c r="C32" s="5" t="s">
         <v>61</v>
       </c>
@@ -3383,9 +3510,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="33">
-      <c r="A33" s="43"/>
-      <c r="B33" s="46"/>
+    <row r="33" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A33" s="53"/>
+      <c r="B33" s="34"/>
       <c r="C33" s="5" t="s">
         <v>63</v>
       </c>
@@ -3393,9 +3520,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="33">
-      <c r="A34" s="43"/>
-      <c r="B34" s="46"/>
+    <row r="34" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A34" s="53"/>
+      <c r="B34" s="34"/>
       <c r="C34" s="5" t="s">
         <v>64</v>
       </c>
@@ -3403,9 +3530,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="33">
-      <c r="A35" s="43"/>
-      <c r="B35" s="46"/>
+    <row r="35" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A35" s="53"/>
+      <c r="B35" s="34"/>
       <c r="C35" s="5" t="s">
         <v>65</v>
       </c>
@@ -3413,9 +3540,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="49.5">
-      <c r="A36" s="43"/>
-      <c r="B36" s="46"/>
+    <row r="36" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="53"/>
+      <c r="B36" s="34"/>
       <c r="C36" s="5" t="s">
         <v>66</v>
       </c>
@@ -3423,9 +3550,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="33">
-      <c r="A37" s="43"/>
-      <c r="B37" s="46"/>
+    <row r="37" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A37" s="53"/>
+      <c r="B37" s="34"/>
       <c r="C37" s="5" t="s">
         <v>67</v>
       </c>
@@ -3433,9 +3560,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="33">
-      <c r="A38" s="43"/>
-      <c r="B38" s="46"/>
+    <row r="38" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A38" s="53"/>
+      <c r="B38" s="34"/>
       <c r="C38" s="5" t="s">
         <v>68</v>
       </c>
@@ -3443,19 +3570,19 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="82.5" customHeight="1">
-      <c r="A39" s="43"/>
+    <row r="39" spans="1:4" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="53"/>
       <c r="B39" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="55" t="s">
+      <c r="C39" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="64"/>
-    </row>
-    <row r="40" spans="1:4" ht="33">
-      <c r="A40" s="43"/>
-      <c r="B40" s="45" t="s">
+      <c r="D39" s="48"/>
+    </row>
+    <row r="40" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A40" s="53"/>
+      <c r="B40" s="40" t="s">
         <v>82</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -3465,9 +3592,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="33">
-      <c r="A41" s="43"/>
-      <c r="B41" s="46"/>
+    <row r="41" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A41" s="53"/>
+      <c r="B41" s="34"/>
       <c r="C41" s="5" t="s">
         <v>84</v>
       </c>
@@ -3475,9 +3602,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="33">
-      <c r="A42" s="43"/>
-      <c r="B42" s="46"/>
+    <row r="42" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A42" s="53"/>
+      <c r="B42" s="34"/>
       <c r="C42" s="5" t="s">
         <v>85</v>
       </c>
@@ -3485,9 +3612,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="49.5">
-      <c r="A43" s="43"/>
-      <c r="B43" s="46"/>
+    <row r="43" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="53"/>
+      <c r="B43" s="34"/>
       <c r="C43" s="5" t="s">
         <v>86</v>
       </c>
@@ -3495,19 +3622,19 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="49.5">
-      <c r="A44" s="43"/>
-      <c r="B44" s="46" t="s">
+    <row r="44" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="53"/>
+      <c r="B44" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="46"/>
+      <c r="C44" s="34"/>
       <c r="D44" s="22" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="43"/>
-      <c r="B45" s="45" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="53"/>
+      <c r="B45" s="40" t="s">
         <v>101</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -3517,9 +3644,9 @@
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="43"/>
-      <c r="B46" s="45"/>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="53"/>
+      <c r="B46" s="40"/>
       <c r="C46" s="7" t="s">
         <v>93</v>
       </c>
@@ -3527,9 +3654,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="66">
-      <c r="A47" s="43"/>
-      <c r="B47" s="45"/>
+    <row r="47" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A47" s="53"/>
+      <c r="B47" s="40"/>
       <c r="C47" s="6" t="s">
         <v>90</v>
       </c>
@@ -3537,9 +3664,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="43"/>
-      <c r="B48" s="45"/>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="53"/>
+      <c r="B48" s="40"/>
       <c r="C48" s="6" t="s">
         <v>94</v>
       </c>
@@ -3547,9 +3674,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="43"/>
-      <c r="B49" s="45"/>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="53"/>
+      <c r="B49" s="40"/>
       <c r="C49" s="6" t="s">
         <v>95</v>
       </c>
@@ -3557,9 +3684,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="43"/>
-      <c r="B50" s="45"/>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="53"/>
+      <c r="B50" s="40"/>
       <c r="C50" s="6" t="s">
         <v>96</v>
       </c>
@@ -3567,9 +3694,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="43"/>
-      <c r="B51" s="45" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="53"/>
+      <c r="B51" s="40" t="s">
         <v>102</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -3579,9 +3706,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="43"/>
-      <c r="B52" s="45"/>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="53"/>
+      <c r="B52" s="40"/>
       <c r="C52" s="2" t="s">
         <v>103</v>
       </c>
@@ -3589,9 +3716,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="43"/>
-      <c r="B53" s="45"/>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="53"/>
+      <c r="B53" s="40"/>
       <c r="C53" s="2" t="s">
         <v>104</v>
       </c>
@@ -3599,9 +3726,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="43"/>
-      <c r="B54" s="45"/>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="53"/>
+      <c r="B54" s="40"/>
       <c r="C54" s="2" t="s">
         <v>105</v>
       </c>
@@ -3609,9 +3736,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="43"/>
-      <c r="B55" s="46" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="53"/>
+      <c r="B55" s="34" t="s">
         <v>110</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -3621,9 +3748,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="49.5">
-      <c r="A56" s="43"/>
-      <c r="B56" s="46"/>
+    <row r="56" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="53"/>
+      <c r="B56" s="34"/>
       <c r="C56" s="2" t="s">
         <v>113</v>
       </c>
@@ -3631,9 +3758,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="43"/>
-      <c r="B57" s="46"/>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="53"/>
+      <c r="B57" s="34"/>
       <c r="C57" s="2" t="s">
         <v>115</v>
       </c>
@@ -3641,9 +3768,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="43"/>
-      <c r="B58" s="46"/>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="53"/>
+      <c r="B58" s="34"/>
       <c r="C58" s="2" t="s">
         <v>117</v>
       </c>
@@ -3651,9 +3778,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="43"/>
-      <c r="B59" s="46"/>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="53"/>
+      <c r="B59" s="34"/>
       <c r="C59" s="2" t="s">
         <v>119</v>
       </c>
@@ -3661,39 +3788,39 @@
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="33">
-      <c r="A60" s="43"/>
-      <c r="B60" s="46" t="s">
+    <row r="60" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A60" s="53"/>
+      <c r="B60" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="C60" s="46"/>
+      <c r="C60" s="34"/>
       <c r="D60" s="17" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="49.5">
-      <c r="A61" s="43"/>
-      <c r="B61" s="46" t="s">
+    <row r="61" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A61" s="53"/>
+      <c r="B61" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="C61" s="46"/>
+      <c r="C61" s="34"/>
       <c r="D61" s="17" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="48.75" customHeight="1">
-      <c r="A62" s="43"/>
-      <c r="B62" s="45" t="s">
+    <row r="62" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="53"/>
+      <c r="B62" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="C62" s="47" t="s">
+      <c r="C62" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="D62" s="48"/>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="43"/>
-      <c r="B63" s="46"/>
+      <c r="D62" s="33"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="53"/>
+      <c r="B63" s="34"/>
       <c r="C63" s="2" t="s">
         <v>125</v>
       </c>
@@ -3701,9 +3828,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="43"/>
-      <c r="B64" s="46"/>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="53"/>
+      <c r="B64" s="34"/>
       <c r="C64" s="2" t="s">
         <v>126</v>
       </c>
@@ -3711,9 +3838,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="43"/>
-      <c r="B65" s="46"/>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="53"/>
+      <c r="B65" s="34"/>
       <c r="C65" s="2" t="s">
         <v>127</v>
       </c>
@@ -3721,9 +3848,9 @@
         <v>132</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="43"/>
-      <c r="B66" s="46"/>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="53"/>
+      <c r="B66" s="34"/>
       <c r="C66" s="2" t="s">
         <v>128</v>
       </c>
@@ -3731,9 +3858,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="43"/>
-      <c r="B67" s="46"/>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="53"/>
+      <c r="B67" s="34"/>
       <c r="C67" s="2" t="s">
         <v>129</v>
       </c>
@@ -3741,9 +3868,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="43"/>
-      <c r="B68" s="46" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="53"/>
+      <c r="B68" s="34" t="s">
         <v>140</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -3753,17 +3880,17 @@
         <v>139</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="48.75" customHeight="1">
-      <c r="A69" s="43"/>
-      <c r="B69" s="46"/>
-      <c r="C69" s="55" t="s">
+    <row r="69" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="53"/>
+      <c r="B69" s="34"/>
+      <c r="C69" s="47" t="s">
         <v>141</v>
       </c>
       <c r="D69" s="56"/>
     </row>
-    <row r="70" spans="1:4" ht="132.75" thickBot="1">
-      <c r="A70" s="44"/>
-      <c r="B70" s="63"/>
+    <row r="70" spans="1:4" ht="132.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="54"/>
+      <c r="B70" s="46"/>
       <c r="C70" s="24" t="s">
         <v>142</v>
       </c>
@@ -3771,21 +3898,21 @@
         <v>201</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A71" s="42" t="s">
+    <row r="71" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="B71" s="53" t="s">
+      <c r="B71" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="C71" s="51" t="s">
+      <c r="C71" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="D71" s="52"/>
-    </row>
-    <row r="72" spans="1:4" ht="33">
-      <c r="A72" s="43"/>
-      <c r="B72" s="46"/>
+      <c r="D71" s="44"/>
+    </row>
+    <row r="72" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A72" s="53"/>
+      <c r="B72" s="34"/>
       <c r="C72" s="2" t="s">
         <v>148</v>
       </c>
@@ -3793,9 +3920,9 @@
         <v>194</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="43"/>
-      <c r="B73" s="46"/>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="53"/>
+      <c r="B73" s="34"/>
       <c r="C73" s="2" t="s">
         <v>149</v>
       </c>
@@ -3803,9 +3930,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="49.5">
-      <c r="A74" s="43"/>
-      <c r="B74" s="46"/>
+    <row r="74" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A74" s="53"/>
+      <c r="B74" s="34"/>
       <c r="C74" s="2" t="s">
         <v>151</v>
       </c>
@@ -3813,69 +3940,69 @@
         <v>195</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="49.5">
-      <c r="A75" s="43"/>
-      <c r="B75" s="46" t="s">
+    <row r="75" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A75" s="53"/>
+      <c r="B75" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="C75" s="46"/>
+      <c r="C75" s="34"/>
       <c r="D75" s="17" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="33">
-      <c r="A76" s="43"/>
-      <c r="B76" s="46" t="s">
+    <row r="76" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A76" s="53"/>
+      <c r="B76" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="C76" s="46"/>
+      <c r="C76" s="34"/>
       <c r="D76" s="17" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="43"/>
-      <c r="B77" s="46" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="53"/>
+      <c r="B77" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="C77" s="46"/>
+      <c r="C77" s="34"/>
       <c r="D77" s="16" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="43"/>
-      <c r="B78" s="46" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="53"/>
+      <c r="B78" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="C78" s="46"/>
+      <c r="C78" s="34"/>
       <c r="D78" s="16" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="33">
-      <c r="A79" s="43"/>
-      <c r="B79" s="46" t="s">
+    <row r="79" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A79" s="53"/>
+      <c r="B79" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="C79" s="46"/>
+      <c r="C79" s="34"/>
       <c r="D79" s="17" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="33.75" customHeight="1">
-      <c r="A80" s="43"/>
-      <c r="B80" s="46" t="s">
+    <row r="80" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="53"/>
+      <c r="B80" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="C80" s="47" t="s">
+      <c r="C80" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="D80" s="48"/>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="43"/>
-      <c r="B81" s="46"/>
+      <c r="D80" s="33"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="53"/>
+      <c r="B81" s="34"/>
       <c r="C81" s="2" t="s">
         <v>161</v>
       </c>
@@ -3883,9 +4010,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="43"/>
-      <c r="B82" s="46"/>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="53"/>
+      <c r="B82" s="34"/>
       <c r="C82" s="2" t="s">
         <v>162</v>
       </c>
@@ -3893,9 +4020,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="43"/>
-      <c r="B83" s="46"/>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="53"/>
+      <c r="B83" s="34"/>
       <c r="C83" s="2" t="s">
         <v>163</v>
       </c>
@@ -3903,9 +4030,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="33">
-      <c r="A84" s="43"/>
-      <c r="B84" s="45" t="s">
+    <row r="84" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A84" s="53"/>
+      <c r="B84" s="40" t="s">
         <v>179</v>
       </c>
       <c r="C84" s="5" t="s">
@@ -3915,9 +4042,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="33">
-      <c r="A85" s="43"/>
-      <c r="B85" s="45"/>
+    <row r="85" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A85" s="53"/>
+      <c r="B85" s="40"/>
       <c r="C85" s="5" t="s">
         <v>171</v>
       </c>
@@ -3925,9 +4052,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="28.5">
-      <c r="A86" s="43"/>
-      <c r="B86" s="45"/>
+    <row r="86" spans="1:4" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A86" s="53"/>
+      <c r="B86" s="40"/>
       <c r="C86" s="5" t="s">
         <v>174</v>
       </c>
@@ -3935,9 +4062,9 @@
         <v>172</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="33">
-      <c r="A87" s="43"/>
-      <c r="B87" s="45" t="s">
+    <row r="87" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A87" s="53"/>
+      <c r="B87" s="40" t="s">
         <v>173</v>
       </c>
       <c r="C87" s="5" t="s">
@@ -3947,9 +4074,9 @@
         <v>177</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="49.5">
-      <c r="A88" s="43"/>
-      <c r="B88" s="46"/>
+    <row r="88" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A88" s="53"/>
+      <c r="B88" s="34"/>
       <c r="C88" s="5" t="s">
         <v>176</v>
       </c>
@@ -3957,19 +4084,19 @@
         <v>178</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="86.25" customHeight="1">
-      <c r="A89" s="43"/>
-      <c r="B89" s="46" t="s">
+    <row r="89" spans="1:4" ht="86.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="53"/>
+      <c r="B89" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="C89" s="47" t="s">
+      <c r="C89" s="55" t="s">
         <v>189</v>
       </c>
-      <c r="D89" s="48"/>
-    </row>
-    <row r="90" spans="1:4" ht="33">
-      <c r="A90" s="43"/>
-      <c r="B90" s="46"/>
+      <c r="D89" s="33"/>
+    </row>
+    <row r="90" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A90" s="53"/>
+      <c r="B90" s="34"/>
       <c r="C90" s="8" t="s">
         <v>181</v>
       </c>
@@ -3977,9 +4104,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="43"/>
-      <c r="B91" s="46"/>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="53"/>
+      <c r="B91" s="34"/>
       <c r="C91" s="9" t="s">
         <v>183</v>
       </c>
@@ -3987,9 +4114,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="43"/>
-      <c r="B92" s="46"/>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="53"/>
+      <c r="B92" s="34"/>
       <c r="C92" s="9" t="s">
         <v>185</v>
       </c>
@@ -3997,9 +4124,9 @@
         <v>186</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="43"/>
-      <c r="B93" s="46"/>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="53"/>
+      <c r="B93" s="34"/>
       <c r="C93" s="9" t="s">
         <v>187</v>
       </c>
@@ -4007,41 +4134,41 @@
         <v>188</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="43"/>
-      <c r="B94" s="46" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="53"/>
+      <c r="B94" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="C94" s="46"/>
+      <c r="C94" s="34"/>
       <c r="D94" s="16" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A95" s="44"/>
-      <c r="B95" s="63" t="s">
+    <row r="95" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="54"/>
+      <c r="B95" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="C95" s="63"/>
+      <c r="C95" s="46"/>
       <c r="D95" s="26" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="32" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="57" t="s">
         <v>265</v>
       </c>
-      <c r="B96" s="60" t="s">
+      <c r="B96" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="C96" s="58" t="s">
+      <c r="C96" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="D96" s="59"/>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="33"/>
-      <c r="B97" s="39"/>
+      <c r="D96" s="36"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="58"/>
+      <c r="B97" s="38"/>
       <c r="C97" s="2" t="s">
         <v>208</v>
       </c>
@@ -4049,9 +4176,9 @@
         <v>199</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="132">
-      <c r="A98" s="33"/>
-      <c r="B98" s="38"/>
+    <row r="98" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+      <c r="A98" s="58"/>
+      <c r="B98" s="39"/>
       <c r="C98" s="4" t="s">
         <v>200</v>
       </c>
@@ -4059,9 +4186,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="33">
-      <c r="A99" s="33"/>
-      <c r="B99" s="40" t="s">
+    <row r="99" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A99" s="58"/>
+      <c r="B99" s="60" t="s">
         <v>223</v>
       </c>
       <c r="C99" s="5" t="s">
@@ -4071,9 +4198,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="66">
-      <c r="A100" s="33"/>
-      <c r="B100" s="39"/>
+    <row r="100" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A100" s="58"/>
+      <c r="B100" s="38"/>
       <c r="C100" s="5" t="s">
         <v>213</v>
       </c>
@@ -4081,9 +4208,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="33">
-      <c r="A101" s="33"/>
-      <c r="B101" s="39"/>
+    <row r="101" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A101" s="58"/>
+      <c r="B101" s="38"/>
       <c r="C101" s="2" t="s">
         <v>214</v>
       </c>
@@ -4091,9 +4218,9 @@
         <v>215</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="82.5">
-      <c r="A102" s="33"/>
-      <c r="B102" s="39"/>
+    <row r="102" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A102" s="58"/>
+      <c r="B102" s="38"/>
       <c r="C102" s="2" t="s">
         <v>216</v>
       </c>
@@ -4101,9 +4228,9 @@
         <v>217</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="82.5">
-      <c r="A103" s="33"/>
-      <c r="B103" s="39"/>
+    <row r="103" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A103" s="58"/>
+      <c r="B103" s="38"/>
       <c r="C103" t="s">
         <v>218</v>
       </c>
@@ -4111,9 +4238,9 @@
         <v>219</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="33"/>
-      <c r="B104" s="39"/>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="58"/>
+      <c r="B104" s="38"/>
       <c r="C104" s="25" t="s">
         <v>220</v>
       </c>
@@ -4121,9 +4248,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="83.25" thickBot="1">
-      <c r="A105" s="34"/>
-      <c r="B105" s="41"/>
+    <row r="105" spans="1:4" ht="83.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="59"/>
+      <c r="B105" s="61"/>
       <c r="C105" s="27" t="s">
         <v>224</v>
       </c>
@@ -4131,11 +4258,11 @@
         <v>222</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="33">
-      <c r="A106" s="32" t="s">
+    <row r="106" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A106" s="57" t="s">
         <v>270</v>
       </c>
-      <c r="B106" s="37" t="s">
+      <c r="B106" s="64" t="s">
         <v>235</v>
       </c>
       <c r="C106" s="28" t="s">
@@ -4145,9 +4272,9 @@
         <v>234</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="33">
-      <c r="A107" s="33"/>
-      <c r="B107" s="39"/>
+    <row r="107" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A107" s="58"/>
+      <c r="B107" s="38"/>
       <c r="C107" s="2" t="s">
         <v>226</v>
       </c>
@@ -4155,9 +4282,9 @@
         <v>233</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="33">
-      <c r="A108" s="33"/>
-      <c r="B108" s="39"/>
+    <row r="108" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A108" s="58"/>
+      <c r="B108" s="38"/>
       <c r="C108" s="2" t="s">
         <v>227</v>
       </c>
@@ -4165,9 +4292,9 @@
         <v>232</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="33"/>
-      <c r="B109" s="39"/>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="58"/>
+      <c r="B109" s="38"/>
       <c r="C109" s="2" t="s">
         <v>231</v>
       </c>
@@ -4175,9 +4302,9 @@
         <v>230</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="66">
-      <c r="A110" s="33"/>
-      <c r="B110" s="38"/>
+    <row r="110" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A110" s="58"/>
+      <c r="B110" s="39"/>
       <c r="C110" s="2" t="s">
         <v>228</v>
       </c>
@@ -4185,9 +4312,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="33">
-      <c r="A111" s="33"/>
-      <c r="B111" s="40" t="s">
+    <row r="111" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A111" s="58"/>
+      <c r="B111" s="60" t="s">
         <v>246</v>
       </c>
       <c r="C111" s="2" t="s">
@@ -4197,9 +4324,9 @@
         <v>241</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="33" customHeight="1">
-      <c r="A112" s="33"/>
-      <c r="B112" s="39"/>
+    <row r="112" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="58"/>
+      <c r="B112" s="38"/>
       <c r="C112" s="2" t="s">
         <v>237</v>
       </c>
@@ -4207,9 +4334,9 @@
         <v>242</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="33">
-      <c r="A113" s="33"/>
-      <c r="B113" s="39"/>
+    <row r="113" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A113" s="58"/>
+      <c r="B113" s="38"/>
       <c r="C113" s="2" t="s">
         <v>238</v>
       </c>
@@ -4217,9 +4344,9 @@
         <v>243</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="33"/>
-      <c r="B114" s="39"/>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="58"/>
+      <c r="B114" s="38"/>
       <c r="C114" s="2" t="s">
         <v>239</v>
       </c>
@@ -4227,9 +4354,9 @@
         <v>244</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="66">
-      <c r="A115" s="33"/>
-      <c r="B115" s="38"/>
+    <row r="115" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A115" s="58"/>
+      <c r="B115" s="39"/>
       <c r="C115" s="2" t="s">
         <v>240</v>
       </c>
@@ -4237,9 +4364,9 @@
         <v>245</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="33">
-      <c r="A116" s="33"/>
-      <c r="B116" s="40" t="s">
+    <row r="116" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A116" s="58"/>
+      <c r="B116" s="60" t="s">
         <v>247</v>
       </c>
       <c r="C116" s="5" t="s">
@@ -4249,9 +4376,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="33">
-      <c r="A117" s="33"/>
-      <c r="B117" s="39"/>
+    <row r="117" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A117" s="58"/>
+      <c r="B117" s="38"/>
       <c r="C117" s="5" t="s">
         <v>249</v>
       </c>
@@ -4259,9 +4386,9 @@
         <v>251</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="49.5">
-      <c r="A118" s="33"/>
-      <c r="B118" s="39"/>
+    <row r="118" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A118" s="58"/>
+      <c r="B118" s="38"/>
       <c r="C118" s="2" t="s">
         <v>252</v>
       </c>
@@ -4269,9 +4396,9 @@
         <v>254</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="132">
-      <c r="A119" s="33"/>
-      <c r="B119" s="38"/>
+    <row r="119" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+      <c r="A119" s="58"/>
+      <c r="B119" s="39"/>
       <c r="C119" s="2" t="s">
         <v>253</v>
       </c>
@@ -4279,9 +4406,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="99">
-      <c r="A120" s="33"/>
-      <c r="B120" s="40" t="s">
+    <row r="120" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A120" s="58"/>
+      <c r="B120" s="60" t="s">
         <v>256</v>
       </c>
       <c r="C120" s="2" t="s">
@@ -4291,9 +4418,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="49.5">
-      <c r="A121" s="33"/>
-      <c r="B121" s="39"/>
+    <row r="121" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A121" s="58"/>
+      <c r="B121" s="38"/>
       <c r="C121" s="2" t="s">
         <v>259</v>
       </c>
@@ -4301,9 +4428,9 @@
         <v>260</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="33"/>
-      <c r="B122" s="39"/>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="58"/>
+      <c r="B122" s="38"/>
       <c r="C122" s="2" t="s">
         <v>261</v>
       </c>
@@ -4311,9 +4438,9 @@
         <v>262</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="165.75" thickBot="1">
-      <c r="A123" s="34"/>
-      <c r="B123" s="41"/>
+    <row r="123" spans="1:4" ht="165.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="59"/>
+      <c r="B123" s="61"/>
       <c r="C123" s="31" t="s">
         <v>263</v>
       </c>
@@ -4321,20 +4448,20 @@
         <v>264</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="49.5" customHeight="1">
+    <row r="124" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="B124" s="37" t="s">
+      <c r="B124" s="64" t="s">
         <v>269</v>
       </c>
-      <c r="C124" s="35" t="s">
+      <c r="C124" s="62" t="s">
         <v>266</v>
       </c>
-      <c r="D124" s="36"/>
-    </row>
-    <row r="125" spans="1:4" ht="99">
-      <c r="B125" s="38"/>
+      <c r="D124" s="63"/>
+    </row>
+    <row r="125" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="B125" s="39"/>
       <c r="C125" s="5" t="s">
         <v>267</v>
       </c>
@@ -4342,26 +4469,104 @@
         <v>268</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
-      <c r="B126" s="2" t="s">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B126" s="60" t="s">
         <v>272</v>
       </c>
+      <c r="C126" s="65" t="s">
+        <v>273</v>
+      </c>
+      <c r="D126" s="66"/>
+    </row>
+    <row r="127" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="B127" s="39"/>
+      <c r="C127" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B128" s="60" t="s">
+        <v>275</v>
+      </c>
+      <c r="C128" s="65" t="s">
+        <v>276</v>
+      </c>
+      <c r="D128" s="66"/>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B129" s="39"/>
+      <c r="C129" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="60" t="s">
+        <v>280</v>
+      </c>
+      <c r="C130" s="69" t="s">
+        <v>281</v>
+      </c>
+      <c r="D130" s="66"/>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B131" s="38"/>
+      <c r="C131" s="67" t="s">
+        <v>282</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B132" s="38"/>
+      <c r="C132" s="68" t="s">
+        <v>284</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B133" s="39"/>
+      <c r="C133" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="D133" s="66"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="B96:B98"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="B95:C95"/>
+  <mergeCells count="58">
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="B130:B133"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="A106:A123"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="B106:B110"/>
+    <mergeCell ref="B111:B115"/>
+    <mergeCell ref="B116:B119"/>
+    <mergeCell ref="B120:B123"/>
+    <mergeCell ref="A96:A105"/>
+    <mergeCell ref="B99:B105"/>
+    <mergeCell ref="A71:A95"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="B79:C79"/>
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="B14:B18"/>
@@ -4378,28 +4583,22 @@
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B31:B38"/>
     <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="B95:C95"/>
     <mergeCell ref="C89:D89"/>
     <mergeCell ref="B89:B93"/>
     <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="A96:A105"/>
-    <mergeCell ref="B99:B105"/>
-    <mergeCell ref="A71:A95"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="A106:A123"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="B106:B110"/>
-    <mergeCell ref="B111:B115"/>
-    <mergeCell ref="B116:B119"/>
-    <mergeCell ref="B120:B123"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/언리얼 요약본.xlsx
+++ b/언리얼 요약본.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yelim\Documents\GitHub\Study_Unreal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CA681C-9F38-4562-A63E-5054E9C2D70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7399969-79B8-4EA7-BE68-B6972527432B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18555" yWindow="750" windowWidth="26265" windowHeight="20400" xr2:uid="{CEA47E12-18E0-4701-A6C4-D2FB2DC55C50}"/>
+    <workbookView xWindow="12135" yWindow="300" windowWidth="34365" windowHeight="20400" xr2:uid="{CEA47E12-18E0-4701-A6C4-D2FB2DC55C50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1642,10 +1642,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>폰은 언리얼 엔진의 내비게이션 시스템과 연동돼 있어서 목적지를 알려주면 스스로 목적지 까지 이동하는 길 찾기 기능을 가지고 있음.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">내비게이션 </t>
     </r>
@@ -2120,6 +2116,10 @@
   </si>
   <si>
     <t>이벤트의 스케일 값을 위의 명령에 연동하면 플레이어 컨트롤러의 컨트롤 회전 값이 입력에 따라 변함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폰은 언리얼 엔진의 내비게이션 시스템과 연동돼 있어서 목적지를 알려주면 스스로 목적지 까지 이동하는 길 찾기 기능을 가지고 있음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2734,6 +2734,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2785,6 +2791,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2803,9 +2812,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2824,10 +2830,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2838,12 +2844,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3164,8 +3164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77C2A88-FEC8-45F4-8595-5DB014046BF1}">
   <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C130" sqref="C130:D130"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3191,10 +3191,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="14" t="s">
@@ -3205,8 +3205,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50"/>
-      <c r="B3" s="34"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
@@ -3215,8 +3215,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="50"/>
-      <c r="B4" s="34"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
@@ -3225,8 +3225,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="34"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
@@ -3235,8 +3235,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="50"/>
-      <c r="B6" s="34"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
@@ -3245,8 +3245,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="50"/>
-      <c r="B7" s="34"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
@@ -3255,8 +3255,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.3">
-      <c r="A8" s="50"/>
-      <c r="B8" s="34"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="2" t="s">
         <v>62</v>
       </c>
@@ -3265,8 +3265,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="50"/>
-      <c r="B9" s="40" t="s">
+      <c r="A9" s="53"/>
+      <c r="B9" s="42" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -3277,8 +3277,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="50"/>
-      <c r="B10" s="40"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
@@ -3287,8 +3287,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="50"/>
-      <c r="B11" s="40"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
@@ -3297,8 +3297,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="50"/>
-      <c r="B12" s="40"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="4" t="s">
         <v>22</v>
       </c>
@@ -3307,8 +3307,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="51"/>
-      <c r="B13" s="41"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="18" t="s">
         <v>21</v>
       </c>
@@ -3317,20 +3317,20 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="44"/>
+      <c r="D14" s="46"/>
     </row>
     <row r="15" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
-      <c r="B15" s="34"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
@@ -3339,8 +3339,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
-      <c r="B16" s="34"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
@@ -3349,8 +3349,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A17" s="53"/>
-      <c r="B17" s="34"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="2" t="s">
         <v>31</v>
       </c>
@@ -3359,8 +3359,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A18" s="53"/>
-      <c r="B18" s="34"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="2" t="s">
         <v>32</v>
       </c>
@@ -3369,18 +3369,18 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="53"/>
-      <c r="B19" s="34" t="s">
+      <c r="A19" s="56"/>
+      <c r="B19" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="33"/>
+      <c r="D19" s="35"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="53"/>
-      <c r="B20" s="34"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="2" t="s">
         <v>40</v>
       </c>
@@ -3389,8 +3389,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="53"/>
-      <c r="B21" s="34"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="2" t="s">
         <v>41</v>
       </c>
@@ -3399,8 +3399,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="53"/>
-      <c r="B22" s="34"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="2" t="s">
         <v>42</v>
       </c>
@@ -3409,8 +3409,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A23" s="53"/>
-      <c r="B23" s="34"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="2" t="s">
         <v>43</v>
       </c>
@@ -3419,8 +3419,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A24" s="53"/>
-      <c r="B24" s="34"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="2" t="s">
         <v>44</v>
       </c>
@@ -3429,28 +3429,28 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="53"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="33"/>
+      <c r="D25" s="35"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="53"/>
-      <c r="B26" s="34" t="s">
+      <c r="A26" s="56"/>
+      <c r="B26" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="33"/>
+      <c r="D26" s="35"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="53"/>
-      <c r="B27" s="34"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="2" t="s">
         <v>52</v>
       </c>
@@ -3459,8 +3459,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="53"/>
-      <c r="B28" s="34"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="2" t="s">
         <v>53</v>
       </c>
@@ -3469,8 +3469,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="53"/>
-      <c r="B29" s="34"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="2" t="s">
         <v>54</v>
       </c>
@@ -3479,8 +3479,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A30" s="53"/>
-      <c r="B30" s="34"/>
+      <c r="A30" s="56"/>
+      <c r="B30" s="36"/>
       <c r="C30" s="5" t="s">
         <v>78</v>
       </c>
@@ -3489,8 +3489,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A31" s="53"/>
-      <c r="B31" s="40" t="s">
+      <c r="A31" s="56"/>
+      <c r="B31" s="42" t="s">
         <v>59</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -3501,8 +3501,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="53"/>
-      <c r="B32" s="34"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="5" t="s">
         <v>61</v>
       </c>
@@ -3511,8 +3511,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A33" s="53"/>
-      <c r="B33" s="34"/>
+      <c r="A33" s="56"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="5" t="s">
         <v>63</v>
       </c>
@@ -3521,8 +3521,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A34" s="53"/>
-      <c r="B34" s="34"/>
+      <c r="A34" s="56"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="5" t="s">
         <v>64</v>
       </c>
@@ -3531,8 +3531,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A35" s="53"/>
-      <c r="B35" s="34"/>
+      <c r="A35" s="56"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="5" t="s">
         <v>65</v>
       </c>
@@ -3541,8 +3541,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="53"/>
-      <c r="B36" s="34"/>
+      <c r="A36" s="56"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="5" t="s">
         <v>66</v>
       </c>
@@ -3551,8 +3551,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A37" s="53"/>
-      <c r="B37" s="34"/>
+      <c r="A37" s="56"/>
+      <c r="B37" s="36"/>
       <c r="C37" s="5" t="s">
         <v>67</v>
       </c>
@@ -3561,8 +3561,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A38" s="53"/>
-      <c r="B38" s="34"/>
+      <c r="A38" s="56"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="5" t="s">
         <v>68</v>
       </c>
@@ -3571,18 +3571,18 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="53"/>
+      <c r="A39" s="56"/>
       <c r="B39" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="47" t="s">
+      <c r="C39" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="48"/>
+      <c r="D39" s="50"/>
     </row>
     <row r="40" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A40" s="53"/>
-      <c r="B40" s="40" t="s">
+      <c r="A40" s="56"/>
+      <c r="B40" s="42" t="s">
         <v>82</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -3593,8 +3593,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A41" s="53"/>
-      <c r="B41" s="34"/>
+      <c r="A41" s="56"/>
+      <c r="B41" s="36"/>
       <c r="C41" s="5" t="s">
         <v>84</v>
       </c>
@@ -3603,8 +3603,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A42" s="53"/>
-      <c r="B42" s="34"/>
+      <c r="A42" s="56"/>
+      <c r="B42" s="36"/>
       <c r="C42" s="5" t="s">
         <v>85</v>
       </c>
@@ -3613,8 +3613,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="53"/>
-      <c r="B43" s="34"/>
+      <c r="A43" s="56"/>
+      <c r="B43" s="36"/>
       <c r="C43" s="5" t="s">
         <v>86</v>
       </c>
@@ -3623,18 +3623,18 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="53"/>
-      <c r="B44" s="34" t="s">
+      <c r="A44" s="56"/>
+      <c r="B44" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="34"/>
+      <c r="C44" s="36"/>
       <c r="D44" s="22" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="53"/>
-      <c r="B45" s="40" t="s">
+      <c r="A45" s="56"/>
+      <c r="B45" s="42" t="s">
         <v>101</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -3645,8 +3645,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="53"/>
-      <c r="B46" s="40"/>
+      <c r="A46" s="56"/>
+      <c r="B46" s="42"/>
       <c r="C46" s="7" t="s">
         <v>93</v>
       </c>
@@ -3655,8 +3655,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="66" x14ac:dyDescent="0.3">
-      <c r="A47" s="53"/>
-      <c r="B47" s="40"/>
+      <c r="A47" s="56"/>
+      <c r="B47" s="42"/>
       <c r="C47" s="6" t="s">
         <v>90</v>
       </c>
@@ -3665,8 +3665,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="53"/>
-      <c r="B48" s="40"/>
+      <c r="A48" s="56"/>
+      <c r="B48" s="42"/>
       <c r="C48" s="6" t="s">
         <v>94</v>
       </c>
@@ -3675,8 +3675,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="53"/>
-      <c r="B49" s="40"/>
+      <c r="A49" s="56"/>
+      <c r="B49" s="42"/>
       <c r="C49" s="6" t="s">
         <v>95</v>
       </c>
@@ -3685,8 +3685,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="53"/>
-      <c r="B50" s="40"/>
+      <c r="A50" s="56"/>
+      <c r="B50" s="42"/>
       <c r="C50" s="6" t="s">
         <v>96</v>
       </c>
@@ -3695,8 +3695,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="53"/>
-      <c r="B51" s="40" t="s">
+      <c r="A51" s="56"/>
+      <c r="B51" s="42" t="s">
         <v>102</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -3707,8 +3707,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="53"/>
-      <c r="B52" s="40"/>
+      <c r="A52" s="56"/>
+      <c r="B52" s="42"/>
       <c r="C52" s="2" t="s">
         <v>103</v>
       </c>
@@ -3717,8 +3717,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="53"/>
-      <c r="B53" s="40"/>
+      <c r="A53" s="56"/>
+      <c r="B53" s="42"/>
       <c r="C53" s="2" t="s">
         <v>104</v>
       </c>
@@ -3727,8 +3727,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="53"/>
-      <c r="B54" s="40"/>
+      <c r="A54" s="56"/>
+      <c r="B54" s="42"/>
       <c r="C54" s="2" t="s">
         <v>105</v>
       </c>
@@ -3737,8 +3737,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="53"/>
-      <c r="B55" s="34" t="s">
+      <c r="A55" s="56"/>
+      <c r="B55" s="36" t="s">
         <v>110</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -3749,8 +3749,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A56" s="53"/>
-      <c r="B56" s="34"/>
+      <c r="A56" s="56"/>
+      <c r="B56" s="36"/>
       <c r="C56" s="2" t="s">
         <v>113</v>
       </c>
@@ -3759,8 +3759,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="53"/>
-      <c r="B57" s="34"/>
+      <c r="A57" s="56"/>
+      <c r="B57" s="36"/>
       <c r="C57" s="2" t="s">
         <v>115</v>
       </c>
@@ -3769,8 +3769,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="53"/>
-      <c r="B58" s="34"/>
+      <c r="A58" s="56"/>
+      <c r="B58" s="36"/>
       <c r="C58" s="2" t="s">
         <v>117</v>
       </c>
@@ -3779,8 +3779,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="53"/>
-      <c r="B59" s="34"/>
+      <c r="A59" s="56"/>
+      <c r="B59" s="36"/>
       <c r="C59" s="2" t="s">
         <v>119</v>
       </c>
@@ -3789,38 +3789,38 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A60" s="53"/>
-      <c r="B60" s="34" t="s">
+      <c r="A60" s="56"/>
+      <c r="B60" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="C60" s="34"/>
+      <c r="C60" s="36"/>
       <c r="D60" s="17" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A61" s="53"/>
-      <c r="B61" s="34" t="s">
+      <c r="A61" s="56"/>
+      <c r="B61" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="C61" s="34"/>
+      <c r="C61" s="36"/>
       <c r="D61" s="17" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="53"/>
-      <c r="B62" s="40" t="s">
+      <c r="A62" s="56"/>
+      <c r="B62" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="C62" s="55" t="s">
+      <c r="C62" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="D62" s="33"/>
+      <c r="D62" s="35"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="53"/>
-      <c r="B63" s="34"/>
+      <c r="A63" s="56"/>
+      <c r="B63" s="36"/>
       <c r="C63" s="2" t="s">
         <v>125</v>
       </c>
@@ -3829,8 +3829,8 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="53"/>
-      <c r="B64" s="34"/>
+      <c r="A64" s="56"/>
+      <c r="B64" s="36"/>
       <c r="C64" s="2" t="s">
         <v>126</v>
       </c>
@@ -3839,8 +3839,8 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="53"/>
-      <c r="B65" s="34"/>
+      <c r="A65" s="56"/>
+      <c r="B65" s="36"/>
       <c r="C65" s="2" t="s">
         <v>127</v>
       </c>
@@ -3849,8 +3849,8 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="53"/>
-      <c r="B66" s="34"/>
+      <c r="A66" s="56"/>
+      <c r="B66" s="36"/>
       <c r="C66" s="2" t="s">
         <v>128</v>
       </c>
@@ -3859,8 +3859,8 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="53"/>
-      <c r="B67" s="34"/>
+      <c r="A67" s="56"/>
+      <c r="B67" s="36"/>
       <c r="C67" s="2" t="s">
         <v>129</v>
       </c>
@@ -3869,8 +3869,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="53"/>
-      <c r="B68" s="34" t="s">
+      <c r="A68" s="56"/>
+      <c r="B68" s="36" t="s">
         <v>140</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -3881,16 +3881,16 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="53"/>
-      <c r="B69" s="34"/>
-      <c r="C69" s="47" t="s">
+      <c r="A69" s="56"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="D69" s="56"/>
+      <c r="D69" s="58"/>
     </row>
     <row r="70" spans="1:4" ht="132.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="54"/>
-      <c r="B70" s="46"/>
+      <c r="A70" s="57"/>
+      <c r="B70" s="48"/>
       <c r="C70" s="24" t="s">
         <v>142</v>
       </c>
@@ -3899,20 +3899,20 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="49" t="s">
+      <c r="A71" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="B71" s="45" t="s">
+      <c r="B71" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="C71" s="43" t="s">
+      <c r="C71" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="D71" s="44"/>
+      <c r="D71" s="46"/>
     </row>
     <row r="72" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A72" s="53"/>
-      <c r="B72" s="34"/>
+      <c r="A72" s="56"/>
+      <c r="B72" s="36"/>
       <c r="C72" s="2" t="s">
         <v>148</v>
       </c>
@@ -3921,8 +3921,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="53"/>
-      <c r="B73" s="34"/>
+      <c r="A73" s="56"/>
+      <c r="B73" s="36"/>
       <c r="C73" s="2" t="s">
         <v>149</v>
       </c>
@@ -3931,8 +3931,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A74" s="53"/>
-      <c r="B74" s="34"/>
+      <c r="A74" s="56"/>
+      <c r="B74" s="36"/>
       <c r="C74" s="2" t="s">
         <v>151</v>
       </c>
@@ -3941,68 +3941,68 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A75" s="53"/>
-      <c r="B75" s="34" t="s">
+      <c r="A75" s="56"/>
+      <c r="B75" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="C75" s="34"/>
+      <c r="C75" s="36"/>
       <c r="D75" s="17" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A76" s="53"/>
-      <c r="B76" s="34" t="s">
+      <c r="A76" s="56"/>
+      <c r="B76" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="C76" s="34"/>
+      <c r="C76" s="36"/>
       <c r="D76" s="17" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="53"/>
-      <c r="B77" s="34" t="s">
+      <c r="A77" s="56"/>
+      <c r="B77" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="C77" s="34"/>
+      <c r="C77" s="36"/>
       <c r="D77" s="16" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="53"/>
-      <c r="B78" s="34" t="s">
+      <c r="A78" s="56"/>
+      <c r="B78" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="C78" s="34"/>
+      <c r="C78" s="36"/>
       <c r="D78" s="16" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A79" s="53"/>
-      <c r="B79" s="34" t="s">
+      <c r="A79" s="56"/>
+      <c r="B79" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="C79" s="34"/>
+      <c r="C79" s="36"/>
       <c r="D79" s="17" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="53"/>
-      <c r="B80" s="34" t="s">
+      <c r="A80" s="56"/>
+      <c r="B80" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="C80" s="55" t="s">
+      <c r="C80" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="D80" s="33"/>
+      <c r="D80" s="35"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="53"/>
-      <c r="B81" s="34"/>
+      <c r="A81" s="56"/>
+      <c r="B81" s="36"/>
       <c r="C81" s="2" t="s">
         <v>161</v>
       </c>
@@ -4011,8 +4011,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="53"/>
-      <c r="B82" s="34"/>
+      <c r="A82" s="56"/>
+      <c r="B82" s="36"/>
       <c r="C82" s="2" t="s">
         <v>162</v>
       </c>
@@ -4021,8 +4021,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="53"/>
-      <c r="B83" s="34"/>
+      <c r="A83" s="56"/>
+      <c r="B83" s="36"/>
       <c r="C83" s="2" t="s">
         <v>163</v>
       </c>
@@ -4031,8 +4031,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A84" s="53"/>
-      <c r="B84" s="40" t="s">
+      <c r="A84" s="56"/>
+      <c r="B84" s="42" t="s">
         <v>179</v>
       </c>
       <c r="C84" s="5" t="s">
@@ -4043,8 +4043,8 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A85" s="53"/>
-      <c r="B85" s="40"/>
+      <c r="A85" s="56"/>
+      <c r="B85" s="42"/>
       <c r="C85" s="5" t="s">
         <v>171</v>
       </c>
@@ -4053,8 +4053,8 @@
       </c>
     </row>
     <row r="86" spans="1:4" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A86" s="53"/>
-      <c r="B86" s="40"/>
+      <c r="A86" s="56"/>
+      <c r="B86" s="42"/>
       <c r="C86" s="5" t="s">
         <v>174</v>
       </c>
@@ -4063,8 +4063,8 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A87" s="53"/>
-      <c r="B87" s="40" t="s">
+      <c r="A87" s="56"/>
+      <c r="B87" s="42" t="s">
         <v>173</v>
       </c>
       <c r="C87" s="5" t="s">
@@ -4075,8 +4075,8 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A88" s="53"/>
-      <c r="B88" s="34"/>
+      <c r="A88" s="56"/>
+      <c r="B88" s="36"/>
       <c r="C88" s="5" t="s">
         <v>176</v>
       </c>
@@ -4085,18 +4085,18 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="86.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="53"/>
-      <c r="B89" s="34" t="s">
+      <c r="A89" s="56"/>
+      <c r="B89" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="C89" s="55" t="s">
+      <c r="C89" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="D89" s="33"/>
+      <c r="D89" s="35"/>
     </row>
     <row r="90" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A90" s="53"/>
-      <c r="B90" s="34"/>
+      <c r="A90" s="56"/>
+      <c r="B90" s="36"/>
       <c r="C90" s="8" t="s">
         <v>181</v>
       </c>
@@ -4105,8 +4105,8 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="53"/>
-      <c r="B91" s="34"/>
+      <c r="A91" s="56"/>
+      <c r="B91" s="36"/>
       <c r="C91" s="9" t="s">
         <v>183</v>
       </c>
@@ -4115,8 +4115,8 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="53"/>
-      <c r="B92" s="34"/>
+      <c r="A92" s="56"/>
+      <c r="B92" s="36"/>
       <c r="C92" s="9" t="s">
         <v>185</v>
       </c>
@@ -4125,8 +4125,8 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="53"/>
-      <c r="B93" s="34"/>
+      <c r="A93" s="56"/>
+      <c r="B93" s="36"/>
       <c r="C93" s="9" t="s">
         <v>187</v>
       </c>
@@ -4135,40 +4135,40 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="53"/>
-      <c r="B94" s="34" t="s">
+      <c r="A94" s="56"/>
+      <c r="B94" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="C94" s="34"/>
+      <c r="C94" s="36"/>
       <c r="D94" s="16" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="54"/>
-      <c r="B95" s="46" t="s">
+      <c r="A95" s="57"/>
+      <c r="B95" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="C95" s="46"/>
+      <c r="C95" s="48"/>
       <c r="D95" s="26" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="57" t="s">
-        <v>265</v>
-      </c>
-      <c r="B96" s="37" t="s">
+      <c r="A96" s="59" t="s">
+        <v>264</v>
+      </c>
+      <c r="B96" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="C96" s="35" t="s">
+      <c r="C96" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="D96" s="36"/>
+      <c r="D96" s="38"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="58"/>
-      <c r="B97" s="38"/>
+      <c r="A97" s="60"/>
+      <c r="B97" s="40"/>
       <c r="C97" s="2" t="s">
         <v>208</v>
       </c>
@@ -4177,8 +4177,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="132" x14ac:dyDescent="0.3">
-      <c r="A98" s="58"/>
-      <c r="B98" s="39"/>
+      <c r="A98" s="60"/>
+      <c r="B98" s="41"/>
       <c r="C98" s="4" t="s">
         <v>200</v>
       </c>
@@ -4187,8 +4187,8 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A99" s="58"/>
-      <c r="B99" s="60" t="s">
+      <c r="A99" s="60"/>
+      <c r="B99" s="62" t="s">
         <v>223</v>
       </c>
       <c r="C99" s="5" t="s">
@@ -4199,8 +4199,8 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="66" x14ac:dyDescent="0.3">
-      <c r="A100" s="58"/>
-      <c r="B100" s="38"/>
+      <c r="A100" s="60"/>
+      <c r="B100" s="40"/>
       <c r="C100" s="5" t="s">
         <v>213</v>
       </c>
@@ -4209,8 +4209,8 @@
       </c>
     </row>
     <row r="101" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A101" s="58"/>
-      <c r="B101" s="38"/>
+      <c r="A101" s="60"/>
+      <c r="B101" s="40"/>
       <c r="C101" s="2" t="s">
         <v>214</v>
       </c>
@@ -4219,8 +4219,8 @@
       </c>
     </row>
     <row r="102" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A102" s="58"/>
-      <c r="B102" s="38"/>
+      <c r="A102" s="60"/>
+      <c r="B102" s="40"/>
       <c r="C102" s="2" t="s">
         <v>216</v>
       </c>
@@ -4229,8 +4229,8 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A103" s="58"/>
-      <c r="B103" s="38"/>
+      <c r="A103" s="60"/>
+      <c r="B103" s="40"/>
       <c r="C103" t="s">
         <v>218</v>
       </c>
@@ -4239,8 +4239,8 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="58"/>
-      <c r="B104" s="38"/>
+      <c r="A104" s="60"/>
+      <c r="B104" s="40"/>
       <c r="C104" s="25" t="s">
         <v>220</v>
       </c>
@@ -4249,8 +4249,8 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="83.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="59"/>
-      <c r="B105" s="61"/>
+      <c r="A105" s="61"/>
+      <c r="B105" s="63"/>
       <c r="C105" s="27" t="s">
         <v>224</v>
       </c>
@@ -4259,52 +4259,52 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A106" s="57" t="s">
-        <v>270</v>
-      </c>
-      <c r="B106" s="64" t="s">
-        <v>235</v>
+      <c r="A106" s="59" t="s">
+        <v>269</v>
+      </c>
+      <c r="B106" s="66" t="s">
+        <v>234</v>
       </c>
       <c r="C106" s="28" t="s">
         <v>225</v>
       </c>
       <c r="D106" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A107" s="58"/>
-      <c r="B107" s="38"/>
+      <c r="A107" s="60"/>
+      <c r="B107" s="40"/>
       <c r="C107" s="2" t="s">
         <v>226</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A108" s="58"/>
-      <c r="B108" s="38"/>
+      <c r="A108" s="60"/>
+      <c r="B108" s="40"/>
       <c r="C108" s="2" t="s">
         <v>227</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="58"/>
-      <c r="B109" s="38"/>
+      <c r="A109" s="60"/>
+      <c r="B109" s="40"/>
       <c r="C109" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D109" s="16" t="s">
-        <v>230</v>
+        <v>286</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="66" x14ac:dyDescent="0.3">
-      <c r="A110" s="58"/>
-      <c r="B110" s="39"/>
+      <c r="A110" s="60"/>
+      <c r="B110" s="41"/>
       <c r="C110" s="2" t="s">
         <v>228</v>
       </c>
@@ -4313,231 +4313,231 @@
       </c>
     </row>
     <row r="111" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A111" s="58"/>
-      <c r="B111" s="60" t="s">
+      <c r="A111" s="60"/>
+      <c r="B111" s="62" t="s">
+        <v>245</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="60"/>
+      <c r="B112" s="40"/>
+      <c r="C112" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A113" s="60"/>
+      <c r="B113" s="40"/>
+      <c r="C113" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D113" s="30" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="60"/>
+      <c r="B114" s="40"/>
+      <c r="C114" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D114" s="16" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A115" s="60"/>
+      <c r="B115" s="41"/>
+      <c r="C115" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A116" s="60"/>
+      <c r="B116" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D111" s="17" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="58"/>
-      <c r="B112" s="38"/>
-      <c r="C112" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D112" s="17" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A113" s="58"/>
-      <c r="B113" s="38"/>
-      <c r="C113" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D113" s="30" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="58"/>
-      <c r="B114" s="38"/>
-      <c r="C114" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D114" s="16" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="66" x14ac:dyDescent="0.3">
-      <c r="A115" s="58"/>
-      <c r="B115" s="39"/>
-      <c r="C115" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D115" s="17" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A116" s="58"/>
-      <c r="B116" s="60" t="s">
+      <c r="C116" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="C116" s="5" t="s">
+      <c r="D116" s="17" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A117" s="60"/>
+      <c r="B117" s="40"/>
+      <c r="C117" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="D116" s="17" t="s">
+      <c r="D117" s="16" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A117" s="58"/>
-      <c r="B117" s="38"/>
-      <c r="C117" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="D117" s="16" t="s">
+    <row r="118" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A118" s="60"/>
+      <c r="B118" s="40"/>
+      <c r="C118" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A118" s="58"/>
-      <c r="B118" s="38"/>
-      <c r="C118" s="2" t="s">
+      <c r="D118" s="17" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+      <c r="A119" s="60"/>
+      <c r="B119" s="41"/>
+      <c r="C119" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D118" s="17" t="s">
+      <c r="D119" s="17" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="132" x14ac:dyDescent="0.3">
-      <c r="A119" s="58"/>
-      <c r="B119" s="39"/>
-      <c r="C119" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D119" s="17" t="s">
+    <row r="120" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A120" s="60"/>
+      <c r="B120" s="62" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" ht="99" x14ac:dyDescent="0.3">
-      <c r="A120" s="58"/>
-      <c r="B120" s="60" t="s">
+      <c r="C120" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="D120" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="D120" s="17" t="s">
+    </row>
+    <row r="121" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A121" s="60"/>
+      <c r="B121" s="40"/>
+      <c r="C121" s="2" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A121" s="58"/>
-      <c r="B121" s="38"/>
-      <c r="C121" s="2" t="s">
+      <c r="D121" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="D121" s="17" t="s">
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="60"/>
+      <c r="B122" s="40"/>
+      <c r="C122" s="2" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="58"/>
-      <c r="B122" s="38"/>
-      <c r="C122" s="2" t="s">
+      <c r="D122" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="D122" s="16" t="s">
+    </row>
+    <row r="123" spans="1:4" ht="165.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="61"/>
+      <c r="B123" s="63"/>
+      <c r="C123" s="31" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" ht="165.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="59"/>
-      <c r="B123" s="61"/>
-      <c r="C123" s="31" t="s">
+      <c r="D123" s="19" t="s">
         <v>263</v>
-      </c>
-      <c r="D123" s="19" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B124" s="66" t="s">
+        <v>268</v>
+      </c>
+      <c r="C124" s="64" t="s">
+        <v>265</v>
+      </c>
+      <c r="D124" s="65"/>
+    </row>
+    <row r="125" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="B125" s="41"/>
+      <c r="C125" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B126" s="62" t="s">
         <v>271</v>
       </c>
-      <c r="B124" s="64" t="s">
-        <v>269</v>
-      </c>
-      <c r="C124" s="62" t="s">
-        <v>266</v>
-      </c>
-      <c r="D124" s="63"/>
-    </row>
-    <row r="125" spans="1:4" ht="99" x14ac:dyDescent="0.3">
-      <c r="B125" s="39"/>
-      <c r="C125" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B126" s="60" t="s">
+      <c r="C126" s="67" t="s">
         <v>272</v>
       </c>
-      <c r="C126" s="65" t="s">
+      <c r="D126" s="68"/>
+    </row>
+    <row r="127" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="B127" s="41"/>
+      <c r="C127" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D126" s="66"/>
-    </row>
-    <row r="127" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B127" s="39"/>
-      <c r="C127" s="5" t="s">
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B128" s="62" t="s">
+        <v>274</v>
+      </c>
+      <c r="C128" s="67" t="s">
+        <v>275</v>
+      </c>
+      <c r="D128" s="68"/>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B129" s="41"/>
+      <c r="C129" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D127" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B128" s="60" t="s">
-        <v>275</v>
-      </c>
-      <c r="C128" s="65" t="s">
-        <v>276</v>
-      </c>
-      <c r="D128" s="66"/>
-    </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B129" s="39"/>
-      <c r="C129" s="2" t="s">
+      <c r="D129" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D129" s="2" t="s">
+    </row>
+    <row r="130" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="62" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="130" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="60" t="s">
+      <c r="C130" s="69" t="s">
         <v>280</v>
       </c>
-      <c r="C130" s="69" t="s">
+      <c r="D130" s="68"/>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B131" s="40"/>
+      <c r="C131" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="D130" s="66"/>
-    </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B131" s="38"/>
-      <c r="C131" s="67" t="s">
+      <c r="D131" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D131" s="2" t="s">
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B132" s="40"/>
+      <c r="C132" s="33" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B132" s="38"/>
-      <c r="C132" s="68" t="s">
+      <c r="D132" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D132" s="2" t="s">
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B133" s="41"/>
+      <c r="C133" s="67" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B133" s="39"/>
-      <c r="C133" s="65" t="s">
-        <v>286</v>
-      </c>
-      <c r="D133" s="66"/>
+      <c r="D133" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="58">

--- a/언리얼 요약본.xlsx
+++ b/언리얼 요약본.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yelim\Documents\GitHub\Study_Unreal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7399969-79B8-4EA7-BE68-B6972527432B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6281527F-72AF-42B5-88FD-9101C3FB558C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12135" yWindow="300" windowWidth="34365" windowHeight="20400" xr2:uid="{CEA47E12-18E0-4701-A6C4-D2FB2DC55C50}"/>
+    <workbookView xWindow="2295" yWindow="2445" windowWidth="30060" windowHeight="20400" xr2:uid="{CEA47E12-18E0-4701-A6C4-D2FB2DC55C50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="317">
   <si>
     <t>Config</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2094,32 +2094,246 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>마우스의 상하, 좌우에 대한 움직임은 삼인칭 템플릿에서 제공하는 Turn과 LookUp의 축 Axis 입력 설정을 사용해 받아올 수 있음.
-언리얼 엔진은 입력값에 따라 캐릭터가 회전하도록 AddControllerInputYaw, Roll, Pitch 세가지 명령을 제공함.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Turn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>캐릭터의 Z축 회전, Yaw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LookUp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>캐릭터의 Y축 회전, Pitch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이벤트의 스케일 값을 위의 명령에 연동하면 플레이어 컨트롤러의 컨트롤 회전 값이 입력에 따라 변함.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>폰은 언리얼 엔진의 내비게이션 시스템과 연동돼 있어서 목적지를 알려주면 스스로 목적지 까지 이동하는 길 찾기 기능을 가지고 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>마우스의 상하, 좌우에 대한 움직임은 삼인칭 템플릿에서 제공하는 Turn과 LookUp의 축 Axis 입력 설정을 사용해 받아올 수 있음.
+언리얼 엔진은 입력값에 따라 캐릭터가 회전하도록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AddControllerInputYaw, Roll, Pitch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 세가지 명령을 제공함.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">캐릭터의 Y축 회전, Pitch
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>void AABCharacter::LookUp(float NewAxisValue)
+{
+     AddControllerPitchInput(NewAxisValue)
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">캐릭터의 Z축 회전, Yaw
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>void AABCharacter::Turn(float NewAxisValue)
+{
+     AddControllerYawInput(NewAxisValue)
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetCharacterMovement()-&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bOrientRotationToMovement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터가 움직이는 방향으로 캐릭터를 자동 회전 시켜줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bUseControllerDesiredRotation</t>
+  </si>
+  <si>
+    <t>컨트롤러가 회전시키는 방향으로 캐릭터가 회전함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RotationRate</t>
+  </si>
+  <si>
+    <t>캐릭터 회전 속도 지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpringArm-&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bInheritPitch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마우스의 움직임 반영, y축 마우스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">bInheritRoll </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x축 마우스</t>
+  </si>
+  <si>
+    <t>bInheritYaw</t>
+  </si>
+  <si>
+    <t>z축 마우스</t>
+  </si>
+  <si>
+    <t>bDoCollisionTest</t>
+  </si>
+  <si>
+    <t>벽에 충돌시 카메라 확대 줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bUseControllerRotationYaw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 설정을 하면 마우스를 좌우로 움직이면 캐릭터가 z축으로 회전하지만, 상하이동은 폰이 회전하지 않도록 막는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bUsePawnControlRotation</t>
+  </si>
+  <si>
+    <t>폰의 회전 허용 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BindAction</t>
+  </si>
+  <si>
+    <t>BindAxis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UInputComponent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 입력한 키값을 바인딩 처리해주는 역할을 하는 클래스이다. 멤버함수들은 일시적으로 스택에 남아있다가 호출이 끝나면 
+사라지는것들로 구성되어있다. (Components/InputComponent.h 을 선언해주어야한다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fmath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InterpTo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">액션 매핑 입력 설정과 연동하는 함수
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PlayerInputComponent-&gt;BindAction(TEXT("ViewChange"), EInputEvent::IE_Pressed, this, &amp;AYPCharacter::ViewChange);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">플레이어가 키를입력하면 이벤트가 발생하고 그 즉시, 키값을 바인딩함. 키 값이 처리되면 스택에서 즉시 처리가 된다. 
+인스턴스가 포인터역할로써 호출될 수 있다. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PlayerInputComponent-&gt;BindAxis(TEXT("UpDown"), this, &amp;AYPCharacter::UpDown);</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">지정한 속력으로 목표 지점까지 진행하되, 목표 지점까지 도달하면 그 값에서 멈추는 기능.
+Float형 -&gt; FInterTo, Vector형 -&gt; VInterpTo, Rotator형 -&gt; RInterpTo
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SpringArm-&gt;GetRelativeRotation() = FMath::RInterpTo(SpringArm-&gt;GetRelativeRotation(), ArmRotationTo, DeltaTime, ArmRotationSpeed);</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7챕터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2127,7 +2341,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2247,6 +2461,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2256,7 +2478,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -2607,20 +2829,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -2637,7 +2846,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2668,185 +2877,200 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3162,1411 +3386,1560 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77C2A88-FEC8-45F4-8595-5DB014046BF1}">
-  <dimension ref="A1:D133"/>
+  <dimension ref="A1:D147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C136" sqref="C136"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E150" sqref="E150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.25" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="110.375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+    <row r="2" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A2" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="36"/>
+    <row r="3" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A3" s="51"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
-      <c r="B4" s="36"/>
+    <row r="4" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A4" s="51"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
-      <c r="B5" s="36"/>
+    <row r="5" spans="1:4" ht="33">
+      <c r="A5" s="51"/>
+      <c r="B5" s="48"/>
       <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="53"/>
-      <c r="B6" s="36"/>
+    <row r="6" spans="1:4">
+      <c r="A6" s="51"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
-      <c r="B7" s="36"/>
+    <row r="7" spans="1:4" ht="33">
+      <c r="A7" s="51"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.3">
-      <c r="A8" s="53"/>
-      <c r="B8" s="36"/>
+    <row r="8" spans="1:4" ht="66">
+      <c r="A8" s="51"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
-      <c r="B9" s="42" t="s">
+    <row r="9" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A9" s="51"/>
+      <c r="B9" s="47" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="53"/>
-      <c r="B10" s="42"/>
+    <row r="10" spans="1:4">
+      <c r="A10" s="51"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
-      <c r="B11" s="42"/>
+    <row r="11" spans="1:4">
+      <c r="A11" s="51"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
-      <c r="B12" s="42"/>
+    <row r="12" spans="1:4">
+      <c r="A12" s="51"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="54"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="18" t="s">
+    <row r="13" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A13" s="52"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="52" t="s">
+    <row r="14" spans="1:4" ht="49.5" customHeight="1">
+      <c r="A14" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="46"/>
-    </row>
-    <row r="15" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A15" s="56"/>
-      <c r="B15" s="36"/>
+      <c r="D14" s="54"/>
+    </row>
+    <row r="15" spans="1:4" ht="33">
+      <c r="A15" s="45"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A16" s="56"/>
-      <c r="B16" s="36"/>
+    <row r="16" spans="1:4" ht="33">
+      <c r="A16" s="45"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A17" s="56"/>
-      <c r="B17" s="36"/>
+    <row r="17" spans="1:4" ht="33">
+      <c r="A17" s="45"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A18" s="56"/>
-      <c r="B18" s="36"/>
+    <row r="18" spans="1:4" ht="33">
+      <c r="A18" s="45"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="56"/>
-      <c r="B19" s="36" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" s="45"/>
+      <c r="B19" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="35"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="56"/>
-      <c r="B20" s="36"/>
+      <c r="D19" s="50"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="45"/>
+      <c r="B20" s="48"/>
       <c r="C20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="56"/>
-      <c r="B21" s="36"/>
+    <row r="21" spans="1:4">
+      <c r="A21" s="45"/>
+      <c r="B21" s="48"/>
       <c r="C21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="56"/>
-      <c r="B22" s="36"/>
+    <row r="22" spans="1:4">
+      <c r="A22" s="45"/>
+      <c r="B22" s="48"/>
       <c r="C22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A23" s="56"/>
-      <c r="B23" s="36"/>
+    <row r="23" spans="1:4" ht="33">
+      <c r="A23" s="45"/>
+      <c r="B23" s="48"/>
       <c r="C23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A24" s="56"/>
-      <c r="B24" s="36"/>
+    <row r="24" spans="1:4" ht="33">
+      <c r="A24" s="45"/>
+      <c r="B24" s="48"/>
       <c r="C24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="56"/>
+    <row r="25" spans="1:4" ht="50.25" customHeight="1">
+      <c r="A25" s="45"/>
       <c r="B25" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="35"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="56"/>
-      <c r="B26" s="36" t="s">
+      <c r="D25" s="50"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="45"/>
+      <c r="B26" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="35"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="56"/>
-      <c r="B27" s="36"/>
+      <c r="D26" s="50"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="45"/>
+      <c r="B27" s="48"/>
       <c r="C27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="16" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="56"/>
-      <c r="B28" s="36"/>
+    <row r="28" spans="1:4">
+      <c r="A28" s="45"/>
+      <c r="B28" s="48"/>
       <c r="C28" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="56"/>
-      <c r="B29" s="36"/>
+    <row r="29" spans="1:4">
+      <c r="A29" s="45"/>
+      <c r="B29" s="48"/>
       <c r="C29" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A30" s="56"/>
-      <c r="B30" s="36"/>
+    <row r="30" spans="1:4" ht="33">
+      <c r="A30" s="45"/>
+      <c r="B30" s="48"/>
       <c r="C30" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A31" s="56"/>
-      <c r="B31" s="42" t="s">
+    <row r="31" spans="1:4" ht="33">
+      <c r="A31" s="45"/>
+      <c r="B31" s="47" t="s">
         <v>59</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="56"/>
-      <c r="B32" s="36"/>
+    <row r="32" spans="1:4" ht="49.5">
+      <c r="A32" s="45"/>
+      <c r="B32" s="48"/>
       <c r="C32" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A33" s="56"/>
-      <c r="B33" s="36"/>
+    <row r="33" spans="1:4" ht="33">
+      <c r="A33" s="45"/>
+      <c r="B33" s="48"/>
       <c r="C33" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A34" s="56"/>
-      <c r="B34" s="36"/>
+    <row r="34" spans="1:4" ht="33">
+      <c r="A34" s="45"/>
+      <c r="B34" s="48"/>
       <c r="C34" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="16" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A35" s="56"/>
-      <c r="B35" s="36"/>
+    <row r="35" spans="1:4" ht="33">
+      <c r="A35" s="45"/>
+      <c r="B35" s="48"/>
       <c r="C35" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="56"/>
-      <c r="B36" s="36"/>
+    <row r="36" spans="1:4" ht="49.5">
+      <c r="A36" s="45"/>
+      <c r="B36" s="48"/>
       <c r="C36" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A37" s="56"/>
-      <c r="B37" s="36"/>
+    <row r="37" spans="1:4" ht="33">
+      <c r="A37" s="45"/>
+      <c r="B37" s="48"/>
       <c r="C37" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="16" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A38" s="56"/>
-      <c r="B38" s="36"/>
+    <row r="38" spans="1:4" ht="33">
+      <c r="A38" s="45"/>
+      <c r="B38" s="48"/>
       <c r="C38" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="56"/>
+    <row r="39" spans="1:4" ht="82.5" customHeight="1">
+      <c r="A39" s="45"/>
       <c r="B39" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="49" t="s">
+      <c r="C39" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="50"/>
-    </row>
-    <row r="40" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A40" s="56"/>
-      <c r="B40" s="42" t="s">
+      <c r="D39" s="66"/>
+    </row>
+    <row r="40" spans="1:4" ht="33">
+      <c r="A40" s="45"/>
+      <c r="B40" s="47" t="s">
         <v>82</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="16" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A41" s="56"/>
-      <c r="B41" s="36"/>
+    <row r="41" spans="1:4" ht="33">
+      <c r="A41" s="45"/>
+      <c r="B41" s="48"/>
       <c r="C41" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="16" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A42" s="56"/>
-      <c r="B42" s="36"/>
+    <row r="42" spans="1:4" ht="33">
+      <c r="A42" s="45"/>
+      <c r="B42" s="48"/>
       <c r="C42" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="16" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="56"/>
-      <c r="B43" s="36"/>
+    <row r="43" spans="1:4" ht="49.5">
+      <c r="A43" s="45"/>
+      <c r="B43" s="48"/>
       <c r="C43" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="D43" s="16" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="56"/>
-      <c r="B44" s="36" t="s">
+    <row r="44" spans="1:4" ht="49.5">
+      <c r="A44" s="45"/>
+      <c r="B44" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="36"/>
-      <c r="D44" s="22" t="s">
+      <c r="C44" s="48"/>
+      <c r="D44" s="21" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="56"/>
-      <c r="B45" s="42" t="s">
+    <row r="45" spans="1:4">
+      <c r="A45" s="45"/>
+      <c r="B45" s="47" t="s">
         <v>101</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D45" s="17" t="s">
+      <c r="D45" s="16" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="56"/>
-      <c r="B46" s="42"/>
+    <row r="46" spans="1:4">
+      <c r="A46" s="45"/>
+      <c r="B46" s="47"/>
       <c r="C46" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D46" s="17" t="s">
+      <c r="D46" s="16" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="66" x14ac:dyDescent="0.3">
-      <c r="A47" s="56"/>
-      <c r="B47" s="42"/>
+    <row r="47" spans="1:4" ht="66">
+      <c r="A47" s="45"/>
+      <c r="B47" s="47"/>
       <c r="C47" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D47" s="16" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="56"/>
-      <c r="B48" s="42"/>
+    <row r="48" spans="1:4">
+      <c r="A48" s="45"/>
+      <c r="B48" s="47"/>
       <c r="C48" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D48" s="17" t="s">
+      <c r="D48" s="16" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="56"/>
-      <c r="B49" s="42"/>
+    <row r="49" spans="1:4">
+      <c r="A49" s="45"/>
+      <c r="B49" s="47"/>
       <c r="C49" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D49" s="17" t="s">
+      <c r="D49" s="16" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="56"/>
-      <c r="B50" s="42"/>
+    <row r="50" spans="1:4">
+      <c r="A50" s="45"/>
+      <c r="B50" s="47"/>
       <c r="C50" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D50" s="17" t="s">
+      <c r="D50" s="16" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="56"/>
-      <c r="B51" s="42" t="s">
+    <row r="51" spans="1:4">
+      <c r="A51" s="45"/>
+      <c r="B51" s="47" t="s">
         <v>102</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D51" s="16" t="s">
+      <c r="D51" s="15" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="56"/>
-      <c r="B52" s="42"/>
+    <row r="52" spans="1:4">
+      <c r="A52" s="45"/>
+      <c r="B52" s="47"/>
       <c r="C52" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="D52" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="56"/>
-      <c r="B53" s="42"/>
+    <row r="53" spans="1:4">
+      <c r="A53" s="45"/>
+      <c r="B53" s="47"/>
       <c r="C53" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D53" s="16" t="s">
+      <c r="D53" s="15" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="56"/>
-      <c r="B54" s="42"/>
+    <row r="54" spans="1:4">
+      <c r="A54" s="45"/>
+      <c r="B54" s="47"/>
       <c r="C54" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D54" s="16" t="s">
+      <c r="D54" s="15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="56"/>
-      <c r="B55" s="36" t="s">
+    <row r="55" spans="1:4">
+      <c r="A55" s="45"/>
+      <c r="B55" s="48" t="s">
         <v>110</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D55" s="16" t="s">
+      <c r="D55" s="15" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A56" s="56"/>
-      <c r="B56" s="36"/>
+    <row r="56" spans="1:4" ht="49.5">
+      <c r="A56" s="45"/>
+      <c r="B56" s="48"/>
       <c r="C56" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D56" s="17" t="s">
+      <c r="D56" s="16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="56"/>
-      <c r="B57" s="36"/>
+    <row r="57" spans="1:4">
+      <c r="A57" s="45"/>
+      <c r="B57" s="48"/>
       <c r="C57" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D57" s="16" t="s">
+      <c r="D57" s="15" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="56"/>
-      <c r="B58" s="36"/>
+    <row r="58" spans="1:4">
+      <c r="A58" s="45"/>
+      <c r="B58" s="48"/>
       <c r="C58" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D58" s="16" t="s">
+      <c r="D58" s="15" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="56"/>
-      <c r="B59" s="36"/>
+    <row r="59" spans="1:4">
+      <c r="A59" s="45"/>
+      <c r="B59" s="48"/>
       <c r="C59" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D59" s="16" t="s">
+      <c r="D59" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A60" s="56"/>
-      <c r="B60" s="36" t="s">
+    <row r="60" spans="1:4" ht="33">
+      <c r="A60" s="45"/>
+      <c r="B60" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="C60" s="36"/>
-      <c r="D60" s="17" t="s">
+      <c r="C60" s="48"/>
+      <c r="D60" s="16" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A61" s="56"/>
-      <c r="B61" s="36" t="s">
+    <row r="61" spans="1:4" ht="49.5">
+      <c r="A61" s="45"/>
+      <c r="B61" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="C61" s="36"/>
-      <c r="D61" s="17" t="s">
+      <c r="C61" s="48"/>
+      <c r="D61" s="16" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="56"/>
-      <c r="B62" s="42" t="s">
+    <row r="62" spans="1:4" ht="48.75" customHeight="1">
+      <c r="A62" s="45"/>
+      <c r="B62" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="C62" s="51" t="s">
+      <c r="C62" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="D62" s="35"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="56"/>
-      <c r="B63" s="36"/>
+      <c r="D62" s="50"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="45"/>
+      <c r="B63" s="48"/>
       <c r="C63" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D63" s="16" t="s">
+      <c r="D63" s="15" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="56"/>
-      <c r="B64" s="36"/>
+    <row r="64" spans="1:4">
+      <c r="A64" s="45"/>
+      <c r="B64" s="48"/>
       <c r="C64" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D64" s="16" t="s">
+      <c r="D64" s="15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="56"/>
-      <c r="B65" s="36"/>
+    <row r="65" spans="1:4">
+      <c r="A65" s="45"/>
+      <c r="B65" s="48"/>
       <c r="C65" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D65" s="16" t="s">
+      <c r="D65" s="15" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="56"/>
-      <c r="B66" s="36"/>
+    <row r="66" spans="1:4">
+      <c r="A66" s="45"/>
+      <c r="B66" s="48"/>
       <c r="C66" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D66" s="16" t="s">
+      <c r="D66" s="15" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="56"/>
-      <c r="B67" s="36"/>
+    <row r="67" spans="1:4">
+      <c r="A67" s="45"/>
+      <c r="B67" s="48"/>
       <c r="C67" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D67" s="16" t="s">
+      <c r="D67" s="15" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="56"/>
-      <c r="B68" s="36" t="s">
+    <row r="68" spans="1:4">
+      <c r="A68" s="45"/>
+      <c r="B68" s="48" t="s">
         <v>140</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D68" s="16" t="s">
+      <c r="D68" s="15" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="56"/>
-      <c r="B69" s="36"/>
-      <c r="C69" s="49" t="s">
+    <row r="69" spans="1:4" ht="48.75" customHeight="1">
+      <c r="A69" s="45"/>
+      <c r="B69" s="48"/>
+      <c r="C69" s="57" t="s">
         <v>141</v>
       </c>
       <c r="D69" s="58"/>
     </row>
-    <row r="70" spans="1:4" ht="132.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="57"/>
-      <c r="B70" s="48"/>
-      <c r="C70" s="24" t="s">
+    <row r="70" spans="1:4" ht="132.75" thickBot="1">
+      <c r="A70" s="46"/>
+      <c r="B70" s="65"/>
+      <c r="C70" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="D70" s="19" t="s">
+      <c r="D70" s="18" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="52" t="s">
+    <row r="71" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A71" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="B71" s="47" t="s">
+      <c r="B71" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="C71" s="45" t="s">
+      <c r="C71" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="D71" s="46"/>
-    </row>
-    <row r="72" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A72" s="56"/>
-      <c r="B72" s="36"/>
+      <c r="D71" s="54"/>
+    </row>
+    <row r="72" spans="1:4" ht="33">
+      <c r="A72" s="45"/>
+      <c r="B72" s="48"/>
       <c r="C72" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D72" s="17" t="s">
+      <c r="D72" s="16" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="56"/>
-      <c r="B73" s="36"/>
+    <row r="73" spans="1:4">
+      <c r="A73" s="45"/>
+      <c r="B73" s="48"/>
       <c r="C73" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D73" s="16" t="s">
+      <c r="D73" s="15" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A74" s="56"/>
-      <c r="B74" s="36"/>
+    <row r="74" spans="1:4" ht="49.5">
+      <c r="A74" s="45"/>
+      <c r="B74" s="48"/>
       <c r="C74" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D74" s="21" t="s">
+      <c r="D74" s="20" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A75" s="56"/>
-      <c r="B75" s="36" t="s">
+    <row r="75" spans="1:4" ht="49.5">
+      <c r="A75" s="45"/>
+      <c r="B75" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="C75" s="36"/>
-      <c r="D75" s="17" t="s">
+      <c r="C75" s="48"/>
+      <c r="D75" s="16" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A76" s="56"/>
-      <c r="B76" s="36" t="s">
+    <row r="76" spans="1:4" ht="33">
+      <c r="A76" s="45"/>
+      <c r="B76" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="C76" s="36"/>
-      <c r="D76" s="17" t="s">
+      <c r="C76" s="48"/>
+      <c r="D76" s="16" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="56"/>
-      <c r="B77" s="36" t="s">
+    <row r="77" spans="1:4">
+      <c r="A77" s="45"/>
+      <c r="B77" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="C77" s="36"/>
-      <c r="D77" s="16" t="s">
+      <c r="C77" s="48"/>
+      <c r="D77" s="15" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="56"/>
-      <c r="B78" s="36" t="s">
+    <row r="78" spans="1:4">
+      <c r="A78" s="45"/>
+      <c r="B78" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="C78" s="36"/>
-      <c r="D78" s="16" t="s">
+      <c r="C78" s="48"/>
+      <c r="D78" s="15" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A79" s="56"/>
-      <c r="B79" s="36" t="s">
+    <row r="79" spans="1:4" ht="33">
+      <c r="A79" s="45"/>
+      <c r="B79" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="C79" s="36"/>
-      <c r="D79" s="17" t="s">
+      <c r="C79" s="48"/>
+      <c r="D79" s="16" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="56"/>
-      <c r="B80" s="36" t="s">
+    <row r="80" spans="1:4" ht="33.75" customHeight="1">
+      <c r="A80" s="45"/>
+      <c r="B80" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="C80" s="51" t="s">
+      <c r="C80" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="D80" s="35"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="56"/>
-      <c r="B81" s="36"/>
+      <c r="D80" s="50"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="45"/>
+      <c r="B81" s="48"/>
       <c r="C81" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D81" s="16" t="s">
+      <c r="D81" s="15" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="56"/>
-      <c r="B82" s="36"/>
+    <row r="82" spans="1:4">
+      <c r="A82" s="45"/>
+      <c r="B82" s="48"/>
       <c r="C82" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D82" s="16" t="s">
+      <c r="D82" s="15" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="56"/>
-      <c r="B83" s="36"/>
+    <row r="83" spans="1:4">
+      <c r="A83" s="45"/>
+      <c r="B83" s="48"/>
       <c r="C83" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D83" s="16" t="s">
+      <c r="D83" s="15" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A84" s="56"/>
-      <c r="B84" s="42" t="s">
+    <row r="84" spans="1:4" ht="33">
+      <c r="A84" s="45"/>
+      <c r="B84" s="47" t="s">
         <v>179</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D84" s="17" t="s">
+      <c r="D84" s="16" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A85" s="56"/>
-      <c r="B85" s="42"/>
+    <row r="85" spans="1:4" ht="33">
+      <c r="A85" s="45"/>
+      <c r="B85" s="47"/>
       <c r="C85" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D85" s="16" t="s">
+      <c r="D85" s="15" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A86" s="56"/>
-      <c r="B86" s="42"/>
+    <row r="86" spans="1:4" ht="28.5">
+      <c r="A86" s="45"/>
+      <c r="B86" s="47"/>
       <c r="C86" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D86" s="16" t="s">
+      <c r="D86" s="15" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A87" s="56"/>
-      <c r="B87" s="42" t="s">
+    <row r="87" spans="1:4" ht="33">
+      <c r="A87" s="45"/>
+      <c r="B87" s="47" t="s">
         <v>173</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D87" s="23" t="s">
+      <c r="D87" s="22" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A88" s="56"/>
-      <c r="B88" s="36"/>
+    <row r="88" spans="1:4" ht="49.5">
+      <c r="A88" s="45"/>
+      <c r="B88" s="48"/>
       <c r="C88" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D88" s="23" t="s">
+      <c r="D88" s="22" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="86.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="56"/>
-      <c r="B89" s="36" t="s">
+    <row r="89" spans="1:4" ht="86.25" customHeight="1">
+      <c r="A89" s="45"/>
+      <c r="B89" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="C89" s="51" t="s">
+      <c r="C89" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="D89" s="35"/>
-    </row>
-    <row r="90" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A90" s="56"/>
-      <c r="B90" s="36"/>
+      <c r="D89" s="50"/>
+    </row>
+    <row r="90" spans="1:4" ht="33">
+      <c r="A90" s="45"/>
+      <c r="B90" s="48"/>
       <c r="C90" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="D90" s="16" t="s">
+      <c r="D90" s="15" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="56"/>
-      <c r="B91" s="36"/>
+    <row r="91" spans="1:4">
+      <c r="A91" s="45"/>
+      <c r="B91" s="48"/>
       <c r="C91" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="D91" s="16" t="s">
+      <c r="D91" s="15" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="56"/>
-      <c r="B92" s="36"/>
+    <row r="92" spans="1:4">
+      <c r="A92" s="45"/>
+      <c r="B92" s="48"/>
       <c r="C92" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="D92" s="16" t="s">
+      <c r="D92" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="56"/>
-      <c r="B93" s="36"/>
+    <row r="93" spans="1:4">
+      <c r="A93" s="45"/>
+      <c r="B93" s="48"/>
       <c r="C93" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="D93" s="16" t="s">
+      <c r="D93" s="15" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="56"/>
-      <c r="B94" s="36" t="s">
+    <row r="94" spans="1:4">
+      <c r="A94" s="45"/>
+      <c r="B94" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="C94" s="36"/>
-      <c r="D94" s="16" t="s">
+      <c r="C94" s="48"/>
+      <c r="D94" s="15" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="57"/>
-      <c r="B95" s="48" t="s">
+    <row r="95" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A95" s="46"/>
+      <c r="B95" s="65" t="s">
         <v>191</v>
       </c>
-      <c r="C95" s="48"/>
-      <c r="D95" s="26" t="s">
+      <c r="C95" s="65"/>
+      <c r="D95" s="25" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="59" t="s">
+    <row r="96" spans="1:4">
+      <c r="A96" s="38" t="s">
         <v>264</v>
       </c>
-      <c r="B96" s="39" t="s">
+      <c r="B96" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="C96" s="37" t="s">
+      <c r="C96" s="60" t="s">
         <v>198</v>
       </c>
-      <c r="D96" s="38"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="60"/>
-      <c r="B97" s="40"/>
+      <c r="D96" s="61"/>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="39"/>
+      <c r="B97" s="35"/>
       <c r="C97" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D97" s="16" t="s">
+      <c r="D97" s="15" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="132" x14ac:dyDescent="0.3">
-      <c r="A98" s="60"/>
-      <c r="B98" s="41"/>
+    <row r="98" spans="1:4" ht="132">
+      <c r="A98" s="39"/>
+      <c r="B98" s="36"/>
       <c r="C98" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D98" s="17" t="s">
+      <c r="D98" s="16" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A99" s="60"/>
-      <c r="B99" s="62" t="s">
+    <row r="99" spans="1:4" ht="33">
+      <c r="A99" s="39"/>
+      <c r="B99" s="34" t="s">
         <v>223</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="D99" s="17" t="s">
+      <c r="D99" s="16" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="66" x14ac:dyDescent="0.3">
-      <c r="A100" s="60"/>
-      <c r="B100" s="40"/>
+    <row r="100" spans="1:4" ht="66">
+      <c r="A100" s="39"/>
+      <c r="B100" s="35"/>
       <c r="C100" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="D100" s="17" t="s">
+      <c r="D100" s="16" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A101" s="60"/>
-      <c r="B101" s="40"/>
+    <row r="101" spans="1:4" ht="33">
+      <c r="A101" s="39"/>
+      <c r="B101" s="35"/>
       <c r="C101" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D101" s="17" t="s">
+      <c r="D101" s="16" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A102" s="60"/>
-      <c r="B102" s="40"/>
+    <row r="102" spans="1:4" ht="82.5">
+      <c r="A102" s="39"/>
+      <c r="B102" s="35"/>
       <c r="C102" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D102" s="17" t="s">
+      <c r="D102" s="16" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A103" s="60"/>
-      <c r="B103" s="40"/>
+    <row r="103" spans="1:4" ht="82.5">
+      <c r="A103" s="39"/>
+      <c r="B103" s="35"/>
       <c r="C103" t="s">
         <v>218</v>
       </c>
-      <c r="D103" s="17" t="s">
+      <c r="D103" s="16" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="60"/>
-      <c r="B104" s="40"/>
-      <c r="C104" s="25" t="s">
+    <row r="104" spans="1:4">
+      <c r="A104" s="39"/>
+      <c r="B104" s="35"/>
+      <c r="C104" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="D104" s="16" t="s">
+      <c r="D104" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="83.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="61"/>
-      <c r="B105" s="63"/>
-      <c r="C105" s="27" t="s">
+    <row r="105" spans="1:4" ht="83.25" thickBot="1">
+      <c r="A105" s="40"/>
+      <c r="B105" s="43"/>
+      <c r="C105" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="D105" s="19" t="s">
+      <c r="D105" s="18" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A106" s="59" t="s">
+    <row r="106" spans="1:4" ht="33">
+      <c r="A106" s="38" t="s">
         <v>269</v>
       </c>
-      <c r="B106" s="66" t="s">
+      <c r="B106" s="42" t="s">
         <v>234</v>
       </c>
-      <c r="C106" s="28" t="s">
+      <c r="C106" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="D106" s="29" t="s">
+      <c r="D106" s="28" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A107" s="60"/>
-      <c r="B107" s="40"/>
+    <row r="107" spans="1:4" ht="33">
+      <c r="A107" s="39"/>
+      <c r="B107" s="35"/>
       <c r="C107" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D107" s="17" t="s">
+      <c r="D107" s="16" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A108" s="60"/>
-      <c r="B108" s="40"/>
+    <row r="108" spans="1:4" ht="33">
+      <c r="A108" s="39"/>
+      <c r="B108" s="35"/>
       <c r="C108" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D108" s="17" t="s">
+      <c r="D108" s="16" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="60"/>
-      <c r="B109" s="40"/>
+    <row r="109" spans="1:4">
+      <c r="A109" s="39"/>
+      <c r="B109" s="35"/>
       <c r="C109" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D109" s="16" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="66" x14ac:dyDescent="0.3">
-      <c r="A110" s="60"/>
-      <c r="B110" s="41"/>
+      <c r="D109" s="15" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="66">
+      <c r="A110" s="39"/>
+      <c r="B110" s="36"/>
       <c r="C110" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D110" s="17" t="s">
+      <c r="D110" s="16" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A111" s="60"/>
-      <c r="B111" s="62" t="s">
+    <row r="111" spans="1:4" ht="33">
+      <c r="A111" s="39"/>
+      <c r="B111" s="34" t="s">
         <v>245</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="D111" s="17" t="s">
+      <c r="D111" s="16" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="60"/>
-      <c r="B112" s="40"/>
+    <row r="112" spans="1:4" ht="33" customHeight="1">
+      <c r="A112" s="39"/>
+      <c r="B112" s="35"/>
       <c r="C112" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D112" s="17" t="s">
+      <c r="D112" s="16" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A113" s="60"/>
-      <c r="B113" s="40"/>
+    <row r="113" spans="1:4" ht="33">
+      <c r="A113" s="39"/>
+      <c r="B113" s="35"/>
       <c r="C113" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D113" s="30" t="s">
+      <c r="D113" s="29" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="60"/>
-      <c r="B114" s="40"/>
+    <row r="114" spans="1:4">
+      <c r="A114" s="39"/>
+      <c r="B114" s="35"/>
       <c r="C114" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D114" s="16" t="s">
+      <c r="D114" s="15" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="66" x14ac:dyDescent="0.3">
-      <c r="A115" s="60"/>
-      <c r="B115" s="41"/>
+    <row r="115" spans="1:4" ht="66">
+      <c r="A115" s="39"/>
+      <c r="B115" s="36"/>
       <c r="C115" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D115" s="17" t="s">
+      <c r="D115" s="16" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A116" s="60"/>
-      <c r="B116" s="62" t="s">
+    <row r="116" spans="1:4" ht="33">
+      <c r="A116" s="39"/>
+      <c r="B116" s="34" t="s">
         <v>246</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="D116" s="17" t="s">
+      <c r="D116" s="16" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A117" s="60"/>
-      <c r="B117" s="40"/>
+    <row r="117" spans="1:4" ht="33">
+      <c r="A117" s="39"/>
+      <c r="B117" s="35"/>
       <c r="C117" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="D117" s="16" t="s">
+      <c r="D117" s="15" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A118" s="60"/>
-      <c r="B118" s="40"/>
+    <row r="118" spans="1:4" ht="49.5">
+      <c r="A118" s="39"/>
+      <c r="B118" s="35"/>
       <c r="C118" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D118" s="17" t="s">
+      <c r="D118" s="16" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="132" x14ac:dyDescent="0.3">
-      <c r="A119" s="60"/>
-      <c r="B119" s="41"/>
+    <row r="119" spans="1:4" ht="132">
+      <c r="A119" s="39"/>
+      <c r="B119" s="36"/>
       <c r="C119" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D119" s="17" t="s">
+      <c r="D119" s="16" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="99" x14ac:dyDescent="0.3">
-      <c r="A120" s="60"/>
-      <c r="B120" s="62" t="s">
+    <row r="120" spans="1:4" ht="99">
+      <c r="A120" s="39"/>
+      <c r="B120" s="34" t="s">
         <v>255</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D120" s="17" t="s">
+      <c r="D120" s="16" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A121" s="60"/>
-      <c r="B121" s="40"/>
+    <row r="121" spans="1:4" ht="49.5">
+      <c r="A121" s="39"/>
+      <c r="B121" s="35"/>
       <c r="C121" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D121" s="17" t="s">
+      <c r="D121" s="16" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="60"/>
-      <c r="B122" s="40"/>
+    <row r="122" spans="1:4">
+      <c r="A122" s="39"/>
+      <c r="B122" s="35"/>
       <c r="C122" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D122" s="16" t="s">
+      <c r="D122" s="15" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="165.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="61"/>
-      <c r="B123" s="63"/>
-      <c r="C123" s="31" t="s">
+    <row r="123" spans="1:4" ht="165.75" thickBot="1">
+      <c r="A123" s="40"/>
+      <c r="B123" s="43"/>
+      <c r="C123" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="D123" s="19" t="s">
+      <c r="D123" s="18" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="10" t="s">
+    <row r="124" spans="1:4" ht="49.5" customHeight="1">
+      <c r="A124" s="38" t="s">
         <v>270</v>
       </c>
-      <c r="B124" s="66" t="s">
+      <c r="B124" s="42" t="s">
         <v>268</v>
       </c>
-      <c r="C124" s="64" t="s">
+      <c r="C124" s="41" t="s">
         <v>265</v>
       </c>
-      <c r="D124" s="65"/>
-    </row>
-    <row r="125" spans="1:4" ht="99" x14ac:dyDescent="0.3">
-      <c r="B125" s="41"/>
+      <c r="D124" s="61"/>
+    </row>
+    <row r="125" spans="1:4" ht="99">
+      <c r="A125" s="71"/>
+      <c r="B125" s="36"/>
       <c r="C125" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D125" s="5" t="s">
+      <c r="D125" s="16" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B126" s="62" t="s">
+    <row r="126" spans="1:4">
+      <c r="A126" s="71"/>
+      <c r="B126" s="34" t="s">
         <v>271</v>
       </c>
-      <c r="C126" s="67" t="s">
+      <c r="C126" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="D126" s="68"/>
-    </row>
-    <row r="127" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B127" s="41"/>
+      <c r="D126" s="72"/>
+    </row>
+    <row r="127" spans="1:4" ht="33">
+      <c r="A127" s="71"/>
+      <c r="B127" s="36"/>
       <c r="C127" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="D127" s="15" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B128" s="62" t="s">
+    <row r="128" spans="1:4">
+      <c r="A128" s="71"/>
+      <c r="B128" s="34" t="s">
         <v>274</v>
       </c>
-      <c r="C128" s="67" t="s">
+      <c r="C128" s="33" t="s">
         <v>275</v>
       </c>
-      <c r="D128" s="68"/>
-    </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B129" s="41"/>
+      <c r="D128" s="72"/>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="71"/>
+      <c r="B129" s="36"/>
       <c r="C129" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="D129" s="15" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="130" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="62" t="s">
+    <row r="130" spans="1:4" ht="33" customHeight="1">
+      <c r="A130" s="71"/>
+      <c r="B130" s="34" t="s">
         <v>279</v>
       </c>
-      <c r="C130" s="69" t="s">
+      <c r="C130" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="D130" s="72"/>
+    </row>
+    <row r="131" spans="1:4" ht="82.5">
+      <c r="A131" s="71"/>
+      <c r="B131" s="35"/>
+      <c r="C131" s="31" t="s">
         <v>280</v>
       </c>
-      <c r="D130" s="68"/>
-    </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B131" s="40"/>
-      <c r="C131" s="32" t="s">
+      <c r="D131" s="16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="82.5">
+      <c r="A132" s="71"/>
+      <c r="B132" s="35"/>
+      <c r="C132" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="D132" s="16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="71"/>
+      <c r="B133" s="36"/>
+      <c r="C133" s="33" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B132" s="40"/>
-      <c r="C132" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B133" s="41"/>
-      <c r="C133" s="67" t="s">
-        <v>285</v>
-      </c>
-      <c r="D133" s="68"/>
+      <c r="D133" s="72"/>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="71"/>
+      <c r="B134" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D134" s="15" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="71"/>
+      <c r="B135" s="35"/>
+      <c r="C135" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D135" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="71"/>
+      <c r="B136" s="36"/>
+      <c r="C136" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D136" s="15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="71"/>
+      <c r="B137" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D137" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="71"/>
+      <c r="B138" s="35"/>
+      <c r="C138" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D138" s="15" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="71"/>
+      <c r="B139" s="35"/>
+      <c r="C139" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D139" s="15" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="71"/>
+      <c r="B140" s="35"/>
+      <c r="C140" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D140" s="15" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="71"/>
+      <c r="B141" s="36"/>
+      <c r="C141" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D141" s="15" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="71"/>
+      <c r="B142" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C142" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="D142" s="72"/>
+    </row>
+    <row r="143" spans="1:4" ht="33" customHeight="1">
+      <c r="A143" s="71"/>
+      <c r="B143" s="67" t="s">
+        <v>309</v>
+      </c>
+      <c r="C143" s="37" t="s">
+        <v>310</v>
+      </c>
+      <c r="D143" s="73"/>
+    </row>
+    <row r="144" spans="1:4" ht="33">
+      <c r="A144" s="71"/>
+      <c r="B144" s="68"/>
+      <c r="C144" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D144" s="16" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="49.5">
+      <c r="A145" s="71"/>
+      <c r="B145" s="69"/>
+      <c r="C145" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D145" s="16" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="66.75" thickBot="1">
+      <c r="A146" s="74"/>
+      <c r="B146" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="C146" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="D146" s="18" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="70" t="s">
+        <v>316</v>
+      </c>
+      <c r="B147" s="70"/>
+      <c r="C147" s="70"/>
+      <c r="D147" s="70"/>
     </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="B130:B133"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="B128:B129"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="A106:A123"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="B106:B110"/>
-    <mergeCell ref="B111:B115"/>
-    <mergeCell ref="B116:B119"/>
-    <mergeCell ref="B120:B123"/>
-    <mergeCell ref="A96:A105"/>
-    <mergeCell ref="B99:B105"/>
-    <mergeCell ref="A71:A95"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="B79:C79"/>
+  <mergeCells count="64">
+    <mergeCell ref="B143:B145"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="A124:A146"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="B137:B141"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="B89:B93"/>
+    <mergeCell ref="B94:C94"/>
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="B14:B18"/>
@@ -4583,22 +4956,32 @@
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B31:B38"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="B96:B98"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="B89:B93"/>
-    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="A96:A105"/>
+    <mergeCell ref="B99:B105"/>
+    <mergeCell ref="A71:A95"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="A106:A123"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="B106:B110"/>
+    <mergeCell ref="B111:B115"/>
+    <mergeCell ref="B116:B119"/>
+    <mergeCell ref="B120:B123"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="B130:B133"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="C130:D130"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/언리얼 요약본.xlsx
+++ b/언리얼 요약본.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yelim\Documents\GitHub\Study_Unreal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6281527F-72AF-42B5-88FD-9101C3FB558C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CD96CE-1B75-4D22-9643-BF6367B0DF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2445" windowWidth="30060" windowHeight="20400" xr2:uid="{CEA47E12-18E0-4701-A6C4-D2FB2DC55C50}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="37710" windowHeight="21705" xr2:uid="{CEA47E12-18E0-4701-A6C4-D2FB2DC55C50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="374">
   <si>
     <t>Config</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2333,7 +2333,405 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7챕터</t>
+    <t>애니메이션 블루프린트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애님 인스턴스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애님 그래프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니메이션 시스템 제작 도구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니메이션 블루프린트의 기반. 스켈레탈 메시를 소유하는 폰의 정보를 받아 애님 그래프가 참조할 데이터 제공.
+블루프린트와 C++로 제작할 수 있음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시각적 도구를 사용해 애니메이션 시스템을 제작하도록 설계됨. 애님 인스턴스의 변수 값에 따라 변화하는 애니메이션 시스템을 설계하는 공간.
+블루프린트 로만 제작 할 수 있음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NativeUpdateAnimation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애님인스턴스 클래스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>틱마다 호출되며 가상 함수로 제공함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TryGetPawnOwner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">스테이트 머신
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>State Machine</t>
+    </r>
+  </si>
+  <si>
+    <t>스테이트 State</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상황에 따른 복잡한 애니메이션 시스템을 체계적으로 설계할 수 있도록 하는 기능. 유한 상태 기계라고도 불리며 개찰구, 자판기와 같은 기계의 동작을 설계할 때도 사용돼왔던 오래된 설계 기법임.
+여러 스테이트를 설계할 수 있는데, 스테이트 머신은 그중 하나의 스테이트만 지정해 해당 스테이트에서 지정한 동작을 반복 수행함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터가 반복해서 재생해야 할 애니메이션 동작.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트랜지션 Transition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단방향 화살표선.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acharacter함수에는 jump라는 멤버 함수가 있으며, 이는 입력과 바인딩할 수 있게 인자와 반환이 없는 함수로 선언돼 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetCharacterMovement()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">애니메이션 시스템의 틱에서 폰에 접근해 폰의 속력 값을 얻어오기 위해 사용.
+애니메이션 시스템은 폰에 접근할 떄 먼저 폰 객체가 유효한지 점검할 필요가 있는데 이때 이 함수를 사용한다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>auto Pawn = TryGetPawnOwner(); // 폰 객체가 유효한지 검사
+if (::IsValid(Pawn)) // 유효할시 속력을 가져옴
+{
+ CurrentPawnSpeed = Pawn-&gt;GetVelocity().Size();
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>점프의 높이를 조절 하고 싶은 경우 캐릭터 무브먼트 컴포넌트를 GetCharacterMovement()로 가져온 후 JumpZVelocity의 기본 값을 
+원하는 값으로 변경 함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsFalling()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsSwimming()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsCrouching()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsMoveOnGround()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무브먼트 컴포넌트
+가 제공하는 움직임 파악 함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 공중에 떠있는지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 수영중인지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 쭈그리고 앉아있는지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>땅위에서 이동중인지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폰 무브먼트 컴포넌트에는 아래와 같이 4가지 질의 함수가 있지만, 이 기능을 제대로 구현한 컴포넌트는 캐릭터 무브먼트 컴포넌트 뿐.
+FloatingPawnMovement 컴포넌트는 해당 함수에 대해 모두 false 값을 반환함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">애니메이션 리타겟
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Animation Retarget</t>
+    </r>
+  </si>
+  <si>
+    <t>언리얼 엔진은 인간형 캐릭터의 경우 스켈레톤의 구성이 달라도 애니메이션을 교환할 수 있도록 이 기능을 제공함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7챕터.
+애니메이션
+시스템의
+설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8챕터.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니메이션 몽타주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>섹션 Section</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언리얼 엔진은 스테이트머신의 확장없이 특정 상황에서 원하는 애니메이션을 발동시키는 애니메이션 몽타주 라는 기능을 제공함.
+여러 애니메이션 클립들의 일부를 떼어내고 붙여서 새로운 애니메이션을 생성하는 기법.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Montage_IsPlaying 함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Montage_Play 함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">몽타주 재생
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if (!Montage_IsPlaying(AttackMontage))
+{
+ Montage_Play(AttackMontage, 1.0f);
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>UAnimInstance 내부 함수, 현재 몽타주가 재생 중인지 파악</t>
+  </si>
+  <si>
+    <t>UAnimInstance 내부 함수, 애니메이션 작업 단위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 객체가 해야 할 로직을 다른 객체가 대신 처리할 수 있도록 만드는 보편적인 설계의 개념.
+언리얼엔진의 델리게이트는  A객체가 B객체에 작업 명령을 내릴 때 B객체에 자신을 등록하고 B의 작업이 끝나면 이때 A에게 알려주는 설계방식. A가 B가 요구하는 형식으로 멤버 함수를 만들면 이를 B에 등록할 수 있고, B가 특정상황이 될 때 B는 미리 등록해둔 A의 멤버 함수를 호출해주는 방식으로 동작함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnMontageEnded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애님 인스턴스가 애니메이션 몽타주 재생이 끝나면 발동하는 델리게이트.
+어떤 언리얼 오브젝트라도 UAnimMontage* 인자와 bool인자를 가진 멤버함수를 가지고 있다면, 이를 OnMontageEnded 델리게이트에 등록해 몽타주 재생이 끝나는 타이밍을 파악할 수 있음.
+OnMontageEnded 델리게이트는 블루프린트의 함수와도 연동할 수 있도록 설계돼 있으므로 C++에서 연동하려는 함수는 블루프린트와 호환되는 함수형으로 선언해야 하기 때문에 윗줄에 UFUNCTION이라는 매크로를 추가선언해야함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">다이내믹 델리게이트
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dynamic Delegate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">델리게이트 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Delegate</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">멀티캐스트 델리게이트
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Multicast Delegate</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OnAttackMontageEnded 델리게이트는 블루프린트와 호환되는 성질 외에도 여러 개의 함수를 받을 수 있어서 행동이 끝나면 등록된 모든 함수들에게 모두 알려주는 기능도 제공함. 이러한 델리게이트를 멀티캐스트 델리게이트라고 함.
+애님 인스턴스 헤더에 선언된 OnMontageEnded가 사용하는 델리게이트를 정의한 코드는 다음과 같다. 언리얼 엔진에서 델리게이트의 선언은 언리얼이 제공하는 매크로를 통해 정의되먀, 이렇게 정의된 델리게이트의 형식을 시그니처(Signature)라고 함.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DELEGATE_DYNAMIC_MULTICAST_DELEGATE_TwoParams(FOnMontageEndedMCDelegate, UAnimMontage*, Montage, bool, bInterrupted);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이렇게 두가지 기능이 있는 OnMontageEnded 델리게이트는 '다이내믹 멀티캐스트 델리게이트'라고 할수 있다.</t>
+    </r>
+  </si>
+  <si>
+    <t>애니메이션 노티파이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">애니메이션을 재생하는 동안 특정 타이밍에 애님 인스턴스에게 신호를 보내는 기능. 일반 애니메이션과 몽타주 모두 사용 가능.
+재생 구간에 위치한 노티파이가 호출되면 언리얼 엔진은 자동으로 애님 인스턴스 클래스의 'AnimNotify_노티파이명'이라는 이름의 멤버 함수를 찾아서 호출.
+이때 해당 멤버함수는 언리얼 런타임이 찾을 수 있도록 반드시 UFUNCTION 매크로가 지정돼야 함.
+재생 목록에 노티파이를 지정한 수 만큼 멤버함수가 호출됨.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UFUNCTION()
+void AnimNotify_AttackHitCheck();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">언리얼에서 델리게이트는 C++객체에만 사용할 수 있는 델리게이트와 C++, 블루프린트 객체가 모두 사용할 수 있는 델리게이트로 
+나뉨. 블루프린트 오브젝트는 멤버 함수에 대한 정보를 저장하고 로딩하는 직렬화 메커니즘이 들어있기 떄문에 일반 C++ 언어가 관리하는 방법으로 멤버함수를 관리 할수 없음. 그래서 블루프리느와 관련된 C++ 함수는 모두 UFUNCTION 매크로를 사용해야 함. 이렇게 블루프린트 객체와도 연동하는 델리게이트를 언리얼 엔진에서는 다이내믹 델리게이트라고 함.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>YPAnim-&gt;OnMontageEnded.AddDynamic(this, &amp;AYPCharacter::OnAttackMontageEnded);</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몽타주 틱 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Branching Point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Queued</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 프레임에 즉각적으로 반응</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비동기 방식으로 신호 받음. 주로 타이밍에 민감하지 않은 사운드나 이펙트를 발생시킬때 사용 권장.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2341,7 +2739,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2469,6 +2867,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2478,7 +2884,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -2840,13 +3246,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2946,20 +3378,113 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2970,107 +3495,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3386,21 +3845,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77C2A88-FEC8-45F4-8595-5DB014046BF1}">
-  <dimension ref="A1:D147"/>
+  <dimension ref="A1:D173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E150" sqref="E150"/>
+    <sheetView tabSelected="1" topLeftCell="A162" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C171" sqref="C171:D171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="34"/>
     <col min="2" max="2" width="23" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="110.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="110.375" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" thickBot="1">
+    <row r="1" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
@@ -3414,11 +3873,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="65" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -3428,8 +3887,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A3" s="51"/>
+    <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="63"/>
       <c r="B3" s="48"/>
       <c r="C3" s="4" t="s">
         <v>1</v>
@@ -3438,8 +3897,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A4" s="51"/>
+    <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="63"/>
       <c r="B4" s="48"/>
       <c r="C4" s="4" t="s">
         <v>2</v>
@@ -3448,8 +3907,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="33">
-      <c r="A5" s="51"/>
+    <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A5" s="63"/>
       <c r="B5" s="48"/>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -3458,8 +3917,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="51"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="63"/>
       <c r="B6" s="48"/>
       <c r="C6" s="4" t="s">
         <v>7</v>
@@ -3468,8 +3927,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="33">
-      <c r="A7" s="51"/>
+    <row r="7" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A7" s="63"/>
       <c r="B7" s="48"/>
       <c r="C7" s="4" t="s">
         <v>9</v>
@@ -3478,8 +3937,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="66">
-      <c r="A8" s="51"/>
+    <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A8" s="63"/>
       <c r="B8" s="48"/>
       <c r="C8" s="2" t="s">
         <v>62</v>
@@ -3488,9 +3947,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A9" s="51"/>
-      <c r="B9" s="47" t="s">
+    <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="63"/>
+      <c r="B9" s="52" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -3500,9 +3959,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="51"/>
-      <c r="B10" s="47"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="63"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
@@ -3510,9 +3969,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="51"/>
-      <c r="B11" s="47"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="63"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
@@ -3520,9 +3979,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="51"/>
-      <c r="B12" s="47"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="63"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="4" t="s">
         <v>22</v>
       </c>
@@ -3530,9 +3989,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A13" s="52"/>
-      <c r="B13" s="63"/>
+    <row r="13" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="64"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="17" t="s">
         <v>21</v>
       </c>
@@ -3540,20 +3999,20 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="49.5" customHeight="1">
-      <c r="A14" s="44" t="s">
+    <row r="14" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="54"/>
-    </row>
-    <row r="15" spans="1:4" ht="33">
-      <c r="A15" s="45"/>
+      <c r="D14" s="56"/>
+    </row>
+    <row r="15" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A15" s="66"/>
       <c r="B15" s="48"/>
       <c r="C15" s="2" t="s">
         <v>29</v>
@@ -3562,8 +4021,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="33">
-      <c r="A16" s="45"/>
+    <row r="16" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A16" s="66"/>
       <c r="B16" s="48"/>
       <c r="C16" s="2" t="s">
         <v>30</v>
@@ -3572,8 +4031,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="33">
-      <c r="A17" s="45"/>
+    <row r="17" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A17" s="66"/>
       <c r="B17" s="48"/>
       <c r="C17" s="2" t="s">
         <v>31</v>
@@ -3582,8 +4041,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="33">
-      <c r="A18" s="45"/>
+    <row r="18" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A18" s="66"/>
       <c r="B18" s="48"/>
       <c r="C18" s="2" t="s">
         <v>32</v>
@@ -3592,18 +4051,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="45"/>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="66"/>
       <c r="B19" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="50"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="45"/>
+      <c r="D19" s="47"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="66"/>
       <c r="B20" s="48"/>
       <c r="C20" s="2" t="s">
         <v>40</v>
@@ -3612,8 +4071,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="45"/>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="66"/>
       <c r="B21" s="48"/>
       <c r="C21" s="2" t="s">
         <v>41</v>
@@ -3622,8 +4081,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="45"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="66"/>
       <c r="B22" s="48"/>
       <c r="C22" s="2" t="s">
         <v>42</v>
@@ -3632,8 +4091,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="33">
-      <c r="A23" s="45"/>
+    <row r="23" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A23" s="66"/>
       <c r="B23" s="48"/>
       <c r="C23" s="2" t="s">
         <v>43</v>
@@ -3642,8 +4101,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="33">
-      <c r="A24" s="45"/>
+    <row r="24" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A24" s="66"/>
       <c r="B24" s="48"/>
       <c r="C24" s="2" t="s">
         <v>44</v>
@@ -3652,28 +4111,28 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="50.25" customHeight="1">
-      <c r="A25" s="45"/>
+    <row r="25" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="66"/>
       <c r="B25" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="50"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="45"/>
+      <c r="D25" s="47"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="66"/>
       <c r="B26" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="64" t="s">
+      <c r="C26" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="50"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="45"/>
+      <c r="D26" s="47"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="66"/>
       <c r="B27" s="48"/>
       <c r="C27" s="2" t="s">
         <v>52</v>
@@ -3682,8 +4141,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="45"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="66"/>
       <c r="B28" s="48"/>
       <c r="C28" s="2" t="s">
         <v>53</v>
@@ -3692,8 +4151,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="45"/>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="66"/>
       <c r="B29" s="48"/>
       <c r="C29" s="2" t="s">
         <v>54</v>
@@ -3702,8 +4161,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="33">
-      <c r="A30" s="45"/>
+    <row r="30" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A30" s="66"/>
       <c r="B30" s="48"/>
       <c r="C30" s="5" t="s">
         <v>78</v>
@@ -3712,9 +4171,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="33">
-      <c r="A31" s="45"/>
-      <c r="B31" s="47" t="s">
+    <row r="31" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A31" s="66"/>
+      <c r="B31" s="52" t="s">
         <v>59</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -3724,8 +4183,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="49.5">
-      <c r="A32" s="45"/>
+    <row r="32" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A32" s="66"/>
       <c r="B32" s="48"/>
       <c r="C32" s="5" t="s">
         <v>61</v>
@@ -3734,8 +4193,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="33">
-      <c r="A33" s="45"/>
+    <row r="33" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A33" s="66"/>
       <c r="B33" s="48"/>
       <c r="C33" s="5" t="s">
         <v>63</v>
@@ -3744,8 +4203,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="33">
-      <c r="A34" s="45"/>
+    <row r="34" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A34" s="66"/>
       <c r="B34" s="48"/>
       <c r="C34" s="5" t="s">
         <v>64</v>
@@ -3754,8 +4213,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="33">
-      <c r="A35" s="45"/>
+    <row r="35" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A35" s="66"/>
       <c r="B35" s="48"/>
       <c r="C35" s="5" t="s">
         <v>65</v>
@@ -3764,8 +4223,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="49.5">
-      <c r="A36" s="45"/>
+    <row r="36" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A36" s="66"/>
       <c r="B36" s="48"/>
       <c r="C36" s="5" t="s">
         <v>66</v>
@@ -3774,8 +4233,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="33">
-      <c r="A37" s="45"/>
+    <row r="37" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A37" s="66"/>
       <c r="B37" s="48"/>
       <c r="C37" s="5" t="s">
         <v>67</v>
@@ -3784,8 +4243,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="33">
-      <c r="A38" s="45"/>
+    <row r="38" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A38" s="66"/>
       <c r="B38" s="48"/>
       <c r="C38" s="5" t="s">
         <v>68</v>
@@ -3794,19 +4253,19 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="82.5" customHeight="1">
-      <c r="A39" s="45"/>
+    <row r="39" spans="1:4" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="66"/>
       <c r="B39" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="57" t="s">
+      <c r="C39" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="66"/>
-    </row>
-    <row r="40" spans="1:4" ht="33">
-      <c r="A40" s="45"/>
-      <c r="B40" s="47" t="s">
+      <c r="D39" s="60"/>
+    </row>
+    <row r="40" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A40" s="66"/>
+      <c r="B40" s="52" t="s">
         <v>82</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -3816,8 +4275,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="33">
-      <c r="A41" s="45"/>
+    <row r="41" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A41" s="66"/>
       <c r="B41" s="48"/>
       <c r="C41" s="5" t="s">
         <v>84</v>
@@ -3826,8 +4285,8 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="33">
-      <c r="A42" s="45"/>
+    <row r="42" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A42" s="66"/>
       <c r="B42" s="48"/>
       <c r="C42" s="5" t="s">
         <v>85</v>
@@ -3836,8 +4295,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="49.5">
-      <c r="A43" s="45"/>
+    <row r="43" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="66"/>
       <c r="B43" s="48"/>
       <c r="C43" s="5" t="s">
         <v>86</v>
@@ -3846,8 +4305,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="49.5">
-      <c r="A44" s="45"/>
+    <row r="44" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="66"/>
       <c r="B44" s="48" t="s">
         <v>124</v>
       </c>
@@ -3856,9 +4315,9 @@
         <v>206</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="45"/>
-      <c r="B45" s="47" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="66"/>
+      <c r="B45" s="52" t="s">
         <v>101</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -3868,9 +4327,9 @@
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="45"/>
-      <c r="B46" s="47"/>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="66"/>
+      <c r="B46" s="52"/>
       <c r="C46" s="7" t="s">
         <v>93</v>
       </c>
@@ -3878,9 +4337,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="66">
-      <c r="A47" s="45"/>
-      <c r="B47" s="47"/>
+    <row r="47" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A47" s="66"/>
+      <c r="B47" s="52"/>
       <c r="C47" s="6" t="s">
         <v>90</v>
       </c>
@@ -3888,9 +4347,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="45"/>
-      <c r="B48" s="47"/>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="66"/>
+      <c r="B48" s="52"/>
       <c r="C48" s="6" t="s">
         <v>94</v>
       </c>
@@ -3898,9 +4357,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="45"/>
-      <c r="B49" s="47"/>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="66"/>
+      <c r="B49" s="52"/>
       <c r="C49" s="6" t="s">
         <v>95</v>
       </c>
@@ -3908,9 +4367,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="45"/>
-      <c r="B50" s="47"/>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="66"/>
+      <c r="B50" s="52"/>
       <c r="C50" s="6" t="s">
         <v>96</v>
       </c>
@@ -3918,9 +4377,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="45"/>
-      <c r="B51" s="47" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="66"/>
+      <c r="B51" s="52" t="s">
         <v>102</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -3930,9 +4389,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="45"/>
-      <c r="B52" s="47"/>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="66"/>
+      <c r="B52" s="52"/>
       <c r="C52" s="2" t="s">
         <v>103</v>
       </c>
@@ -3940,9 +4399,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="45"/>
-      <c r="B53" s="47"/>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="66"/>
+      <c r="B53" s="52"/>
       <c r="C53" s="2" t="s">
         <v>104</v>
       </c>
@@ -3950,9 +4409,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="45"/>
-      <c r="B54" s="47"/>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="66"/>
+      <c r="B54" s="52"/>
       <c r="C54" s="2" t="s">
         <v>105</v>
       </c>
@@ -3960,8 +4419,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="45"/>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="66"/>
       <c r="B55" s="48" t="s">
         <v>110</v>
       </c>
@@ -3972,8 +4431,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="49.5">
-      <c r="A56" s="45"/>
+    <row r="56" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="66"/>
       <c r="B56" s="48"/>
       <c r="C56" s="2" t="s">
         <v>113</v>
@@ -3982,8 +4441,8 @@
         <v>114</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="45"/>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="66"/>
       <c r="B57" s="48"/>
       <c r="C57" s="2" t="s">
         <v>115</v>
@@ -3992,8 +4451,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="45"/>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="66"/>
       <c r="B58" s="48"/>
       <c r="C58" s="2" t="s">
         <v>117</v>
@@ -4002,8 +4461,8 @@
         <v>118</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="45"/>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="66"/>
       <c r="B59" s="48"/>
       <c r="C59" s="2" t="s">
         <v>119</v>
@@ -4012,8 +4471,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="33">
-      <c r="A60" s="45"/>
+    <row r="60" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A60" s="66"/>
       <c r="B60" s="48" t="s">
         <v>121</v>
       </c>
@@ -4022,8 +4481,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="49.5">
-      <c r="A61" s="45"/>
+    <row r="61" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A61" s="66"/>
       <c r="B61" s="48" t="s">
         <v>123</v>
       </c>
@@ -4032,18 +4491,18 @@
         <v>204</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="48.75" customHeight="1">
-      <c r="A62" s="45"/>
-      <c r="B62" s="47" t="s">
+    <row r="62" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="66"/>
+      <c r="B62" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="C62" s="49" t="s">
+      <c r="C62" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="D62" s="50"/>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="45"/>
+      <c r="D62" s="47"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="66"/>
       <c r="B63" s="48"/>
       <c r="C63" s="2" t="s">
         <v>125</v>
@@ -4052,8 +4511,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="45"/>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="66"/>
       <c r="B64" s="48"/>
       <c r="C64" s="2" t="s">
         <v>126</v>
@@ -4062,8 +4521,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="45"/>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="66"/>
       <c r="B65" s="48"/>
       <c r="C65" s="2" t="s">
         <v>127</v>
@@ -4072,8 +4531,8 @@
         <v>132</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="45"/>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="66"/>
       <c r="B66" s="48"/>
       <c r="C66" s="2" t="s">
         <v>128</v>
@@ -4082,8 +4541,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="45"/>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="66"/>
       <c r="B67" s="48"/>
       <c r="C67" s="2" t="s">
         <v>129</v>
@@ -4092,8 +4551,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="45"/>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="66"/>
       <c r="B68" s="48" t="s">
         <v>140</v>
       </c>
@@ -4104,17 +4563,17 @@
         <v>139</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="48.75" customHeight="1">
-      <c r="A69" s="45"/>
+    <row r="69" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="66"/>
       <c r="B69" s="48"/>
-      <c r="C69" s="57" t="s">
+      <c r="C69" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="D69" s="58"/>
-    </row>
-    <row r="70" spans="1:4" ht="132.75" thickBot="1">
-      <c r="A70" s="46"/>
-      <c r="B70" s="65"/>
+      <c r="D69" s="68"/>
+    </row>
+    <row r="70" spans="1:4" ht="132.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="67"/>
+      <c r="B70" s="58"/>
       <c r="C70" s="23" t="s">
         <v>142</v>
       </c>
@@ -4122,20 +4581,20 @@
         <v>201</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A71" s="44" t="s">
+    <row r="71" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="B71" s="55" t="s">
+      <c r="B71" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="C71" s="53" t="s">
+      <c r="C71" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="D71" s="54"/>
-    </row>
-    <row r="72" spans="1:4" ht="33">
-      <c r="A72" s="45"/>
+      <c r="D71" s="56"/>
+    </row>
+    <row r="72" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A72" s="66"/>
       <c r="B72" s="48"/>
       <c r="C72" s="2" t="s">
         <v>148</v>
@@ -4144,8 +4603,8 @@
         <v>194</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="45"/>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="66"/>
       <c r="B73" s="48"/>
       <c r="C73" s="2" t="s">
         <v>149</v>
@@ -4154,8 +4613,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="49.5">
-      <c r="A74" s="45"/>
+    <row r="74" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A74" s="66"/>
       <c r="B74" s="48"/>
       <c r="C74" s="2" t="s">
         <v>151</v>
@@ -4164,8 +4623,8 @@
         <v>195</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="49.5">
-      <c r="A75" s="45"/>
+    <row r="75" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A75" s="66"/>
       <c r="B75" s="48" t="s">
         <v>152</v>
       </c>
@@ -4174,8 +4633,8 @@
         <v>202</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="33">
-      <c r="A76" s="45"/>
+    <row r="76" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A76" s="66"/>
       <c r="B76" s="48" t="s">
         <v>153</v>
       </c>
@@ -4184,8 +4643,8 @@
         <v>196</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="45"/>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="66"/>
       <c r="B77" s="48" t="s">
         <v>154</v>
       </c>
@@ -4194,8 +4653,8 @@
         <v>155</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="45"/>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="66"/>
       <c r="B78" s="48" t="s">
         <v>156</v>
       </c>
@@ -4204,8 +4663,8 @@
         <v>157</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="33">
-      <c r="A79" s="45"/>
+    <row r="79" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A79" s="66"/>
       <c r="B79" s="48" t="s">
         <v>159</v>
       </c>
@@ -4214,18 +4673,18 @@
         <v>203</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="33.75" customHeight="1">
-      <c r="A80" s="45"/>
+    <row r="80" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="66"/>
       <c r="B80" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="C80" s="49" t="s">
+      <c r="C80" s="61" t="s">
         <v>164</v>
       </c>
-      <c r="D80" s="50"/>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="45"/>
+      <c r="D80" s="47"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="66"/>
       <c r="B81" s="48"/>
       <c r="C81" s="2" t="s">
         <v>161</v>
@@ -4234,8 +4693,8 @@
         <v>165</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="45"/>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="66"/>
       <c r="B82" s="48"/>
       <c r="C82" s="2" t="s">
         <v>162</v>
@@ -4244,8 +4703,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="45"/>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="66"/>
       <c r="B83" s="48"/>
       <c r="C83" s="2" t="s">
         <v>163</v>
@@ -4254,9 +4713,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="33">
-      <c r="A84" s="45"/>
-      <c r="B84" s="47" t="s">
+    <row r="84" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A84" s="66"/>
+      <c r="B84" s="52" t="s">
         <v>179</v>
       </c>
       <c r="C84" s="5" t="s">
@@ -4266,9 +4725,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="33">
-      <c r="A85" s="45"/>
-      <c r="B85" s="47"/>
+    <row r="85" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A85" s="66"/>
+      <c r="B85" s="52"/>
       <c r="C85" s="5" t="s">
         <v>171</v>
       </c>
@@ -4276,9 +4735,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="28.5">
-      <c r="A86" s="45"/>
-      <c r="B86" s="47"/>
+    <row r="86" spans="1:4" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A86" s="66"/>
+      <c r="B86" s="52"/>
       <c r="C86" s="5" t="s">
         <v>174</v>
       </c>
@@ -4286,9 +4745,9 @@
         <v>172</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="33">
-      <c r="A87" s="45"/>
-      <c r="B87" s="47" t="s">
+    <row r="87" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A87" s="66"/>
+      <c r="B87" s="52" t="s">
         <v>173</v>
       </c>
       <c r="C87" s="5" t="s">
@@ -4298,8 +4757,8 @@
         <v>177</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="49.5">
-      <c r="A88" s="45"/>
+    <row r="88" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A88" s="66"/>
       <c r="B88" s="48"/>
       <c r="C88" s="5" t="s">
         <v>176</v>
@@ -4308,18 +4767,18 @@
         <v>178</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="86.25" customHeight="1">
-      <c r="A89" s="45"/>
+    <row r="89" spans="1:4" ht="86.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="66"/>
       <c r="B89" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="C89" s="49" t="s">
+      <c r="C89" s="61" t="s">
         <v>189</v>
       </c>
-      <c r="D89" s="50"/>
-    </row>
-    <row r="90" spans="1:4" ht="33">
-      <c r="A90" s="45"/>
+      <c r="D89" s="47"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="66"/>
       <c r="B90" s="48"/>
       <c r="C90" s="8" t="s">
         <v>181</v>
@@ -4328,8 +4787,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="45"/>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="66"/>
       <c r="B91" s="48"/>
       <c r="C91" s="9" t="s">
         <v>183</v>
@@ -4338,8 +4797,8 @@
         <v>184</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="45"/>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="66"/>
       <c r="B92" s="48"/>
       <c r="C92" s="9" t="s">
         <v>185</v>
@@ -4348,8 +4807,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="45"/>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="66"/>
       <c r="B93" s="48"/>
       <c r="C93" s="9" t="s">
         <v>187</v>
@@ -4358,8 +4817,8 @@
         <v>188</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="45"/>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="66"/>
       <c r="B94" s="48" t="s">
         <v>190</v>
       </c>
@@ -4368,31 +4827,31 @@
         <v>192</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A95" s="46"/>
-      <c r="B95" s="65" t="s">
+    <row r="95" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="67"/>
+      <c r="B95" s="58" t="s">
         <v>191</v>
       </c>
-      <c r="C95" s="65"/>
+      <c r="C95" s="58"/>
       <c r="D95" s="25" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="38" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="69" t="s">
         <v>264</v>
       </c>
-      <c r="B96" s="62" t="s">
+      <c r="B96" s="51" t="s">
         <v>207</v>
       </c>
-      <c r="C96" s="60" t="s">
+      <c r="C96" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="D96" s="61"/>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="39"/>
-      <c r="B97" s="35"/>
+      <c r="D96" s="50"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="70"/>
+      <c r="B97" s="45"/>
       <c r="C97" s="2" t="s">
         <v>208</v>
       </c>
@@ -4400,9 +4859,9 @@
         <v>199</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="132">
-      <c r="A98" s="39"/>
-      <c r="B98" s="36"/>
+    <row r="98" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+      <c r="A98" s="70"/>
+      <c r="B98" s="43"/>
       <c r="C98" s="4" t="s">
         <v>200</v>
       </c>
@@ -4410,9 +4869,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="33">
-      <c r="A99" s="39"/>
-      <c r="B99" s="34" t="s">
+    <row r="99" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A99" s="70"/>
+      <c r="B99" s="42" t="s">
         <v>223</v>
       </c>
       <c r="C99" s="5" t="s">
@@ -4422,9 +4881,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="66">
-      <c r="A100" s="39"/>
-      <c r="B100" s="35"/>
+    <row r="100" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A100" s="70"/>
+      <c r="B100" s="45"/>
       <c r="C100" s="5" t="s">
         <v>213</v>
       </c>
@@ -4432,9 +4891,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="33">
-      <c r="A101" s="39"/>
-      <c r="B101" s="35"/>
+    <row r="101" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A101" s="70"/>
+      <c r="B101" s="45"/>
       <c r="C101" s="2" t="s">
         <v>214</v>
       </c>
@@ -4442,9 +4901,9 @@
         <v>215</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="82.5">
-      <c r="A102" s="39"/>
-      <c r="B102" s="35"/>
+    <row r="102" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A102" s="70"/>
+      <c r="B102" s="45"/>
       <c r="C102" s="2" t="s">
         <v>216</v>
       </c>
@@ -4452,9 +4911,9 @@
         <v>217</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="82.5">
-      <c r="A103" s="39"/>
-      <c r="B103" s="35"/>
+    <row r="103" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A103" s="70"/>
+      <c r="B103" s="45"/>
       <c r="C103" t="s">
         <v>218</v>
       </c>
@@ -4462,9 +4921,9 @@
         <v>219</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="39"/>
-      <c r="B104" s="35"/>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="70"/>
+      <c r="B104" s="45"/>
       <c r="C104" s="24" t="s">
         <v>220</v>
       </c>
@@ -4472,9 +4931,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="83.25" thickBot="1">
-      <c r="A105" s="40"/>
-      <c r="B105" s="43"/>
+    <row r="105" spans="1:4" ht="83.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="71"/>
+      <c r="B105" s="72"/>
       <c r="C105" s="26" t="s">
         <v>224</v>
       </c>
@@ -4482,11 +4941,11 @@
         <v>222</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="33">
-      <c r="A106" s="38" t="s">
+    <row r="106" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A106" s="69" t="s">
         <v>269</v>
       </c>
-      <c r="B106" s="42" t="s">
+      <c r="B106" s="76" t="s">
         <v>234</v>
       </c>
       <c r="C106" s="27" t="s">
@@ -4496,9 +4955,9 @@
         <v>233</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="33">
-      <c r="A107" s="39"/>
-      <c r="B107" s="35"/>
+    <row r="107" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A107" s="70"/>
+      <c r="B107" s="45"/>
       <c r="C107" s="2" t="s">
         <v>226</v>
       </c>
@@ -4506,9 +4965,9 @@
         <v>232</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="33">
-      <c r="A108" s="39"/>
-      <c r="B108" s="35"/>
+    <row r="108" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A108" s="70"/>
+      <c r="B108" s="45"/>
       <c r="C108" s="2" t="s">
         <v>227</v>
       </c>
@@ -4516,9 +4975,9 @@
         <v>231</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="39"/>
-      <c r="B109" s="35"/>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="70"/>
+      <c r="B109" s="45"/>
       <c r="C109" s="2" t="s">
         <v>230</v>
       </c>
@@ -4526,9 +4985,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="66">
-      <c r="A110" s="39"/>
-      <c r="B110" s="36"/>
+    <row r="110" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A110" s="70"/>
+      <c r="B110" s="43"/>
       <c r="C110" s="2" t="s">
         <v>228</v>
       </c>
@@ -4536,9 +4995,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="33">
-      <c r="A111" s="39"/>
-      <c r="B111" s="34" t="s">
+    <row r="111" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A111" s="70"/>
+      <c r="B111" s="42" t="s">
         <v>245</v>
       </c>
       <c r="C111" s="2" t="s">
@@ -4548,9 +5007,9 @@
         <v>240</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="33" customHeight="1">
-      <c r="A112" s="39"/>
-      <c r="B112" s="35"/>
+    <row r="112" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="70"/>
+      <c r="B112" s="45"/>
       <c r="C112" s="2" t="s">
         <v>236</v>
       </c>
@@ -4558,9 +5017,9 @@
         <v>241</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="33">
-      <c r="A113" s="39"/>
-      <c r="B113" s="35"/>
+    <row r="113" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A113" s="70"/>
+      <c r="B113" s="45"/>
       <c r="C113" s="2" t="s">
         <v>237</v>
       </c>
@@ -4568,9 +5027,9 @@
         <v>242</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="39"/>
-      <c r="B114" s="35"/>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="70"/>
+      <c r="B114" s="45"/>
       <c r="C114" s="2" t="s">
         <v>238</v>
       </c>
@@ -4578,9 +5037,9 @@
         <v>243</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="66">
-      <c r="A115" s="39"/>
-      <c r="B115" s="36"/>
+    <row r="115" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A115" s="70"/>
+      <c r="B115" s="43"/>
       <c r="C115" s="2" t="s">
         <v>239</v>
       </c>
@@ -4588,9 +5047,9 @@
         <v>244</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="33">
-      <c r="A116" s="39"/>
-      <c r="B116" s="34" t="s">
+    <row r="116" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A116" s="70"/>
+      <c r="B116" s="42" t="s">
         <v>246</v>
       </c>
       <c r="C116" s="5" t="s">
@@ -4600,9 +5059,9 @@
         <v>249</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="33">
-      <c r="A117" s="39"/>
-      <c r="B117" s="35"/>
+    <row r="117" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A117" s="70"/>
+      <c r="B117" s="45"/>
       <c r="C117" s="5" t="s">
         <v>248</v>
       </c>
@@ -4610,9 +5069,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="49.5">
-      <c r="A118" s="39"/>
-      <c r="B118" s="35"/>
+    <row r="118" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A118" s="70"/>
+      <c r="B118" s="45"/>
       <c r="C118" s="2" t="s">
         <v>251</v>
       </c>
@@ -4620,9 +5079,9 @@
         <v>253</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="132">
-      <c r="A119" s="39"/>
-      <c r="B119" s="36"/>
+    <row r="119" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+      <c r="A119" s="70"/>
+      <c r="B119" s="43"/>
       <c r="C119" s="2" t="s">
         <v>252</v>
       </c>
@@ -4630,9 +5089,9 @@
         <v>254</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="99">
-      <c r="A120" s="39"/>
-      <c r="B120" s="34" t="s">
+    <row r="120" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A120" s="70"/>
+      <c r="B120" s="42" t="s">
         <v>255</v>
       </c>
       <c r="C120" s="2" t="s">
@@ -4642,9 +5101,9 @@
         <v>257</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="49.5">
-      <c r="A121" s="39"/>
-      <c r="B121" s="35"/>
+    <row r="121" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A121" s="70"/>
+      <c r="B121" s="45"/>
       <c r="C121" s="2" t="s">
         <v>258</v>
       </c>
@@ -4652,9 +5111,9 @@
         <v>259</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="39"/>
-      <c r="B122" s="35"/>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="70"/>
+      <c r="B122" s="45"/>
       <c r="C122" s="2" t="s">
         <v>260</v>
       </c>
@@ -4662,9 +5121,9 @@
         <v>261</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="165.75" thickBot="1">
-      <c r="A123" s="40"/>
-      <c r="B123" s="43"/>
+    <row r="123" spans="1:4" ht="165.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="71"/>
+      <c r="B123" s="72"/>
       <c r="C123" s="30" t="s">
         <v>262</v>
       </c>
@@ -4672,21 +5131,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="49.5" customHeight="1">
-      <c r="A124" s="38" t="s">
+    <row r="124" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="69" t="s">
         <v>270</v>
       </c>
-      <c r="B124" s="42" t="s">
+      <c r="B124" s="76" t="s">
         <v>268</v>
       </c>
-      <c r="C124" s="41" t="s">
+      <c r="C124" s="75" t="s">
         <v>265</v>
       </c>
-      <c r="D124" s="61"/>
-    </row>
-    <row r="125" spans="1:4" ht="99">
-      <c r="A125" s="71"/>
-      <c r="B125" s="36"/>
+      <c r="D124" s="50"/>
+    </row>
+    <row r="125" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="A125" s="78"/>
+      <c r="B125" s="43"/>
       <c r="C125" s="5" t="s">
         <v>266</v>
       </c>
@@ -4694,19 +5153,19 @@
         <v>267</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="71"/>
-      <c r="B126" s="34" t="s">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="78"/>
+      <c r="B126" s="42" t="s">
         <v>271</v>
       </c>
-      <c r="C126" s="33" t="s">
+      <c r="C126" s="44" t="s">
         <v>272</v>
       </c>
-      <c r="D126" s="72"/>
-    </row>
-    <row r="127" spans="1:4" ht="33">
-      <c r="A127" s="71"/>
-      <c r="B127" s="36"/>
+      <c r="D126" s="37"/>
+    </row>
+    <row r="127" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A127" s="78"/>
+      <c r="B127" s="43"/>
       <c r="C127" s="5" t="s">
         <v>276</v>
       </c>
@@ -4714,19 +5173,19 @@
         <v>273</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="71"/>
-      <c r="B128" s="34" t="s">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="78"/>
+      <c r="B128" s="42" t="s">
         <v>274</v>
       </c>
-      <c r="C128" s="33" t="s">
+      <c r="C128" s="44" t="s">
         <v>275</v>
       </c>
-      <c r="D128" s="72"/>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="71"/>
-      <c r="B129" s="36"/>
+      <c r="D128" s="37"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="78"/>
+      <c r="B129" s="43"/>
       <c r="C129" s="2" t="s">
         <v>277</v>
       </c>
@@ -4734,19 +5193,19 @@
         <v>278</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="33" customHeight="1">
-      <c r="A130" s="71"/>
-      <c r="B130" s="34" t="s">
+    <row r="130" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="78"/>
+      <c r="B130" s="42" t="s">
         <v>279</v>
       </c>
-      <c r="C130" s="37" t="s">
+      <c r="C130" s="36" t="s">
         <v>284</v>
       </c>
-      <c r="D130" s="72"/>
-    </row>
-    <row r="131" spans="1:4" ht="82.5">
-      <c r="A131" s="71"/>
-      <c r="B131" s="35"/>
+      <c r="D130" s="37"/>
+    </row>
+    <row r="131" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A131" s="78"/>
+      <c r="B131" s="45"/>
       <c r="C131" s="31" t="s">
         <v>280</v>
       </c>
@@ -4754,9 +5213,9 @@
         <v>286</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="82.5">
-      <c r="A132" s="71"/>
-      <c r="B132" s="35"/>
+    <row r="132" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A132" s="78"/>
+      <c r="B132" s="45"/>
       <c r="C132" s="32" t="s">
         <v>281</v>
       </c>
@@ -4764,17 +5223,17 @@
         <v>285</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="71"/>
-      <c r="B133" s="36"/>
-      <c r="C133" s="33" t="s">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="78"/>
+      <c r="B133" s="43"/>
+      <c r="C133" s="44" t="s">
         <v>282</v>
       </c>
-      <c r="D133" s="72"/>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="71"/>
-      <c r="B134" s="34" t="s">
+      <c r="D133" s="37"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="78"/>
+      <c r="B134" s="42" t="s">
         <v>287</v>
       </c>
       <c r="C134" s="2" t="s">
@@ -4784,9 +5243,9 @@
         <v>289</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="71"/>
-      <c r="B135" s="35"/>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="78"/>
+      <c r="B135" s="45"/>
       <c r="C135" s="2" t="s">
         <v>290</v>
       </c>
@@ -4794,9 +5253,9 @@
         <v>291</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="71"/>
-      <c r="B136" s="36"/>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="78"/>
+      <c r="B136" s="43"/>
       <c r="C136" s="2" t="s">
         <v>292</v>
       </c>
@@ -4804,9 +5263,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="71"/>
-      <c r="B137" s="34" t="s">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="78"/>
+      <c r="B137" s="42" t="s">
         <v>294</v>
       </c>
       <c r="C137" s="2" t="s">
@@ -4816,9 +5275,9 @@
         <v>306</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="71"/>
-      <c r="B138" s="35"/>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="78"/>
+      <c r="B138" s="45"/>
       <c r="C138" s="2" t="s">
         <v>295</v>
       </c>
@@ -4826,9 +5285,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="71"/>
-      <c r="B139" s="35"/>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="78"/>
+      <c r="B139" s="45"/>
       <c r="C139" s="2" t="s">
         <v>297</v>
       </c>
@@ -4836,9 +5295,9 @@
         <v>298</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="71"/>
-      <c r="B140" s="35"/>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="78"/>
+      <c r="B140" s="45"/>
       <c r="C140" s="2" t="s">
         <v>299</v>
       </c>
@@ -4846,9 +5305,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="71"/>
-      <c r="B141" s="36"/>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="78"/>
+      <c r="B141" s="43"/>
       <c r="C141" s="2" t="s">
         <v>301</v>
       </c>
@@ -4856,29 +5315,29 @@
         <v>302</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="71"/>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="78"/>
       <c r="B142" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C142" s="33" t="s">
+      <c r="C142" s="44" t="s">
         <v>304</v>
       </c>
-      <c r="D142" s="72"/>
-    </row>
-    <row r="143" spans="1:4" ht="33" customHeight="1">
-      <c r="A143" s="71"/>
-      <c r="B143" s="67" t="s">
+      <c r="D142" s="37"/>
+    </row>
+    <row r="143" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="78"/>
+      <c r="B143" s="38" t="s">
         <v>309</v>
       </c>
-      <c r="C143" s="37" t="s">
+      <c r="C143" s="36" t="s">
         <v>310</v>
       </c>
-      <c r="D143" s="73"/>
-    </row>
-    <row r="144" spans="1:4" ht="33">
-      <c r="A144" s="71"/>
-      <c r="B144" s="68"/>
+      <c r="D143" s="77"/>
+    </row>
+    <row r="144" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A144" s="78"/>
+      <c r="B144" s="39"/>
       <c r="C144" s="2" t="s">
         <v>307</v>
       </c>
@@ -4886,9 +5345,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="49.5">
-      <c r="A145" s="71"/>
-      <c r="B145" s="69"/>
+    <row r="145" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A145" s="78"/>
+      <c r="B145" s="40"/>
       <c r="C145" s="2" t="s">
         <v>308</v>
       </c>
@@ -4896,8 +5355,8 @@
         <v>314</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="66.75" thickBot="1">
-      <c r="A146" s="74"/>
+    <row r="146" spans="1:4" ht="66.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="79"/>
       <c r="B146" s="23" t="s">
         <v>311</v>
       </c>
@@ -4908,22 +5367,325 @@
         <v>315</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="70" t="s">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" s="69" t="s">
+        <v>349</v>
+      </c>
+      <c r="B147" s="51" t="s">
         <v>316</v>
       </c>
-      <c r="B147" s="70"/>
-      <c r="C147" s="70"/>
-      <c r="D147" s="70"/>
+      <c r="C147" s="73" t="s">
+        <v>319</v>
+      </c>
+      <c r="D147" s="74"/>
+    </row>
+    <row r="148" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A148" s="70"/>
+      <c r="B148" s="45"/>
+      <c r="C148" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="D148" s="16" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A149" s="70"/>
+      <c r="B149" s="43"/>
+      <c r="C149" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D149" s="16" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" s="70"/>
+      <c r="B150" s="42" t="s">
+        <v>323</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D150" s="15" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A151" s="70"/>
+      <c r="B151" s="43"/>
+      <c r="C151" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D151" s="16" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="70"/>
+      <c r="B152" s="38" t="s">
+        <v>326</v>
+      </c>
+      <c r="C152" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="D152" s="37"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" s="70"/>
+      <c r="B153" s="39"/>
+      <c r="C153" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D153" s="15" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" s="70"/>
+      <c r="B154" s="40"/>
+      <c r="C154" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D154" s="15" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" s="70"/>
+      <c r="B155" s="42" t="s">
+        <v>332</v>
+      </c>
+      <c r="C155" s="44" t="s">
+        <v>333</v>
+      </c>
+      <c r="D155" s="37"/>
+    </row>
+    <row r="156" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A156" s="70"/>
+      <c r="B156" s="43"/>
+      <c r="C156" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D156" s="16" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="70"/>
+      <c r="B157" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="C157" s="36" t="s">
+        <v>346</v>
+      </c>
+      <c r="D157" s="37"/>
+    </row>
+    <row r="158" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="70"/>
+      <c r="B158" s="39"/>
+      <c r="C158" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D158" s="15" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" s="70"/>
+      <c r="B159" s="39"/>
+      <c r="C159" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D159" s="15" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" s="70"/>
+      <c r="B160" s="39"/>
+      <c r="C160" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D160" s="15" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" s="70"/>
+      <c r="B161" s="40"/>
+      <c r="C161" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D161" s="15" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="71"/>
+      <c r="B162" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="C162" s="80" t="s">
+        <v>348</v>
+      </c>
+      <c r="D162" s="81"/>
+    </row>
+    <row r="163" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="B163" s="51" t="s">
+        <v>351</v>
+      </c>
+      <c r="C163" s="73" t="s">
+        <v>353</v>
+      </c>
+      <c r="D163" s="82"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B164" s="45"/>
+      <c r="C164" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D164" s="15" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B165" s="45"/>
+      <c r="C165" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D165" s="15" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B166" s="43"/>
+      <c r="C166" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D166" s="16" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B167" s="42" t="s">
+        <v>363</v>
+      </c>
+      <c r="C167" s="83" t="s">
+        <v>359</v>
+      </c>
+      <c r="D167" s="41"/>
+    </row>
+    <row r="168" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B168" s="45"/>
+      <c r="C168" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D168" s="16" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B169" s="45"/>
+      <c r="C169" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="D169" s="16" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="B170" s="43"/>
+      <c r="C170" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="D170" s="16" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B171" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C171" s="83" t="s">
+        <v>367</v>
+      </c>
+      <c r="D171" s="41"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B172" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D172" s="15" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C173" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D173" s="15" t="s">
+        <v>373</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="64">
+  <mergeCells count="80">
+    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="A147:A162"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="B163:B166"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="B167:B170"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="B147:B149"/>
+    <mergeCell ref="A106:A123"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="B106:B110"/>
+    <mergeCell ref="B111:B115"/>
+    <mergeCell ref="B116:B119"/>
+    <mergeCell ref="B120:B123"/>
     <mergeCell ref="B143:B145"/>
     <mergeCell ref="C143:D143"/>
     <mergeCell ref="A124:A146"/>
     <mergeCell ref="B134:B136"/>
     <mergeCell ref="C142:D142"/>
     <mergeCell ref="B137:B141"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="A96:A105"/>
+    <mergeCell ref="B99:B105"/>
+    <mergeCell ref="A71:A95"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="A14:A70"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="B62:B67"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B31:B38"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="B19:B24"/>
     <mergeCell ref="C96:D96"/>
@@ -4940,48 +5702,20 @@
     <mergeCell ref="C89:D89"/>
     <mergeCell ref="B89:B93"/>
     <mergeCell ref="B94:C94"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="A14:A70"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="B62:B67"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B31:B38"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A96:A105"/>
-    <mergeCell ref="B99:B105"/>
-    <mergeCell ref="A71:A95"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="A106:A123"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="B106:B110"/>
-    <mergeCell ref="B111:B115"/>
-    <mergeCell ref="B116:B119"/>
-    <mergeCell ref="B120:B123"/>
-    <mergeCell ref="C133:D133"/>
     <mergeCell ref="B130:B133"/>
     <mergeCell ref="C126:D126"/>
     <mergeCell ref="C128:D128"/>
     <mergeCell ref="B126:B127"/>
     <mergeCell ref="B128:B129"/>
     <mergeCell ref="C130:D130"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="B157:B161"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="B152:B154"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="B155:B156"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/언리얼 요약본.xlsx
+++ b/언리얼 요약본.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yelim\Documents\GitHub\Study_Unreal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CD96CE-1B75-4D22-9643-BF6367B0DF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362E076E-F594-4348-A1C9-90B29CC12B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="37710" windowHeight="21705" xr2:uid="{CEA47E12-18E0-4701-A6C4-D2FB2DC55C50}"/>
+    <workbookView xWindow="11100" yWindow="660" windowWidth="36045" windowHeight="20400" xr2:uid="{CEA47E12-18E0-4701-A6C4-D2FB2DC55C50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2641,36 +2641,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">OnAttackMontageEnded 델리게이트는 블루프린트와 호환되는 성질 외에도 여러 개의 함수를 받을 수 있어서 행동이 끝나면 등록된 모든 함수들에게 모두 알려주는 기능도 제공함. 이러한 델리게이트를 멀티캐스트 델리게이트라고 함.
-애님 인스턴스 헤더에 선언된 OnMontageEnded가 사용하는 델리게이트를 정의한 코드는 다음과 같다. 언리얼 엔진에서 델리게이트의 선언은 언리얼이 제공하는 매크로를 통해 정의되먀, 이렇게 정의된 델리게이트의 형식을 시그니처(Signature)라고 함.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">DELEGATE_DYNAMIC_MULTICAST_DELEGATE_TwoParams(FOnMontageEndedMCDelegate, UAnimMontage*, Montage, bool, bInterrupted);
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이렇게 두가지 기능이 있는 OnMontageEnded 델리게이트는 '다이내믹 멀티캐스트 델리게이트'라고 할수 있다.</t>
-    </r>
-  </si>
-  <si>
     <t>애니메이션 노티파이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2734,12 +2704,43 @@
     <t>비동기 방식으로 신호 받음. 주로 타이밍에 민감하지 않은 사운드나 이펙트를 발생시킬때 사용 권장.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OnAttackMontageEnded 델리게이트는 블루프린트와 호환되는 성질 외에도 여러 개의 함수를 받을 수 있어서 행동이 끝나면 등록된 모든 함수들에게 모두 알려주는 기능도 제공함. 이러한 델리게이트를 멀티캐스트 델리게이트라고 함.
+애님 인스턴스 헤더에 선언된 OnMontageEnded가 사용하는 델리게이트를 정의한 코드는 다음과 같다. 언리얼 엔진에서 델리게이트의 선언은 언리얼이 제공하는 매크로를 통해 정의되며, 이렇게 정의된 델리게이트의 형식을 시그니처(Signature)라고 함.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DELEGATE_DYNAMIC_MULTICAST_DELEGATE_TwoParams(FOnMontageEndedMCDelegate, UAnimMontage*, Montage, bool, bInterrupted);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이렇게 두가지 기능이 있는 OnMontageEnded 델리게이트는 '다이내믹 멀티캐스트 델리게이트'라고 할수 있다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3387,6 +3388,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3402,133 +3439,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3847,11 +3848,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77C2A88-FEC8-45F4-8595-5DB014046BF1}">
   <dimension ref="A1:D173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C171" sqref="C171:D171"/>
+    <sheetView tabSelected="1" topLeftCell="A168" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D179" sqref="D179"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="34"/>
     <col min="2" max="2" width="23" style="2" bestFit="1" customWidth="1"/>
@@ -3859,7 +3860,7 @@
     <col min="4" max="4" width="110.375" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="17.25" thickBot="1">
       <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
@@ -3873,11 +3874,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="16.5" customHeight="1">
       <c r="A2" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="74" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -3887,9 +3888,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="63"/>
-      <c r="B3" s="48"/>
+    <row r="3" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A3" s="69"/>
+      <c r="B3" s="66"/>
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
@@ -3897,9 +3898,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="63"/>
-      <c r="B4" s="48"/>
+    <row r="4" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A4" s="69"/>
+      <c r="B4" s="66"/>
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
@@ -3907,9 +3908,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="63"/>
-      <c r="B5" s="48"/>
+    <row r="5" spans="1:4" ht="33">
+      <c r="A5" s="69"/>
+      <c r="B5" s="66"/>
       <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
@@ -3917,9 +3918,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="63"/>
-      <c r="B6" s="48"/>
+    <row r="6" spans="1:4">
+      <c r="A6" s="69"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
@@ -3927,9 +3928,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="63"/>
-      <c r="B7" s="48"/>
+    <row r="7" spans="1:4" ht="33">
+      <c r="A7" s="69"/>
+      <c r="B7" s="66"/>
       <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
@@ -3937,9 +3938,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="66" x14ac:dyDescent="0.3">
-      <c r="A8" s="63"/>
-      <c r="B8" s="48"/>
+    <row r="8" spans="1:4" ht="66">
+      <c r="A8" s="69"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="2" t="s">
         <v>62</v>
       </c>
@@ -3947,9 +3948,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="63"/>
-      <c r="B9" s="52" t="s">
+    <row r="9" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A9" s="69"/>
+      <c r="B9" s="65" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -3959,9 +3960,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="63"/>
-      <c r="B10" s="52"/>
+    <row r="10" spans="1:4">
+      <c r="A10" s="69"/>
+      <c r="B10" s="65"/>
       <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
@@ -3969,9 +3970,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="63"/>
-      <c r="B11" s="52"/>
+    <row r="11" spans="1:4">
+      <c r="A11" s="69"/>
+      <c r="B11" s="65"/>
       <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
@@ -3979,9 +3980,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="63"/>
-      <c r="B12" s="52"/>
+    <row r="12" spans="1:4">
+      <c r="A12" s="69"/>
+      <c r="B12" s="65"/>
       <c r="C12" s="4" t="s">
         <v>22</v>
       </c>
@@ -3989,9 +3990,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="64"/>
-      <c r="B13" s="53"/>
+    <row r="13" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A13" s="70"/>
+      <c r="B13" s="77"/>
       <c r="C13" s="17" t="s">
         <v>21</v>
       </c>
@@ -3999,21 +4000,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="49.5" customHeight="1">
       <c r="A14" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="56"/>
-    </row>
-    <row r="15" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A15" s="66"/>
-      <c r="B15" s="48"/>
+      <c r="D14" s="72"/>
+    </row>
+    <row r="15" spans="1:4" ht="33">
+      <c r="A15" s="63"/>
+      <c r="B15" s="66"/>
       <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
@@ -4021,9 +4022,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A16" s="66"/>
-      <c r="B16" s="48"/>
+    <row r="16" spans="1:4" ht="33">
+      <c r="A16" s="63"/>
+      <c r="B16" s="66"/>
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
@@ -4031,9 +4032,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A17" s="66"/>
-      <c r="B17" s="48"/>
+    <row r="17" spans="1:4" ht="33">
+      <c r="A17" s="63"/>
+      <c r="B17" s="66"/>
       <c r="C17" s="2" t="s">
         <v>31</v>
       </c>
@@ -4041,9 +4042,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A18" s="66"/>
-      <c r="B18" s="48"/>
+    <row r="18" spans="1:4" ht="33">
+      <c r="A18" s="63"/>
+      <c r="B18" s="66"/>
       <c r="C18" s="2" t="s">
         <v>32</v>
       </c>
@@ -4051,19 +4052,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="66"/>
-      <c r="B19" s="48" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" s="63"/>
+      <c r="B19" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="47"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="66"/>
-      <c r="B20" s="48"/>
+      <c r="D19" s="68"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="63"/>
+      <c r="B20" s="66"/>
       <c r="C20" s="2" t="s">
         <v>40</v>
       </c>
@@ -4071,9 +4072,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="66"/>
-      <c r="B21" s="48"/>
+    <row r="21" spans="1:4">
+      <c r="A21" s="63"/>
+      <c r="B21" s="66"/>
       <c r="C21" s="2" t="s">
         <v>41</v>
       </c>
@@ -4081,9 +4082,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="66"/>
-      <c r="B22" s="48"/>
+    <row r="22" spans="1:4">
+      <c r="A22" s="63"/>
+      <c r="B22" s="66"/>
       <c r="C22" s="2" t="s">
         <v>42</v>
       </c>
@@ -4091,9 +4092,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="48"/>
+    <row r="23" spans="1:4" ht="33">
+      <c r="A23" s="63"/>
+      <c r="B23" s="66"/>
       <c r="C23" s="2" t="s">
         <v>43</v>
       </c>
@@ -4101,9 +4102,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="48"/>
+    <row r="24" spans="1:4" ht="33">
+      <c r="A24" s="63"/>
+      <c r="B24" s="66"/>
       <c r="C24" s="2" t="s">
         <v>44</v>
       </c>
@@ -4111,29 +4112,29 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="66"/>
+    <row r="25" spans="1:4" ht="50.25" customHeight="1">
+      <c r="A25" s="63"/>
       <c r="B25" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="47"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="66"/>
-      <c r="B26" s="48" t="s">
+      <c r="D25" s="68"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="63"/>
+      <c r="B26" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="47"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="66"/>
-      <c r="B27" s="48"/>
+      <c r="D26" s="68"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="63"/>
+      <c r="B27" s="66"/>
       <c r="C27" s="2" t="s">
         <v>52</v>
       </c>
@@ -4141,9 +4142,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="66"/>
-      <c r="B28" s="48"/>
+    <row r="28" spans="1:4">
+      <c r="A28" s="63"/>
+      <c r="B28" s="66"/>
       <c r="C28" s="2" t="s">
         <v>53</v>
       </c>
@@ -4151,9 +4152,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="66"/>
-      <c r="B29" s="48"/>
+    <row r="29" spans="1:4">
+      <c r="A29" s="63"/>
+      <c r="B29" s="66"/>
       <c r="C29" s="2" t="s">
         <v>54</v>
       </c>
@@ -4161,9 +4162,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A30" s="66"/>
-      <c r="B30" s="48"/>
+    <row r="30" spans="1:4" ht="33">
+      <c r="A30" s="63"/>
+      <c r="B30" s="66"/>
       <c r="C30" s="5" t="s">
         <v>78</v>
       </c>
@@ -4171,9 +4172,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A31" s="66"/>
-      <c r="B31" s="52" t="s">
+    <row r="31" spans="1:4" ht="33">
+      <c r="A31" s="63"/>
+      <c r="B31" s="65" t="s">
         <v>59</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -4183,9 +4184,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A32" s="66"/>
-      <c r="B32" s="48"/>
+    <row r="32" spans="1:4" ht="33">
+      <c r="A32" s="63"/>
+      <c r="B32" s="66"/>
       <c r="C32" s="5" t="s">
         <v>61</v>
       </c>
@@ -4193,9 +4194,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A33" s="66"/>
-      <c r="B33" s="48"/>
+    <row r="33" spans="1:4" ht="33">
+      <c r="A33" s="63"/>
+      <c r="B33" s="66"/>
       <c r="C33" s="5" t="s">
         <v>63</v>
       </c>
@@ -4203,9 +4204,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A34" s="66"/>
-      <c r="B34" s="48"/>
+    <row r="34" spans="1:4" ht="33">
+      <c r="A34" s="63"/>
+      <c r="B34" s="66"/>
       <c r="C34" s="5" t="s">
         <v>64</v>
       </c>
@@ -4213,9 +4214,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A35" s="66"/>
-      <c r="B35" s="48"/>
+    <row r="35" spans="1:4" ht="33">
+      <c r="A35" s="63"/>
+      <c r="B35" s="66"/>
       <c r="C35" s="5" t="s">
         <v>65</v>
       </c>
@@ -4223,9 +4224,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A36" s="66"/>
-      <c r="B36" s="48"/>
+    <row r="36" spans="1:4" ht="33">
+      <c r="A36" s="63"/>
+      <c r="B36" s="66"/>
       <c r="C36" s="5" t="s">
         <v>66</v>
       </c>
@@ -4233,9 +4234,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A37" s="66"/>
-      <c r="B37" s="48"/>
+    <row r="37" spans="1:4" ht="33">
+      <c r="A37" s="63"/>
+      <c r="B37" s="66"/>
       <c r="C37" s="5" t="s">
         <v>67</v>
       </c>
@@ -4243,9 +4244,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A38" s="66"/>
-      <c r="B38" s="48"/>
+    <row r="38" spans="1:4" ht="33">
+      <c r="A38" s="63"/>
+      <c r="B38" s="66"/>
       <c r="C38" s="5" t="s">
         <v>68</v>
       </c>
@@ -4253,19 +4254,19 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="66"/>
+    <row r="39" spans="1:4" ht="82.5" customHeight="1">
+      <c r="A39" s="63"/>
       <c r="B39" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="59" t="s">
+      <c r="C39" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="60"/>
-    </row>
-    <row r="40" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A40" s="66"/>
-      <c r="B40" s="52" t="s">
+      <c r="D39" s="80"/>
+    </row>
+    <row r="40" spans="1:4" ht="33">
+      <c r="A40" s="63"/>
+      <c r="B40" s="65" t="s">
         <v>82</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -4275,9 +4276,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A41" s="66"/>
-      <c r="B41" s="48"/>
+    <row r="41" spans="1:4" ht="33">
+      <c r="A41" s="63"/>
+      <c r="B41" s="66"/>
       <c r="C41" s="5" t="s">
         <v>84</v>
       </c>
@@ -4285,9 +4286,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A42" s="66"/>
-      <c r="B42" s="48"/>
+    <row r="42" spans="1:4" ht="33">
+      <c r="A42" s="63"/>
+      <c r="B42" s="66"/>
       <c r="C42" s="5" t="s">
         <v>85</v>
       </c>
@@ -4295,9 +4296,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="66"/>
-      <c r="B43" s="48"/>
+    <row r="43" spans="1:4" ht="49.5">
+      <c r="A43" s="63"/>
+      <c r="B43" s="66"/>
       <c r="C43" s="5" t="s">
         <v>86</v>
       </c>
@@ -4305,19 +4306,19 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="66"/>
-      <c r="B44" s="48" t="s">
+    <row r="44" spans="1:4" ht="49.5">
+      <c r="A44" s="63"/>
+      <c r="B44" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="48"/>
+      <c r="C44" s="66"/>
       <c r="D44" s="21" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="66"/>
-      <c r="B45" s="52" t="s">
+    <row r="45" spans="1:4">
+      <c r="A45" s="63"/>
+      <c r="B45" s="65" t="s">
         <v>101</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -4327,9 +4328,9 @@
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="66"/>
-      <c r="B46" s="52"/>
+    <row r="46" spans="1:4">
+      <c r="A46" s="63"/>
+      <c r="B46" s="65"/>
       <c r="C46" s="7" t="s">
         <v>93</v>
       </c>
@@ -4337,9 +4338,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="66" x14ac:dyDescent="0.3">
-      <c r="A47" s="66"/>
-      <c r="B47" s="52"/>
+    <row r="47" spans="1:4" ht="66">
+      <c r="A47" s="63"/>
+      <c r="B47" s="65"/>
       <c r="C47" s="6" t="s">
         <v>90</v>
       </c>
@@ -4347,9 +4348,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="66"/>
-      <c r="B48" s="52"/>
+    <row r="48" spans="1:4">
+      <c r="A48" s="63"/>
+      <c r="B48" s="65"/>
       <c r="C48" s="6" t="s">
         <v>94</v>
       </c>
@@ -4357,9 +4358,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="66"/>
-      <c r="B49" s="52"/>
+    <row r="49" spans="1:4">
+      <c r="A49" s="63"/>
+      <c r="B49" s="65"/>
       <c r="C49" s="6" t="s">
         <v>95</v>
       </c>
@@ -4367,9 +4368,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="66"/>
-      <c r="B50" s="52"/>
+    <row r="50" spans="1:4">
+      <c r="A50" s="63"/>
+      <c r="B50" s="65"/>
       <c r="C50" s="6" t="s">
         <v>96</v>
       </c>
@@ -4377,9 +4378,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="66"/>
-      <c r="B51" s="52" t="s">
+    <row r="51" spans="1:4">
+      <c r="A51" s="63"/>
+      <c r="B51" s="65" t="s">
         <v>102</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -4389,9 +4390,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="66"/>
-      <c r="B52" s="52"/>
+    <row r="52" spans="1:4">
+      <c r="A52" s="63"/>
+      <c r="B52" s="65"/>
       <c r="C52" s="2" t="s">
         <v>103</v>
       </c>
@@ -4399,9 +4400,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="66"/>
-      <c r="B53" s="52"/>
+    <row r="53" spans="1:4">
+      <c r="A53" s="63"/>
+      <c r="B53" s="65"/>
       <c r="C53" s="2" t="s">
         <v>104</v>
       </c>
@@ -4409,9 +4410,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="66"/>
-      <c r="B54" s="52"/>
+    <row r="54" spans="1:4">
+      <c r="A54" s="63"/>
+      <c r="B54" s="65"/>
       <c r="C54" s="2" t="s">
         <v>105</v>
       </c>
@@ -4419,9 +4420,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="66"/>
-      <c r="B55" s="48" t="s">
+    <row r="55" spans="1:4">
+      <c r="A55" s="63"/>
+      <c r="B55" s="66" t="s">
         <v>110</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -4431,9 +4432,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A56" s="66"/>
-      <c r="B56" s="48"/>
+    <row r="56" spans="1:4" ht="49.5">
+      <c r="A56" s="63"/>
+      <c r="B56" s="66"/>
       <c r="C56" s="2" t="s">
         <v>113</v>
       </c>
@@ -4441,9 +4442,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="66"/>
-      <c r="B57" s="48"/>
+    <row r="57" spans="1:4">
+      <c r="A57" s="63"/>
+      <c r="B57" s="66"/>
       <c r="C57" s="2" t="s">
         <v>115</v>
       </c>
@@ -4451,9 +4452,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="66"/>
-      <c r="B58" s="48"/>
+    <row r="58" spans="1:4">
+      <c r="A58" s="63"/>
+      <c r="B58" s="66"/>
       <c r="C58" s="2" t="s">
         <v>117</v>
       </c>
@@ -4461,9 +4462,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="66"/>
-      <c r="B59" s="48"/>
+    <row r="59" spans="1:4">
+      <c r="A59" s="63"/>
+      <c r="B59" s="66"/>
       <c r="C59" s="2" t="s">
         <v>119</v>
       </c>
@@ -4471,39 +4472,39 @@
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A60" s="66"/>
-      <c r="B60" s="48" t="s">
+    <row r="60" spans="1:4" ht="33">
+      <c r="A60" s="63"/>
+      <c r="B60" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="C60" s="48"/>
+      <c r="C60" s="66"/>
       <c r="D60" s="16" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A61" s="66"/>
-      <c r="B61" s="48" t="s">
+    <row r="61" spans="1:4" ht="49.5">
+      <c r="A61" s="63"/>
+      <c r="B61" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="C61" s="48"/>
+      <c r="C61" s="66"/>
       <c r="D61" s="16" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="66"/>
-      <c r="B62" s="52" t="s">
+    <row r="62" spans="1:4" ht="48.75" customHeight="1">
+      <c r="A62" s="63"/>
+      <c r="B62" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="C62" s="61" t="s">
+      <c r="C62" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="D62" s="47"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="66"/>
-      <c r="B63" s="48"/>
+      <c r="D62" s="68"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="63"/>
+      <c r="B63" s="66"/>
       <c r="C63" s="2" t="s">
         <v>125</v>
       </c>
@@ -4511,9 +4512,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="66"/>
-      <c r="B64" s="48"/>
+    <row r="64" spans="1:4">
+      <c r="A64" s="63"/>
+      <c r="B64" s="66"/>
       <c r="C64" s="2" t="s">
         <v>126</v>
       </c>
@@ -4521,9 +4522,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="66"/>
-      <c r="B65" s="48"/>
+    <row r="65" spans="1:4">
+      <c r="A65" s="63"/>
+      <c r="B65" s="66"/>
       <c r="C65" s="2" t="s">
         <v>127</v>
       </c>
@@ -4531,9 +4532,9 @@
         <v>132</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="66"/>
-      <c r="B66" s="48"/>
+    <row r="66" spans="1:4">
+      <c r="A66" s="63"/>
+      <c r="B66" s="66"/>
       <c r="C66" s="2" t="s">
         <v>128</v>
       </c>
@@ -4541,9 +4542,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="66"/>
-      <c r="B67" s="48"/>
+    <row r="67" spans="1:4">
+      <c r="A67" s="63"/>
+      <c r="B67" s="66"/>
       <c r="C67" s="2" t="s">
         <v>129</v>
       </c>
@@ -4551,9 +4552,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="66"/>
-      <c r="B68" s="48" t="s">
+    <row r="68" spans="1:4">
+      <c r="A68" s="63"/>
+      <c r="B68" s="66" t="s">
         <v>140</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -4563,17 +4564,17 @@
         <v>139</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="66"/>
-      <c r="B69" s="48"/>
-      <c r="C69" s="59" t="s">
+    <row r="69" spans="1:4" ht="48.75" customHeight="1">
+      <c r="A69" s="63"/>
+      <c r="B69" s="66"/>
+      <c r="C69" s="75" t="s">
         <v>141</v>
       </c>
-      <c r="D69" s="68"/>
-    </row>
-    <row r="70" spans="1:4" ht="132.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="67"/>
-      <c r="B70" s="58"/>
+      <c r="D69" s="76"/>
+    </row>
+    <row r="70" spans="1:4" ht="132.75" thickBot="1">
+      <c r="A70" s="64"/>
+      <c r="B70" s="79"/>
       <c r="C70" s="23" t="s">
         <v>142</v>
       </c>
@@ -4581,21 +4582,21 @@
         <v>201</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="16.5" customHeight="1">
       <c r="A71" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="B71" s="57" t="s">
+      <c r="B71" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="C71" s="55" t="s">
+      <c r="C71" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="D71" s="56"/>
-    </row>
-    <row r="72" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A72" s="66"/>
-      <c r="B72" s="48"/>
+      <c r="D71" s="72"/>
+    </row>
+    <row r="72" spans="1:4" ht="33">
+      <c r="A72" s="63"/>
+      <c r="B72" s="66"/>
       <c r="C72" s="2" t="s">
         <v>148</v>
       </c>
@@ -4603,9 +4604,9 @@
         <v>194</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="66"/>
-      <c r="B73" s="48"/>
+    <row r="73" spans="1:4">
+      <c r="A73" s="63"/>
+      <c r="B73" s="66"/>
       <c r="C73" s="2" t="s">
         <v>149</v>
       </c>
@@ -4613,9 +4614,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A74" s="66"/>
-      <c r="B74" s="48"/>
+    <row r="74" spans="1:4" ht="49.5">
+      <c r="A74" s="63"/>
+      <c r="B74" s="66"/>
       <c r="C74" s="2" t="s">
         <v>151</v>
       </c>
@@ -4623,69 +4624,69 @@
         <v>195</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A75" s="66"/>
-      <c r="B75" s="48" t="s">
+    <row r="75" spans="1:4" ht="49.5">
+      <c r="A75" s="63"/>
+      <c r="B75" s="66" t="s">
         <v>152</v>
       </c>
-      <c r="C75" s="48"/>
+      <c r="C75" s="66"/>
       <c r="D75" s="16" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A76" s="66"/>
-      <c r="B76" s="48" t="s">
+    <row r="76" spans="1:4" ht="33">
+      <c r="A76" s="63"/>
+      <c r="B76" s="66" t="s">
         <v>153</v>
       </c>
-      <c r="C76" s="48"/>
+      <c r="C76" s="66"/>
       <c r="D76" s="16" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="66"/>
-      <c r="B77" s="48" t="s">
+    <row r="77" spans="1:4">
+      <c r="A77" s="63"/>
+      <c r="B77" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="C77" s="48"/>
+      <c r="C77" s="66"/>
       <c r="D77" s="15" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="66"/>
-      <c r="B78" s="48" t="s">
+    <row r="78" spans="1:4">
+      <c r="A78" s="63"/>
+      <c r="B78" s="66" t="s">
         <v>156</v>
       </c>
-      <c r="C78" s="48"/>
+      <c r="C78" s="66"/>
       <c r="D78" s="15" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A79" s="66"/>
-      <c r="B79" s="48" t="s">
+    <row r="79" spans="1:4" ht="33">
+      <c r="A79" s="63"/>
+      <c r="B79" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="C79" s="48"/>
+      <c r="C79" s="66"/>
       <c r="D79" s="16" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="66"/>
-      <c r="B80" s="48" t="s">
+    <row r="80" spans="1:4" ht="33.75" customHeight="1">
+      <c r="A80" s="63"/>
+      <c r="B80" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="C80" s="61" t="s">
+      <c r="C80" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="D80" s="47"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="66"/>
-      <c r="B81" s="48"/>
+      <c r="D80" s="68"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="63"/>
+      <c r="B81" s="66"/>
       <c r="C81" s="2" t="s">
         <v>161</v>
       </c>
@@ -4693,9 +4694,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="66"/>
-      <c r="B82" s="48"/>
+    <row r="82" spans="1:4">
+      <c r="A82" s="63"/>
+      <c r="B82" s="66"/>
       <c r="C82" s="2" t="s">
         <v>162</v>
       </c>
@@ -4703,9 +4704,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="66"/>
-      <c r="B83" s="48"/>
+    <row r="83" spans="1:4">
+      <c r="A83" s="63"/>
+      <c r="B83" s="66"/>
       <c r="C83" s="2" t="s">
         <v>163</v>
       </c>
@@ -4713,9 +4714,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A84" s="66"/>
-      <c r="B84" s="52" t="s">
+    <row r="84" spans="1:4" ht="33">
+      <c r="A84" s="63"/>
+      <c r="B84" s="65" t="s">
         <v>179</v>
       </c>
       <c r="C84" s="5" t="s">
@@ -4725,9 +4726,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A85" s="66"/>
-      <c r="B85" s="52"/>
+    <row r="85" spans="1:4" ht="33">
+      <c r="A85" s="63"/>
+      <c r="B85" s="65"/>
       <c r="C85" s="5" t="s">
         <v>171</v>
       </c>
@@ -4735,9 +4736,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A86" s="66"/>
-      <c r="B86" s="52"/>
+    <row r="86" spans="1:4" ht="28.5">
+      <c r="A86" s="63"/>
+      <c r="B86" s="65"/>
       <c r="C86" s="5" t="s">
         <v>174</v>
       </c>
@@ -4745,9 +4746,9 @@
         <v>172</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A87" s="66"/>
-      <c r="B87" s="52" t="s">
+    <row r="87" spans="1:4" ht="33">
+      <c r="A87" s="63"/>
+      <c r="B87" s="65" t="s">
         <v>173</v>
       </c>
       <c r="C87" s="5" t="s">
@@ -4757,9 +4758,9 @@
         <v>177</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A88" s="66"/>
-      <c r="B88" s="48"/>
+    <row r="88" spans="1:4" ht="33">
+      <c r="A88" s="63"/>
+      <c r="B88" s="66"/>
       <c r="C88" s="5" t="s">
         <v>176</v>
       </c>
@@ -4767,19 +4768,19 @@
         <v>178</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="86.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="66"/>
-      <c r="B89" s="48" t="s">
+    <row r="89" spans="1:4" ht="86.25" customHeight="1">
+      <c r="A89" s="63"/>
+      <c r="B89" s="66" t="s">
         <v>180</v>
       </c>
-      <c r="C89" s="61" t="s">
+      <c r="C89" s="67" t="s">
         <v>189</v>
       </c>
-      <c r="D89" s="47"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="66"/>
-      <c r="B90" s="48"/>
+      <c r="D89" s="68"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="63"/>
+      <c r="B90" s="66"/>
       <c r="C90" s="8" t="s">
         <v>181</v>
       </c>
@@ -4787,9 +4788,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="66"/>
-      <c r="B91" s="48"/>
+    <row r="91" spans="1:4">
+      <c r="A91" s="63"/>
+      <c r="B91" s="66"/>
       <c r="C91" s="9" t="s">
         <v>183</v>
       </c>
@@ -4797,9 +4798,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="66"/>
-      <c r="B92" s="48"/>
+    <row r="92" spans="1:4">
+      <c r="A92" s="63"/>
+      <c r="B92" s="66"/>
       <c r="C92" s="9" t="s">
         <v>185</v>
       </c>
@@ -4807,9 +4808,9 @@
         <v>186</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="66"/>
-      <c r="B93" s="48"/>
+    <row r="93" spans="1:4">
+      <c r="A93" s="63"/>
+      <c r="B93" s="66"/>
       <c r="C93" s="9" t="s">
         <v>187</v>
       </c>
@@ -4817,41 +4818,41 @@
         <v>188</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="66"/>
-      <c r="B94" s="48" t="s">
+    <row r="94" spans="1:4">
+      <c r="A94" s="63"/>
+      <c r="B94" s="66" t="s">
         <v>190</v>
       </c>
-      <c r="C94" s="48"/>
+      <c r="C94" s="66"/>
       <c r="D94" s="15" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="67"/>
-      <c r="B95" s="58" t="s">
+    <row r="95" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A95" s="64"/>
+      <c r="B95" s="79" t="s">
         <v>191</v>
       </c>
-      <c r="C95" s="58"/>
+      <c r="C95" s="79"/>
       <c r="D95" s="25" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="69" t="s">
+    <row r="96" spans="1:4">
+      <c r="A96" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="B96" s="51" t="s">
+      <c r="B96" s="41" t="s">
         <v>207</v>
       </c>
-      <c r="C96" s="49" t="s">
+      <c r="C96" s="82" t="s">
         <v>198</v>
       </c>
-      <c r="D96" s="50"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="70"/>
-      <c r="B97" s="45"/>
+      <c r="D96" s="57"/>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="37"/>
+      <c r="B97" s="42"/>
       <c r="C97" s="2" t="s">
         <v>208</v>
       </c>
@@ -4859,8 +4860,8 @@
         <v>199</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="132" x14ac:dyDescent="0.3">
-      <c r="A98" s="70"/>
+    <row r="98" spans="1:4" ht="132">
+      <c r="A98" s="37"/>
       <c r="B98" s="43"/>
       <c r="C98" s="4" t="s">
         <v>200</v>
@@ -4869,9 +4870,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A99" s="70"/>
-      <c r="B99" s="42" t="s">
+    <row r="99" spans="1:4" ht="33">
+      <c r="A99" s="37"/>
+      <c r="B99" s="46" t="s">
         <v>223</v>
       </c>
       <c r="C99" s="5" t="s">
@@ -4881,9 +4882,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="66" x14ac:dyDescent="0.3">
-      <c r="A100" s="70"/>
-      <c r="B100" s="45"/>
+    <row r="100" spans="1:4" ht="66">
+      <c r="A100" s="37"/>
+      <c r="B100" s="42"/>
       <c r="C100" s="5" t="s">
         <v>213</v>
       </c>
@@ -4891,9 +4892,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A101" s="70"/>
-      <c r="B101" s="45"/>
+    <row r="101" spans="1:4" ht="33">
+      <c r="A101" s="37"/>
+      <c r="B101" s="42"/>
       <c r="C101" s="2" t="s">
         <v>214</v>
       </c>
@@ -4901,9 +4902,9 @@
         <v>215</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A102" s="70"/>
-      <c r="B102" s="45"/>
+    <row r="102" spans="1:4" ht="82.5">
+      <c r="A102" s="37"/>
+      <c r="B102" s="42"/>
       <c r="C102" s="2" t="s">
         <v>216</v>
       </c>
@@ -4911,9 +4912,9 @@
         <v>217</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A103" s="70"/>
-      <c r="B103" s="45"/>
+    <row r="103" spans="1:4" ht="82.5">
+      <c r="A103" s="37"/>
+      <c r="B103" s="42"/>
       <c r="C103" t="s">
         <v>218</v>
       </c>
@@ -4921,9 +4922,9 @@
         <v>219</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="70"/>
-      <c r="B104" s="45"/>
+    <row r="104" spans="1:4">
+      <c r="A104" s="37"/>
+      <c r="B104" s="42"/>
       <c r="C104" s="24" t="s">
         <v>220</v>
       </c>
@@ -4931,9 +4932,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="83.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="71"/>
-      <c r="B105" s="72"/>
+    <row r="105" spans="1:4" ht="83.25" thickBot="1">
+      <c r="A105" s="38"/>
+      <c r="B105" s="59"/>
       <c r="C105" s="26" t="s">
         <v>224</v>
       </c>
@@ -4941,11 +4942,11 @@
         <v>222</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A106" s="69" t="s">
+    <row r="106" spans="1:4" ht="33">
+      <c r="A106" s="36" t="s">
         <v>269</v>
       </c>
-      <c r="B106" s="76" t="s">
+      <c r="B106" s="58" t="s">
         <v>234</v>
       </c>
       <c r="C106" s="27" t="s">
@@ -4955,9 +4956,9 @@
         <v>233</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A107" s="70"/>
-      <c r="B107" s="45"/>
+    <row r="107" spans="1:4" ht="33">
+      <c r="A107" s="37"/>
+      <c r="B107" s="42"/>
       <c r="C107" s="2" t="s">
         <v>226</v>
       </c>
@@ -4965,9 +4966,9 @@
         <v>232</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A108" s="70"/>
-      <c r="B108" s="45"/>
+    <row r="108" spans="1:4" ht="33">
+      <c r="A108" s="37"/>
+      <c r="B108" s="42"/>
       <c r="C108" s="2" t="s">
         <v>227</v>
       </c>
@@ -4975,9 +4976,9 @@
         <v>231</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="70"/>
-      <c r="B109" s="45"/>
+    <row r="109" spans="1:4">
+      <c r="A109" s="37"/>
+      <c r="B109" s="42"/>
       <c r="C109" s="2" t="s">
         <v>230</v>
       </c>
@@ -4985,8 +4986,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="66" x14ac:dyDescent="0.3">
-      <c r="A110" s="70"/>
+    <row r="110" spans="1:4" ht="66">
+      <c r="A110" s="37"/>
       <c r="B110" s="43"/>
       <c r="C110" s="2" t="s">
         <v>228</v>
@@ -4995,9 +4996,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A111" s="70"/>
-      <c r="B111" s="42" t="s">
+    <row r="111" spans="1:4" ht="33">
+      <c r="A111" s="37"/>
+      <c r="B111" s="46" t="s">
         <v>245</v>
       </c>
       <c r="C111" s="2" t="s">
@@ -5007,9 +5008,9 @@
         <v>240</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="70"/>
-      <c r="B112" s="45"/>
+    <row r="112" spans="1:4" ht="33" customHeight="1">
+      <c r="A112" s="37"/>
+      <c r="B112" s="42"/>
       <c r="C112" s="2" t="s">
         <v>236</v>
       </c>
@@ -5017,9 +5018,9 @@
         <v>241</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A113" s="70"/>
-      <c r="B113" s="45"/>
+    <row r="113" spans="1:4" ht="33">
+      <c r="A113" s="37"/>
+      <c r="B113" s="42"/>
       <c r="C113" s="2" t="s">
         <v>237</v>
       </c>
@@ -5027,9 +5028,9 @@
         <v>242</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="70"/>
-      <c r="B114" s="45"/>
+    <row r="114" spans="1:4">
+      <c r="A114" s="37"/>
+      <c r="B114" s="42"/>
       <c r="C114" s="2" t="s">
         <v>238</v>
       </c>
@@ -5037,8 +5038,8 @@
         <v>243</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="66" x14ac:dyDescent="0.3">
-      <c r="A115" s="70"/>
+    <row r="115" spans="1:4" ht="66">
+      <c r="A115" s="37"/>
       <c r="B115" s="43"/>
       <c r="C115" s="2" t="s">
         <v>239</v>
@@ -5047,9 +5048,9 @@
         <v>244</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A116" s="70"/>
-      <c r="B116" s="42" t="s">
+    <row r="116" spans="1:4" ht="33">
+      <c r="A116" s="37"/>
+      <c r="B116" s="46" t="s">
         <v>246</v>
       </c>
       <c r="C116" s="5" t="s">
@@ -5059,9 +5060,9 @@
         <v>249</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A117" s="70"/>
-      <c r="B117" s="45"/>
+    <row r="117" spans="1:4" ht="33">
+      <c r="A117" s="37"/>
+      <c r="B117" s="42"/>
       <c r="C117" s="5" t="s">
         <v>248</v>
       </c>
@@ -5069,9 +5070,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A118" s="70"/>
-      <c r="B118" s="45"/>
+    <row r="118" spans="1:4" ht="49.5">
+      <c r="A118" s="37"/>
+      <c r="B118" s="42"/>
       <c r="C118" s="2" t="s">
         <v>251</v>
       </c>
@@ -5079,8 +5080,8 @@
         <v>253</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="132" x14ac:dyDescent="0.3">
-      <c r="A119" s="70"/>
+    <row r="119" spans="1:4" ht="132">
+      <c r="A119" s="37"/>
       <c r="B119" s="43"/>
       <c r="C119" s="2" t="s">
         <v>252</v>
@@ -5089,9 +5090,9 @@
         <v>254</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="99" x14ac:dyDescent="0.3">
-      <c r="A120" s="70"/>
-      <c r="B120" s="42" t="s">
+    <row r="120" spans="1:4" ht="99">
+      <c r="A120" s="37"/>
+      <c r="B120" s="46" t="s">
         <v>255</v>
       </c>
       <c r="C120" s="2" t="s">
@@ -5101,9 +5102,9 @@
         <v>257</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A121" s="70"/>
-      <c r="B121" s="45"/>
+    <row r="121" spans="1:4" ht="49.5">
+      <c r="A121" s="37"/>
+      <c r="B121" s="42"/>
       <c r="C121" s="2" t="s">
         <v>258</v>
       </c>
@@ -5111,9 +5112,9 @@
         <v>259</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="70"/>
-      <c r="B122" s="45"/>
+    <row r="122" spans="1:4">
+      <c r="A122" s="37"/>
+      <c r="B122" s="42"/>
       <c r="C122" s="2" t="s">
         <v>260</v>
       </c>
@@ -5121,9 +5122,9 @@
         <v>261</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="165.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="71"/>
-      <c r="B123" s="72"/>
+    <row r="123" spans="1:4" ht="165.75" thickBot="1">
+      <c r="A123" s="38"/>
+      <c r="B123" s="59"/>
       <c r="C123" s="30" t="s">
         <v>262</v>
       </c>
@@ -5131,20 +5132,20 @@
         <v>263</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="69" t="s">
+    <row r="124" spans="1:4" ht="49.5" customHeight="1">
+      <c r="A124" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="B124" s="76" t="s">
+      <c r="B124" s="58" t="s">
         <v>268</v>
       </c>
-      <c r="C124" s="75" t="s">
+      <c r="C124" s="56" t="s">
         <v>265</v>
       </c>
-      <c r="D124" s="50"/>
-    </row>
-    <row r="125" spans="1:4" ht="99" x14ac:dyDescent="0.3">
-      <c r="A125" s="78"/>
+      <c r="D124" s="57"/>
+    </row>
+    <row r="125" spans="1:4" ht="99">
+      <c r="A125" s="60"/>
       <c r="B125" s="43"/>
       <c r="C125" s="5" t="s">
         <v>266</v>
@@ -5153,18 +5154,18 @@
         <v>267</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" s="78"/>
-      <c r="B126" s="42" t="s">
+    <row r="126" spans="1:4">
+      <c r="A126" s="60"/>
+      <c r="B126" s="46" t="s">
         <v>271</v>
       </c>
-      <c r="C126" s="44" t="s">
+      <c r="C126" s="55" t="s">
         <v>272</v>
       </c>
-      <c r="D126" s="37"/>
-    </row>
-    <row r="127" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A127" s="78"/>
+      <c r="D126" s="49"/>
+    </row>
+    <row r="127" spans="1:4" ht="33">
+      <c r="A127" s="60"/>
       <c r="B127" s="43"/>
       <c r="C127" s="5" t="s">
         <v>276</v>
@@ -5173,18 +5174,18 @@
         <v>273</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" s="78"/>
-      <c r="B128" s="42" t="s">
+    <row r="128" spans="1:4">
+      <c r="A128" s="60"/>
+      <c r="B128" s="46" t="s">
         <v>274</v>
       </c>
-      <c r="C128" s="44" t="s">
+      <c r="C128" s="55" t="s">
         <v>275</v>
       </c>
-      <c r="D128" s="37"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" s="78"/>
+      <c r="D128" s="49"/>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="60"/>
       <c r="B129" s="43"/>
       <c r="C129" s="2" t="s">
         <v>277</v>
@@ -5193,19 +5194,19 @@
         <v>278</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="78"/>
-      <c r="B130" s="42" t="s">
+    <row r="130" spans="1:4" ht="33" customHeight="1">
+      <c r="A130" s="60"/>
+      <c r="B130" s="46" t="s">
         <v>279</v>
       </c>
-      <c r="C130" s="36" t="s">
+      <c r="C130" s="48" t="s">
         <v>284</v>
       </c>
-      <c r="D130" s="37"/>
-    </row>
-    <row r="131" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A131" s="78"/>
-      <c r="B131" s="45"/>
+      <c r="D130" s="49"/>
+    </row>
+    <row r="131" spans="1:4" ht="82.5">
+      <c r="A131" s="60"/>
+      <c r="B131" s="42"/>
       <c r="C131" s="31" t="s">
         <v>280</v>
       </c>
@@ -5213,9 +5214,9 @@
         <v>286</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A132" s="78"/>
-      <c r="B132" s="45"/>
+    <row r="132" spans="1:4" ht="82.5">
+      <c r="A132" s="60"/>
+      <c r="B132" s="42"/>
       <c r="C132" s="32" t="s">
         <v>281</v>
       </c>
@@ -5223,17 +5224,17 @@
         <v>285</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133" s="78"/>
+    <row r="133" spans="1:4">
+      <c r="A133" s="60"/>
       <c r="B133" s="43"/>
-      <c r="C133" s="44" t="s">
+      <c r="C133" s="55" t="s">
         <v>282</v>
       </c>
-      <c r="D133" s="37"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134" s="78"/>
-      <c r="B134" s="42" t="s">
+      <c r="D133" s="49"/>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="60"/>
+      <c r="B134" s="46" t="s">
         <v>287</v>
       </c>
       <c r="C134" s="2" t="s">
@@ -5243,9 +5244,9 @@
         <v>289</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135" s="78"/>
-      <c r="B135" s="45"/>
+    <row r="135" spans="1:4">
+      <c r="A135" s="60"/>
+      <c r="B135" s="42"/>
       <c r="C135" s="2" t="s">
         <v>290</v>
       </c>
@@ -5253,8 +5254,8 @@
         <v>291</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136" s="78"/>
+    <row r="136" spans="1:4">
+      <c r="A136" s="60"/>
       <c r="B136" s="43"/>
       <c r="C136" s="2" t="s">
         <v>292</v>
@@ -5263,9 +5264,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137" s="78"/>
-      <c r="B137" s="42" t="s">
+    <row r="137" spans="1:4">
+      <c r="A137" s="60"/>
+      <c r="B137" s="46" t="s">
         <v>294</v>
       </c>
       <c r="C137" s="2" t="s">
@@ -5275,9 +5276,9 @@
         <v>306</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138" s="78"/>
-      <c r="B138" s="45"/>
+    <row r="138" spans="1:4">
+      <c r="A138" s="60"/>
+      <c r="B138" s="42"/>
       <c r="C138" s="2" t="s">
         <v>295</v>
       </c>
@@ -5285,9 +5286,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A139" s="78"/>
-      <c r="B139" s="45"/>
+    <row r="139" spans="1:4">
+      <c r="A139" s="60"/>
+      <c r="B139" s="42"/>
       <c r="C139" s="2" t="s">
         <v>297</v>
       </c>
@@ -5295,9 +5296,9 @@
         <v>298</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A140" s="78"/>
-      <c r="B140" s="45"/>
+    <row r="140" spans="1:4">
+      <c r="A140" s="60"/>
+      <c r="B140" s="42"/>
       <c r="C140" s="2" t="s">
         <v>299</v>
       </c>
@@ -5305,8 +5306,8 @@
         <v>300</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A141" s="78"/>
+    <row r="141" spans="1:4">
+      <c r="A141" s="60"/>
       <c r="B141" s="43"/>
       <c r="C141" s="2" t="s">
         <v>301</v>
@@ -5315,29 +5316,29 @@
         <v>302</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A142" s="78"/>
+    <row r="142" spans="1:4">
+      <c r="A142" s="60"/>
       <c r="B142" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C142" s="44" t="s">
+      <c r="C142" s="55" t="s">
         <v>304</v>
       </c>
-      <c r="D142" s="37"/>
-    </row>
-    <row r="143" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="78"/>
-      <c r="B143" s="38" t="s">
+      <c r="D142" s="49"/>
+    </row>
+    <row r="143" spans="1:4" ht="33" customHeight="1">
+      <c r="A143" s="60"/>
+      <c r="B143" s="50" t="s">
         <v>309</v>
       </c>
-      <c r="C143" s="36" t="s">
+      <c r="C143" s="48" t="s">
         <v>310</v>
       </c>
-      <c r="D143" s="77"/>
-    </row>
-    <row r="144" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A144" s="78"/>
-      <c r="B144" s="39"/>
+      <c r="D143" s="83"/>
+    </row>
+    <row r="144" spans="1:4" ht="33">
+      <c r="A144" s="60"/>
+      <c r="B144" s="51"/>
       <c r="C144" s="2" t="s">
         <v>307</v>
       </c>
@@ -5345,9 +5346,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A145" s="78"/>
-      <c r="B145" s="40"/>
+    <row r="145" spans="1:4" ht="49.5">
+      <c r="A145" s="60"/>
+      <c r="B145" s="52"/>
       <c r="C145" s="2" t="s">
         <v>308</v>
       </c>
@@ -5355,8 +5356,8 @@
         <v>314</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="66.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="79"/>
+    <row r="146" spans="1:4" ht="66.75" thickBot="1">
+      <c r="A146" s="61"/>
       <c r="B146" s="23" t="s">
         <v>311</v>
       </c>
@@ -5367,21 +5368,21 @@
         <v>315</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A147" s="69" t="s">
+    <row r="147" spans="1:4">
+      <c r="A147" s="36" t="s">
         <v>349</v>
       </c>
-      <c r="B147" s="51" t="s">
+      <c r="B147" s="41" t="s">
         <v>316</v>
       </c>
-      <c r="C147" s="73" t="s">
+      <c r="C147" s="39" t="s">
         <v>319</v>
       </c>
-      <c r="D147" s="74"/>
-    </row>
-    <row r="148" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A148" s="70"/>
-      <c r="B148" s="45"/>
+      <c r="D147" s="47"/>
+    </row>
+    <row r="148" spans="1:4" ht="33">
+      <c r="A148" s="37"/>
+      <c r="B148" s="42"/>
       <c r="C148" s="35" t="s">
         <v>317</v>
       </c>
@@ -5389,8 +5390,8 @@
         <v>320</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A149" s="70"/>
+    <row r="149" spans="1:4" ht="49.5">
+      <c r="A149" s="37"/>
       <c r="B149" s="43"/>
       <c r="C149" s="2" t="s">
         <v>318</v>
@@ -5399,9 +5400,9 @@
         <v>321</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A150" s="70"/>
-      <c r="B150" s="42" t="s">
+    <row r="150" spans="1:4">
+      <c r="A150" s="37"/>
+      <c r="B150" s="46" t="s">
         <v>323</v>
       </c>
       <c r="C150" s="2" t="s">
@@ -5411,8 +5412,8 @@
         <v>324</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A151" s="70"/>
+    <row r="151" spans="1:4" ht="115.5">
+      <c r="A151" s="37"/>
       <c r="B151" s="43"/>
       <c r="C151" s="2" t="s">
         <v>325</v>
@@ -5421,19 +5422,19 @@
         <v>335</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="70"/>
-      <c r="B152" s="38" t="s">
+    <row r="152" spans="1:4" ht="50.25" customHeight="1">
+      <c r="A152" s="37"/>
+      <c r="B152" s="50" t="s">
         <v>326</v>
       </c>
-      <c r="C152" s="36" t="s">
+      <c r="C152" s="48" t="s">
         <v>328</v>
       </c>
-      <c r="D152" s="37"/>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A153" s="70"/>
-      <c r="B153" s="39"/>
+      <c r="D152" s="49"/>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="37"/>
+      <c r="B153" s="51"/>
       <c r="C153" s="2" t="s">
         <v>327</v>
       </c>
@@ -5441,9 +5442,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A154" s="70"/>
-      <c r="B154" s="40"/>
+    <row r="154" spans="1:4">
+      <c r="A154" s="37"/>
+      <c r="B154" s="52"/>
       <c r="C154" s="2" t="s">
         <v>330</v>
       </c>
@@ -5451,18 +5452,18 @@
         <v>331</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A155" s="70"/>
-      <c r="B155" s="42" t="s">
+    <row r="155" spans="1:4">
+      <c r="A155" s="37"/>
+      <c r="B155" s="46" t="s">
         <v>332</v>
       </c>
-      <c r="C155" s="44" t="s">
+      <c r="C155" s="55" t="s">
         <v>333</v>
       </c>
-      <c r="D155" s="37"/>
-    </row>
-    <row r="156" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A156" s="70"/>
+      <c r="D155" s="49"/>
+    </row>
+    <row r="156" spans="1:4" ht="49.5">
+      <c r="A156" s="37"/>
       <c r="B156" s="43"/>
       <c r="C156" s="2" t="s">
         <v>334</v>
@@ -5471,19 +5472,19 @@
         <v>336</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="70"/>
-      <c r="B157" s="38" t="s">
+    <row r="157" spans="1:4" ht="33.75" customHeight="1">
+      <c r="A157" s="37"/>
+      <c r="B157" s="50" t="s">
         <v>341</v>
       </c>
-      <c r="C157" s="36" t="s">
+      <c r="C157" s="48" t="s">
         <v>346</v>
       </c>
-      <c r="D157" s="37"/>
-    </row>
-    <row r="158" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="70"/>
-      <c r="B158" s="39"/>
+      <c r="D157" s="49"/>
+    </row>
+    <row r="158" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A158" s="37"/>
+      <c r="B158" s="51"/>
       <c r="C158" s="2" t="s">
         <v>337</v>
       </c>
@@ -5491,9 +5492,9 @@
         <v>342</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A159" s="70"/>
-      <c r="B159" s="39"/>
+    <row r="159" spans="1:4">
+      <c r="A159" s="37"/>
+      <c r="B159" s="51"/>
       <c r="C159" s="2" t="s">
         <v>338</v>
       </c>
@@ -5501,9 +5502,9 @@
         <v>343</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A160" s="70"/>
-      <c r="B160" s="39"/>
+    <row r="160" spans="1:4">
+      <c r="A160" s="37"/>
+      <c r="B160" s="51"/>
       <c r="C160" s="2" t="s">
         <v>339</v>
       </c>
@@ -5511,9 +5512,9 @@
         <v>344</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A161" s="70"/>
-      <c r="B161" s="40"/>
+    <row r="161" spans="1:4">
+      <c r="A161" s="37"/>
+      <c r="B161" s="52"/>
       <c r="C161" s="2" t="s">
         <v>340</v>
       </c>
@@ -5521,30 +5522,30 @@
         <v>345</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="71"/>
+    <row r="162" spans="1:4" ht="33.75" thickBot="1">
+      <c r="A162" s="38"/>
       <c r="B162" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="C162" s="80" t="s">
+      <c r="C162" s="53" t="s">
         <v>348</v>
       </c>
-      <c r="D162" s="81"/>
-    </row>
-    <row r="163" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D162" s="54"/>
+    </row>
+    <row r="163" spans="1:4" ht="33" customHeight="1">
       <c r="A163" s="33" t="s">
         <v>350</v>
       </c>
-      <c r="B163" s="51" t="s">
+      <c r="B163" s="41" t="s">
         <v>351</v>
       </c>
-      <c r="C163" s="73" t="s">
+      <c r="C163" s="39" t="s">
         <v>353</v>
       </c>
-      <c r="D163" s="82"/>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B164" s="45"/>
+      <c r="D163" s="40"/>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="B164" s="42"/>
       <c r="C164" s="2" t="s">
         <v>352</v>
       </c>
@@ -5552,8 +5553,8 @@
         <v>358</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B165" s="45"/>
+    <row r="165" spans="1:4">
+      <c r="B165" s="42"/>
       <c r="C165" s="2" t="s">
         <v>354</v>
       </c>
@@ -5561,7 +5562,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" ht="82.5">
       <c r="B166" s="43"/>
       <c r="C166" s="2" t="s">
         <v>355</v>
@@ -5570,17 +5571,17 @@
         <v>356</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="42" t="s">
+    <row r="167" spans="1:4" ht="49.5" customHeight="1">
+      <c r="B167" s="46" t="s">
         <v>363</v>
       </c>
-      <c r="C167" s="83" t="s">
+      <c r="C167" s="44" t="s">
         <v>359</v>
       </c>
-      <c r="D167" s="41"/>
-    </row>
-    <row r="168" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B168" s="45"/>
+      <c r="D167" s="45"/>
+    </row>
+    <row r="168" spans="1:4" ht="82.5">
+      <c r="B168" s="42"/>
       <c r="C168" s="2" t="s">
         <v>360</v>
       </c>
@@ -5588,88 +5589,75 @@
         <v>361</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B169" s="45"/>
+    <row r="169" spans="1:4" ht="82.5">
+      <c r="B169" s="42"/>
       <c r="C169" s="5" t="s">
         <v>362</v>
       </c>
       <c r="D169" s="16" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="115.5">
       <c r="B170" s="43"/>
       <c r="C170" s="5" t="s">
         <v>364</v>
       </c>
       <c r="D170" s="16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="67.5" customHeight="1">
+      <c r="B171" s="2" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B171" s="2" t="s">
+      <c r="C171" s="44" t="s">
         <v>366</v>
       </c>
-      <c r="C171" s="83" t="s">
-        <v>367</v>
-      </c>
-      <c r="D171" s="41"/>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B172" s="2" t="s">
+      <c r="D171" s="45"/>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="B172" s="46" t="s">
+        <v>368</v>
+      </c>
+      <c r="C172" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="D172" s="15" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="B173" s="43"/>
+      <c r="C173" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D172" s="15" t="s">
+      <c r="D173" s="15" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C173" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="D173" s="15" t="s">
-        <v>373</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="80">
-    <mergeCell ref="C171:D171"/>
-    <mergeCell ref="A147:A162"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="B163:B166"/>
-    <mergeCell ref="C167:D167"/>
-    <mergeCell ref="B167:B170"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="B147:B149"/>
-    <mergeCell ref="A106:A123"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="B106:B110"/>
-    <mergeCell ref="B111:B115"/>
-    <mergeCell ref="B116:B119"/>
-    <mergeCell ref="B120:B123"/>
+  <mergeCells count="81">
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="B89:B93"/>
+    <mergeCell ref="B94:C94"/>
     <mergeCell ref="B143:B145"/>
     <mergeCell ref="C143:D143"/>
-    <mergeCell ref="A124:A146"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="B137:B141"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="A96:A105"/>
-    <mergeCell ref="B99:B105"/>
-    <mergeCell ref="A71:A95"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="B40:B43"/>
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="B14:B18"/>
@@ -5686,28 +5674,43 @@
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B31:B38"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="B96:B98"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="B89:B93"/>
-    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="A96:A105"/>
+    <mergeCell ref="B99:B105"/>
+    <mergeCell ref="A71:A95"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="A106:A123"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="B106:B110"/>
+    <mergeCell ref="B111:B115"/>
+    <mergeCell ref="B116:B119"/>
+    <mergeCell ref="B120:B123"/>
+    <mergeCell ref="A124:A146"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="B137:B141"/>
+    <mergeCell ref="C133:D133"/>
     <mergeCell ref="B130:B133"/>
     <mergeCell ref="C126:D126"/>
     <mergeCell ref="C128:D128"/>
     <mergeCell ref="B126:B127"/>
-    <mergeCell ref="B128:B129"/>
-    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="A147:A162"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="B163:B166"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="B167:B170"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="B147:B149"/>
     <mergeCell ref="C157:D157"/>
     <mergeCell ref="B157:B161"/>
     <mergeCell ref="C162:D162"/>
